--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documenti\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18809D43-F33E-4BC0-820A-4738C36BC966}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852CA821-7830-4C71-8083-D646903F8419}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{93EB8B36-C556-4775-9097-F89B03EE0B0D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="29">
   <si>
     <t>Persona</t>
   </si>
@@ -431,15 +431,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -451,7 +442,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -464,21 +454,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -491,7 +483,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -499,6 +490,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -510,16 +510,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -837,7 +837,7 @@
   <dimension ref="B1:T54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -869,150 +869,150 @@
       <c r="E2" s="47"/>
     </row>
     <row r="3" spans="2:20" ht="24" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:20" ht="21" x14ac:dyDescent="0.4">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="2:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="49" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="13">
+      <c r="C6" s="48"/>
+      <c r="D6" s="10">
         <f>SUM(J14:J47)</f>
         <v>950</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="28">
         <f t="shared" ref="E6:E9" si="0">_xlfn.FLOOR.MATH(D6/60)</f>
         <v>15</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="38"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="10">
+      <c r="C7" s="49"/>
+      <c r="D7" s="7">
         <f>SUM(O14:O117)</f>
         <v>2610</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="29">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="40"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33">
+      <c r="C8" s="50"/>
+      <c r="D8" s="26">
         <f>SUM(T14:T51)</f>
-        <v>2250</v>
-      </c>
-      <c r="E8" s="36">
+        <v>2490</v>
+      </c>
+      <c r="E8" s="28">
         <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="F8" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="38"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="10">
+      <c r="C9" s="49"/>
+      <c r="D9" s="7">
         <f>SUM(E14:E37)</f>
         <v>750</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="29">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="40"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="34"/>
-      <c r="D10" s="35">
+      <c r="D10" s="27">
         <f>SUM(D6:D9)</f>
-        <v>6560</v>
-      </c>
-      <c r="E10" s="36">
+        <v>6800</v>
+      </c>
+      <c r="E10" s="28">
         <f>_xlfn.FLOOR.MATH(D10/60)</f>
-        <v>109</v>
-      </c>
-      <c r="F10" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="38"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="12" spans="2:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="G12" s="7" t="s">
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
+      <c r="G12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
-      <c r="L12" s="7" t="s">
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="44"/>
+      <c r="L12" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="9"/>
-      <c r="Q12" s="7" t="s">
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="44"/>
+      <c r="Q12" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="9"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="44"/>
     </row>
     <row r="13" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
@@ -1051,16 +1051,16 @@
       <c r="O13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q13" s="25" t="s">
+      <c r="Q13" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="R13" s="26" t="s">
+      <c r="R13" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="S13" s="26" t="s">
+      <c r="S13" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="T13" s="27" t="s">
+      <c r="T13" s="23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1101,16 +1101,16 @@
       <c r="O14" s="2">
         <v>60</v>
       </c>
-      <c r="Q14" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="S14" s="23">
+      <c r="Q14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" s="19">
         <v>43433</v>
       </c>
-      <c r="T14" s="24">
+      <c r="T14" s="20">
         <v>60</v>
       </c>
     </row>
@@ -1151,16 +1151,16 @@
       <c r="O15" s="4">
         <v>80</v>
       </c>
-      <c r="Q15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="S15" s="12">
+      <c r="Q15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15" s="9">
         <v>43446</v>
       </c>
-      <c r="T15" s="10">
+      <c r="T15" s="7">
         <v>360</v>
       </c>
     </row>
@@ -1201,16 +1201,16 @@
       <c r="O16" s="2">
         <v>70</v>
       </c>
-      <c r="Q16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S16" s="14">
+      <c r="Q16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S16" s="11">
         <v>43481</v>
       </c>
-      <c r="T16" s="13">
+      <c r="T16" s="10">
         <v>60</v>
       </c>
     </row>
@@ -1251,16 +1251,16 @@
       <c r="O17" s="4">
         <v>30</v>
       </c>
-      <c r="Q17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="S17" s="11">
+      <c r="Q17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S17" s="8">
         <v>43481</v>
       </c>
-      <c r="T17" s="10">
+      <c r="T17" s="7">
         <v>120</v>
       </c>
     </row>
@@ -1301,16 +1301,16 @@
       <c r="O18" s="2">
         <v>50</v>
       </c>
-      <c r="Q18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S18" s="14">
+      <c r="Q18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" s="11">
         <v>43482</v>
       </c>
-      <c r="T18" s="13">
+      <c r="T18" s="10">
         <v>120</v>
       </c>
     </row>
@@ -1351,16 +1351,16 @@
       <c r="O19" s="4">
         <v>40</v>
       </c>
-      <c r="Q19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="R19" s="10" t="s">
+      <c r="Q19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S19" s="11">
+      <c r="S19" s="8">
         <v>43496</v>
       </c>
-      <c r="T19" s="10">
+      <c r="T19" s="7">
         <v>240</v>
       </c>
     </row>
@@ -1401,16 +1401,16 @@
       <c r="O20" s="2">
         <v>30</v>
       </c>
-      <c r="Q20" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="13" t="s">
+      <c r="Q20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S20" s="14">
+      <c r="S20" s="11">
         <v>43497</v>
       </c>
-      <c r="T20" s="13">
+      <c r="T20" s="10">
         <v>150</v>
       </c>
     </row>
@@ -1451,16 +1451,16 @@
       <c r="O21" s="4">
         <v>80</v>
       </c>
-      <c r="Q21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="15" t="s">
+      <c r="Q21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S21" s="20">
+      <c r="S21" s="16">
         <v>43499</v>
       </c>
-      <c r="T21" s="10">
+      <c r="T21" s="7">
         <v>120</v>
       </c>
     </row>
@@ -1501,16 +1501,16 @@
       <c r="O22" s="2">
         <v>40</v>
       </c>
-      <c r="Q22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="13" t="s">
+      <c r="Q22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="14">
+      <c r="S22" s="11">
         <v>43501</v>
       </c>
-      <c r="T22" s="13">
+      <c r="T22" s="10">
         <v>120</v>
       </c>
     </row>
@@ -1551,16 +1551,16 @@
       <c r="O23" s="4">
         <v>40</v>
       </c>
-      <c r="Q23" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="16" t="s">
+      <c r="Q23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="S23" s="17">
+      <c r="S23" s="14">
         <v>43509</v>
       </c>
-      <c r="T23" s="16">
+      <c r="T23" s="13">
         <v>60</v>
       </c>
     </row>
@@ -1601,16 +1601,16 @@
       <c r="O24" s="2">
         <v>90</v>
       </c>
-      <c r="Q24" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="13" t="s">
+      <c r="Q24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="14">
+      <c r="S24" s="11">
         <v>43516</v>
       </c>
-      <c r="T24" s="13">
+      <c r="T24" s="10">
         <v>120</v>
       </c>
     </row>
@@ -1639,16 +1639,16 @@
       <c r="O25" s="4">
         <v>30</v>
       </c>
-      <c r="Q25" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="R25" s="16" t="s">
+      <c r="Q25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="S25" s="17">
+      <c r="S25" s="14">
         <v>43525</v>
       </c>
-      <c r="T25" s="16">
+      <c r="T25" s="13">
         <v>90</v>
       </c>
     </row>
@@ -1677,16 +1677,16 @@
       <c r="O26" s="2">
         <v>60</v>
       </c>
-      <c r="Q26" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="R26" s="18" t="s">
+      <c r="Q26" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S26" s="28">
+      <c r="S26" s="24">
         <v>43527</v>
       </c>
-      <c r="T26" s="18">
+      <c r="T26" s="15">
         <v>120</v>
       </c>
     </row>
@@ -1715,16 +1715,16 @@
       <c r="O27" s="4">
         <v>10</v>
       </c>
-      <c r="Q27" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="R27" s="16" t="s">
+      <c r="Q27" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="S27" s="17">
+      <c r="S27" s="14">
         <v>43534</v>
       </c>
-      <c r="T27" s="16">
+      <c r="T27" s="13">
         <v>60</v>
       </c>
     </row>
@@ -1753,16 +1753,16 @@
       <c r="O28" s="2">
         <v>120</v>
       </c>
-      <c r="Q28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S28" s="14">
+      <c r="Q28" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S28" s="11">
         <v>43553</v>
       </c>
-      <c r="T28" s="13">
+      <c r="T28" s="10">
         <v>60</v>
       </c>
     </row>
@@ -1791,16 +1791,16 @@
       <c r="O29" s="4">
         <v>120</v>
       </c>
-      <c r="Q29" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="16" t="s">
+      <c r="Q29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S29" s="17">
+      <c r="S29" s="14">
         <v>43558</v>
       </c>
-      <c r="T29" s="16">
+      <c r="T29" s="13">
         <v>30</v>
       </c>
     </row>
@@ -1829,16 +1829,16 @@
       <c r="O30" s="2">
         <v>120</v>
       </c>
-      <c r="Q30" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R30" s="13" t="s">
+      <c r="Q30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R30" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S30" s="14">
+      <c r="S30" s="11">
         <v>43558</v>
       </c>
-      <c r="T30" s="13">
+      <c r="T30" s="10">
         <v>90</v>
       </c>
     </row>
@@ -1855,16 +1855,16 @@
       <c r="O31" s="4">
         <v>120</v>
       </c>
-      <c r="Q31" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="R31" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="S31" s="17">
+      <c r="Q31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S31" s="14">
         <v>43559</v>
       </c>
-      <c r="T31" s="16">
+      <c r="T31" s="13">
         <v>60</v>
       </c>
     </row>
@@ -1881,16 +1881,16 @@
       <c r="O32" s="2">
         <v>130</v>
       </c>
-      <c r="Q32" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="13" t="s">
+      <c r="Q32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S32" s="14">
+      <c r="S32" s="11">
         <v>43559</v>
       </c>
-      <c r="T32" s="13">
+      <c r="T32" s="10">
         <v>120</v>
       </c>
     </row>
@@ -1907,16 +1907,16 @@
       <c r="O33" s="4">
         <v>30</v>
       </c>
-      <c r="Q33" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="R33" s="16" t="s">
+      <c r="Q33" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="S33" s="21">
+      <c r="S33" s="17">
         <v>43560</v>
       </c>
-      <c r="T33" s="16">
+      <c r="T33" s="13">
         <v>60</v>
       </c>
     </row>
@@ -1933,16 +1933,16 @@
       <c r="O34" s="2">
         <v>100</v>
       </c>
-      <c r="Q34" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R34" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S34" s="14">
+      <c r="Q34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R34" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S34" s="11">
         <v>43567</v>
       </c>
-      <c r="T34" s="13">
+      <c r="T34" s="10">
         <v>30</v>
       </c>
     </row>
@@ -1959,9 +1959,18 @@
       <c r="O35" s="4">
         <v>10</v>
       </c>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
+      <c r="Q35" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="S35" s="51">
+        <v>43569</v>
+      </c>
+      <c r="T35" s="13">
+        <v>240</v>
+      </c>
     </row>
     <row r="36" spans="12:20" x14ac:dyDescent="0.3">
       <c r="L36" s="2" t="s">
@@ -2231,6 +2240,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="L12:O12"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="F10:G10"/>
@@ -2238,17 +2258,6 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documenti\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852CA821-7830-4C71-8083-D646903F8419}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BFE8D0-952B-4DDB-83A2-DCFD60A2F54B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{93EB8B36-C556-4775-9097-F89B03EE0B0D}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{93EB8B36-C556-4775-9097-F89B03EE0B0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="29">
   <si>
     <t>Persona</t>
   </si>
@@ -197,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -419,11 +418,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -459,39 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,7 +497,41 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -834,75 +846,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A511A23-0AE1-43CE-B25D-50A28135284A}">
-  <dimension ref="B1:T54"/>
+  <dimension ref="B1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:20" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="45" t="s">
+    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:20" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-    </row>
-    <row r="3" spans="2:20" ht="24" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="2:20" ht="24" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="2:20" ht="21" x14ac:dyDescent="0.4">
-      <c r="B4" s="39" t="s">
+    <row r="4" spans="2:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-    </row>
-    <row r="5" spans="2:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="31" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+    </row>
+    <row r="5" spans="2:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="40"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="48" t="s">
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="48"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="10">
         <f>SUM(J14:J47)</f>
         <v>950</v>
@@ -911,34 +923,34 @@
         <f t="shared" ref="E6:E9" si="0">_xlfn.FLOOR.MATH(D6/60)</f>
         <v>15</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="36"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="49" t="s">
+      <c r="G6" s="49"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="7">
         <f>SUM(O14:O117)</f>
-        <v>2610</v>
+        <v>2730</v>
       </c>
       <c r="E7" s="29">
         <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="F7" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="38"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="50" t="s">
+      <c r="G7" s="51"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="26">
         <f>SUM(T14:T51)</f>
         <v>2490</v>
@@ -947,16 +959,16 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="36"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="49" t="s">
+      <c r="G8" s="49"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="7">
         <f>SUM(E14:E37)</f>
         <v>750</v>
@@ -965,56 +977,56 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="38"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="34" t="s">
+      <c r="G9" s="51"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="27">
         <f>SUM(D6:D9)</f>
-        <v>6800</v>
+        <v>6920</v>
       </c>
       <c r="E10" s="28">
         <f>_xlfn.FLOOR.MATH(D10/60)</f>
-        <v>113</v>
-      </c>
-      <c r="F10" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="12" spans="2:20" ht="18" x14ac:dyDescent="0.35">
-      <c r="B12" s="42" t="s">
+      <c r="G10" s="49"/>
+    </row>
+    <row r="12" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
-      <c r="G12" s="42" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="G12" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
-      <c r="L12" s="42" t="s">
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="34"/>
+      <c r="L12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="44"/>
-      <c r="Q12" s="42" t="s">
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
+      <c r="Q12" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="44"/>
-    </row>
-    <row r="13" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="34"/>
+    </row>
+    <row r="13" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
@@ -1064,7 +1076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1114,7 +1126,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
@@ -1164,7 +1176,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1214,7 +1226,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1264,7 +1276,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1314,7 +1326,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
@@ -1364,7 +1376,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
@@ -1414,7 +1426,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
@@ -1464,7 +1476,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
@@ -1514,7 +1526,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
@@ -1564,7 +1576,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
@@ -1614,7 +1626,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G25" s="4" t="s">
         <v>5</v>
       </c>
@@ -1652,7 +1664,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G26" s="2" t="s">
         <v>10</v>
       </c>
@@ -1690,7 +1702,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G27" s="4" t="s">
         <v>5</v>
       </c>
@@ -1728,7 +1740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G28" s="2" t="s">
         <v>5</v>
       </c>
@@ -1766,7 +1778,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G29" s="4" t="s">
         <v>5</v>
       </c>
@@ -1804,7 +1816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G30" s="2" t="s">
         <v>5</v>
       </c>
@@ -1842,7 +1854,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L31" s="4" t="s">
         <v>5</v>
       </c>
@@ -1868,7 +1880,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L32" s="2" t="s">
         <v>5</v>
       </c>
@@ -1894,7 +1906,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="12:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L33" s="4" t="s">
         <v>10</v>
       </c>
@@ -1920,7 +1932,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="12:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L34" s="2" t="s">
         <v>5</v>
       </c>
@@ -1946,7 +1958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="12:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L35" s="4" t="s">
         <v>10</v>
       </c>
@@ -1965,14 +1977,14 @@
       <c r="R35" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="S35" s="51">
+      <c r="S35" s="31">
         <v>43569</v>
       </c>
       <c r="T35" s="13">
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="12:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L36" s="2" t="s">
         <v>5</v>
       </c>
@@ -1986,7 +1998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="12:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L37" s="4" t="s">
         <v>5</v>
       </c>
@@ -2000,7 +2012,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="12:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L38" s="2" t="s">
         <v>5</v>
       </c>
@@ -2014,7 +2026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="12:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L39" s="4" t="s">
         <v>5</v>
       </c>
@@ -2028,7 +2040,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="12:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L40" s="2" t="s">
         <v>5</v>
       </c>
@@ -2042,7 +2054,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="12:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L41" s="4" t="s">
         <v>5</v>
       </c>
@@ -2056,7 +2068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="12:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L42" s="2" t="s">
         <v>5</v>
       </c>
@@ -2070,7 +2082,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="12:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L43" s="4" t="s">
         <v>5</v>
       </c>
@@ -2084,7 +2096,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="12:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L44" s="2" t="s">
         <v>5</v>
       </c>
@@ -2098,7 +2110,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="12:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L45" s="4" t="s">
         <v>5</v>
       </c>
@@ -2112,7 +2124,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="12:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L46" s="2" t="s">
         <v>5</v>
       </c>
@@ -2126,7 +2138,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="12:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L47" s="4" t="s">
         <v>5</v>
       </c>
@@ -2140,7 +2152,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="12:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="12:20" x14ac:dyDescent="0.25">
       <c r="L48" s="2" t="s">
         <v>5</v>
       </c>
@@ -2154,7 +2166,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L49" s="4" t="s">
         <v>10</v>
       </c>
@@ -2168,7 +2180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L50" s="2" t="s">
         <v>5</v>
       </c>
@@ -2182,7 +2194,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L51" s="4" t="s">
         <v>5</v>
       </c>
@@ -2196,7 +2208,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L52" s="2" t="s">
         <v>5</v>
       </c>
@@ -2210,7 +2222,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L53" s="4" t="s">
         <v>5</v>
       </c>
@@ -2224,7 +2236,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L54" s="2" t="s">
         <v>5</v>
       </c>
@@ -2238,8 +2250,24 @@
         <v>40</v>
       </c>
     </row>
+    <row r="55" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L55" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="M55" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="N55" s="53">
+        <v>43577</v>
+      </c>
+      <c r="O55" s="52">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="Q12:T12"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B6:C6"/>
@@ -2256,8 +2284,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BFE8D0-952B-4DDB-83A2-DCFD60A2F54B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E26725-4A25-4B9A-8D9B-9DC2D1B84FC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{93EB8B36-C556-4775-9097-F89B03EE0B0D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="29">
   <si>
     <t>Persona</t>
   </si>
@@ -433,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -470,6 +470,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -518,20 +532,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -846,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A511A23-0AE1-43CE-B25D-50A28135284A}">
-  <dimension ref="B1:T55"/>
+  <dimension ref="B1:T56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,12 +874,12 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="2:20" ht="24" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
@@ -887,34 +888,34 @@
       <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="49"/>
     </row>
     <row r="5" spans="2:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="42"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="10">
         <f>SUM(J14:J47)</f>
         <v>950</v>
@@ -923,34 +924,34 @@
         <f t="shared" ref="E6:E9" si="0">_xlfn.FLOOR.MATH(D6/60)</f>
         <v>15</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="49"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="7">
         <f>SUM(O14:O117)</f>
-        <v>2730</v>
+        <v>2850</v>
       </c>
       <c r="E7" s="29">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="F7" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="51"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="40"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="26">
         <f>SUM(T14:T51)</f>
         <v>2490</v>
@@ -959,16 +960,16 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="49"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="7">
         <f>SUM(E14:E37)</f>
         <v>750</v>
@@ -977,54 +978,54 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="51"/>
+      <c r="G9" s="35"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="47"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="27">
         <f>SUM(D6:D9)</f>
-        <v>6920</v>
+        <v>7040</v>
       </c>
       <c r="E10" s="28">
         <f>_xlfn.FLOOR.MATH(D10/60)</f>
-        <v>115</v>
-      </c>
-      <c r="F10" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="49"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="12" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-      <c r="G12" s="32" t="s">
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
+      <c r="G12" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="34"/>
-      <c r="L12" s="32" t="s">
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="L12" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="34"/>
-      <c r="Q12" s="32" t="s">
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="40"/>
+      <c r="Q12" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="34"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="40"/>
     </row>
     <row r="13" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
@@ -2251,21 +2252,37 @@
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L55" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="M55" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="N55" s="53">
+      <c r="L55" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="M55" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="N55" s="33">
         <v>43577</v>
       </c>
-      <c r="O55" s="52">
+      <c r="O55" s="32">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L56" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="M56" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="N56" s="33">
+        <v>43577</v>
+      </c>
+      <c r="O56" s="54">
         <v>120</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="Q12:T12"/>
@@ -2282,8 +2299,6 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\s128438\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E26725-4A25-4B9A-8D9B-9DC2D1B84FC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{93EB8B36-C556-4775-9097-F89B03EE0B0D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="34">
   <si>
     <t>Persona</t>
   </si>
@@ -117,13 +116,39 @@
   </si>
   <si>
     <t>Ore</t>
+  </si>
+  <si>
+    <t>ore di lavoro*</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* ore </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>× persone</t>
+    </r>
+  </si>
+  <si>
+    <t>Totali per attività</t>
+  </si>
+  <si>
+    <t>Totali per progetto</t>
+  </si>
+  <si>
+    <t>Intenro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +187,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -433,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -472,6 +503,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -532,7 +564,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -846,11 +895,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A511A23-0AE1-43CE-B25D-50A28135284A}">
-  <dimension ref="B1:T56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,63 +908,109 @@
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:20" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="41" t="s">
+    <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:26" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-    </row>
-    <row r="3" spans="2:20" ht="24" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+    </row>
+    <row r="3" spans="2:26" ht="24" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="2:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="47" t="s">
+    <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
-    </row>
-    <row r="5" spans="2:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="50" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="58"/>
+      <c r="J4" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="50"/>
+      <c r="S4" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="49"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="56"/>
+    </row>
+    <row r="5" spans="2:26" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="48"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
+      <c r="J5" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="60"/>
+      <c r="L5" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="10">
         <f>SUM(J14:J47)</f>
         <v>950</v>
@@ -924,16 +1019,30 @@
         <f t="shared" ref="E6:E9" si="0">_xlfn.FLOOR.MATH(D6/60)</f>
         <v>15</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="37"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="G6" s="38"/>
+      <c r="J6" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="45"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="S6" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="57"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="7">
         <f>SUM(O14:O117)</f>
         <v>2850</v>
@@ -942,16 +1051,26 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="35"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
+      <c r="G7" s="36"/>
+      <c r="J7" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="46"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="26">
         <f>SUM(T14:T51)</f>
         <v>2490</v>
@@ -960,74 +1079,97 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="37"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
+      <c r="G8" s="38"/>
+      <c r="J8" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="47"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="45"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="7">
         <f>SUM(E14:E37)</f>
         <v>750</v>
       </c>
       <c r="E9" s="29">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="35"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="53" t="s">
+        <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
+        <v>36</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="54"/>
       <c r="D10" s="27">
         <f>SUM(D6:D9)</f>
         <v>7040</v>
       </c>
       <c r="E10" s="28">
-        <f>_xlfn.FLOOR.MATH(D10/60)</f>
-        <v>117</v>
-      </c>
-      <c r="F10" s="36" t="s">
+        <f>SUM(E6:E9)</f>
+        <v>139</v>
+      </c>
+      <c r="F10" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="37"/>
-    </row>
-    <row r="12" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="38" t="s">
+      <c r="G10" s="38"/>
+    </row>
+    <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-      <c r="G12" s="38" t="s">
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+      <c r="G12" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-      <c r="L12" s="38" t="s">
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="41"/>
+      <c r="L12" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="40"/>
-      <c r="Q12" s="38" t="s">
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="41"/>
+      <c r="Q12" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="40"/>
-    </row>
-    <row r="13" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="41"/>
+    </row>
+    <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
@@ -1077,7 +1219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1127,7 +1269,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
@@ -1177,7 +1319,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
@@ -2266,26 +2408,34 @@
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L56" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="M56" s="54" t="s">
+      <c r="L56" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M56" s="34" t="s">
         <v>16</v>
       </c>
       <c r="N56" s="33">
         <v>43577</v>
       </c>
-      <c r="O56" s="54">
+      <c r="O56" s="34">
         <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="Q12:T12"/>
+  <mergeCells count="25">
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
@@ -2293,12 +2443,11 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="Q12:T12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\s128438\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianluca\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD4FFA7-4973-4E0A-AEB0-EF2873202F84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="34">
   <si>
     <t>Persona</t>
   </si>
@@ -147,7 +149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -195,7 +197,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +226,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
@@ -464,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -504,27 +512,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -555,6 +553,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,24 +589,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -895,11 +905,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,12 +933,12 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="2:26" ht="24" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
@@ -937,69 +947,69 @@
       <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="58"/>
-      <c r="J4" s="48" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="38"/>
+      <c r="J4" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="50"/>
-      <c r="S4" s="48" t="s">
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="54"/>
+      <c r="S4" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="49"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="56"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="36"/>
     </row>
     <row r="5" spans="2:26" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="53"/>
-      <c r="J5" s="61" t="s">
+      <c r="F5" s="65"/>
+      <c r="G5" s="66"/>
+      <c r="J5" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="60"/>
-      <c r="L5" s="62" t="s">
+      <c r="K5" s="61"/>
+      <c r="L5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="62" t="s">
+      <c r="M5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="63" t="s">
+      <c r="O5" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="63" t="s">
+      <c r="P5" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="63" t="s">
+      <c r="Q5" s="40" t="s">
         <v>13</v>
       </c>
       <c r="S5" t="s">
@@ -1007,42 +1017,42 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="10">
         <f>SUM(J14:J47)</f>
-        <v>950</v>
+        <v>1170</v>
       </c>
       <c r="E6" s="28">
-        <f t="shared" ref="E6:E9" si="0">_xlfn.FLOOR.MATH(D6/60)</f>
-        <v>15</v>
-      </c>
-      <c r="F6" s="37" t="s">
+        <f t="shared" ref="E6:E8" si="0">_xlfn.FLOOR.MATH(D6/60)</f>
+        <v>19</v>
+      </c>
+      <c r="F6" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="J6" s="45" t="s">
+      <c r="G6" s="59"/>
+      <c r="J6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="45"/>
+      <c r="K6" s="49"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="S6" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="57"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="S6" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="37"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="46"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="7">
         <f>SUM(O14:O117)</f>
         <v>2850</v>
@@ -1051,26 +1061,26 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="J7" s="46" t="s">
+      <c r="G7" s="57"/>
+      <c r="J7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="47"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="26">
         <f>SUM(T14:T51)</f>
         <v>2490</v>
@@ -1079,26 +1089,26 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="J8" s="47" t="s">
+      <c r="G8" s="59"/>
+      <c r="J8" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="47"/>
+      <c r="K8" s="51"/>
       <c r="L8" s="26"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="46"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="7">
         <f>SUM(E14:E37)</f>
         <v>750</v>
@@ -1107,67 +1117,67 @@
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
         <v>36</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="36"/>
+      <c r="G9" s="57"/>
       <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="59"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="27">
         <f>SUM(D6:D9)</f>
-        <v>7040</v>
+        <v>7260</v>
       </c>
       <c r="E10" s="28">
         <f>SUM(E6:E9)</f>
-        <v>139</v>
-      </c>
-      <c r="F10" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="38"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-      <c r="G12" s="39" t="s">
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="G12" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41"/>
-      <c r="L12" s="39" t="s">
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
+      <c r="L12" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="41"/>
-      <c r="Q12" s="39" t="s">
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="64"/>
+      <c r="Q12" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="41"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="64"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
@@ -1998,6 +2008,18 @@
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G31" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="33">
+        <v>43567</v>
+      </c>
+      <c r="J31" s="32">
+        <v>60</v>
+      </c>
       <c r="L31" s="4" t="s">
         <v>5</v>
       </c>
@@ -2024,6 +2046,18 @@
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G32" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="33">
+        <v>43571</v>
+      </c>
+      <c r="J32" s="34">
+        <v>40</v>
+      </c>
       <c r="L32" s="2" t="s">
         <v>5</v>
       </c>
@@ -2049,7 +2083,19 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="12:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G33" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="45">
+        <v>43578</v>
+      </c>
+      <c r="J33" s="44">
+        <v>60</v>
+      </c>
       <c r="L33" s="4" t="s">
         <v>10</v>
       </c>
@@ -2075,7 +2121,19 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="12:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="3">
+        <v>43581</v>
+      </c>
+      <c r="J34" s="2">
+        <v>60</v>
+      </c>
       <c r="L34" s="2" t="s">
         <v>5</v>
       </c>
@@ -2101,7 +2159,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="12:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L35" s="4" t="s">
         <v>10</v>
       </c>
@@ -2127,7 +2185,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="12:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L36" s="2" t="s">
         <v>5</v>
       </c>
@@ -2141,7 +2199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="12:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L37" s="4" t="s">
         <v>5</v>
       </c>
@@ -2155,7 +2213,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="12:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L38" s="2" t="s">
         <v>5</v>
       </c>
@@ -2169,7 +2227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="12:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L39" s="4" t="s">
         <v>5</v>
       </c>
@@ -2183,7 +2241,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="12:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L40" s="2" t="s">
         <v>5</v>
       </c>
@@ -2197,7 +2255,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="12:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L41" s="4" t="s">
         <v>5</v>
       </c>
@@ -2211,7 +2269,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="12:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L42" s="2" t="s">
         <v>5</v>
       </c>
@@ -2225,7 +2283,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="12:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L43" s="4" t="s">
         <v>5</v>
       </c>
@@ -2239,7 +2297,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="12:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L44" s="2" t="s">
         <v>5</v>
       </c>
@@ -2253,7 +2311,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="12:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L45" s="4" t="s">
         <v>5</v>
       </c>
@@ -2267,7 +2325,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="12:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L46" s="2" t="s">
         <v>5</v>
       </c>
@@ -2281,7 +2339,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="12:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L47" s="4" t="s">
         <v>5</v>
       </c>
@@ -2295,7 +2353,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="12:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L48" s="2" t="s">
         <v>5</v>
       </c>
@@ -2436,6 +2494,7 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
+    <mergeCell ref="Q12:T12"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
@@ -2447,7 +2506,6 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="Q12:T12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianluca\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD4FFA7-4973-4E0A-AEB0-EF2873202F84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E2A99C-02E9-4B16-A236-652BC5AB8D75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="34">
   <si>
     <t>Persona</t>
   </si>
@@ -523,52 +523,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -580,6 +550,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -589,7 +562,34 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,12 +933,12 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3" spans="2:26" ht="24" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
@@ -947,29 +947,29 @@
       <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="54"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="38"/>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
-      <c r="S4" s="52" t="s">
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="51"/>
+      <c r="S4" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="53"/>
+      <c r="T4" s="47"/>
       <c r="U4" s="35"/>
       <c r="V4" s="35"/>
       <c r="W4" s="35"/>
@@ -981,19 +981,19 @@
       <c r="B5" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="53"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="30" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="66"/>
-      <c r="J5" s="60" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
+      <c r="J5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="61"/>
+      <c r="K5" s="49"/>
       <c r="L5" s="39" t="s">
         <v>12</v>
       </c>
@@ -1017,26 +1017,26 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="10">
         <f>SUM(J14:J47)</f>
-        <v>1170</v>
+        <v>1230</v>
       </c>
       <c r="E6" s="28">
         <f t="shared" ref="E6:E8" si="0">_xlfn.FLOOR.MATH(D6/60)</f>
-        <v>19</v>
-      </c>
-      <c r="F6" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="J6" s="49" t="s">
+      <c r="G6" s="60"/>
+      <c r="J6" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="49"/>
+      <c r="K6" s="50"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="37"/>
@@ -1049,10 +1049,10 @@
       <c r="T6" s="37"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="7">
         <f>SUM(O14:O117)</f>
         <v>2850</v>
@@ -1061,14 +1061,14 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="J7" s="50" t="s">
+      <c r="G7" s="68"/>
+      <c r="J7" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="50"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
       <c r="N7" s="42"/>
@@ -1077,10 +1077,10 @@
       <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="51"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="26">
         <f>SUM(T14:T51)</f>
         <v>2490</v>
@@ -1089,14 +1089,14 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="J8" s="51" t="s">
+      <c r="G8" s="60"/>
+      <c r="J8" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="51"/>
+      <c r="K8" s="62"/>
       <c r="L8" s="26"/>
       <c r="M8" s="10"/>
       <c r="N8" s="37"/>
@@ -1105,10 +1105,10 @@
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="50"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="7">
         <f>SUM(E14:E37)</f>
         <v>750</v>
@@ -1117,17 +1117,17 @@
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
         <v>36</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="57"/>
+      <c r="G9" s="68"/>
       <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="68" t="s">
+      <c r="J9" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="68"/>
+      <c r="K9" s="63"/>
       <c r="L9" s="43"/>
       <c r="M9" s="41"/>
       <c r="N9" s="42"/>
@@ -1136,48 +1136,48 @@
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="67"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="27">
         <f>SUM(D6:D9)</f>
-        <v>7260</v>
+        <v>7320</v>
       </c>
       <c r="E10" s="28">
         <f>SUM(E6:E9)</f>
-        <v>143</v>
-      </c>
-      <c r="F10" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="59"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
-      <c r="G12" s="62" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="G12" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
-      <c r="L12" s="62" t="s">
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="L12" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="64"/>
-      <c r="Q12" s="62" t="s">
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="54"/>
+      <c r="Q12" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="64"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="54"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
@@ -2160,6 +2160,18 @@
       </c>
     </row>
     <row r="35" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G35" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="33">
+        <v>43582</v>
+      </c>
+      <c r="J35" s="34">
+        <v>60</v>
+      </c>
       <c r="L35" s="4" t="s">
         <v>10</v>
       </c>
@@ -2481,6 +2493,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
@@ -2495,17 +2518,6 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianluca\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E2A99C-02E9-4B16-A236-652BC5AB8D75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2061EC-FC55-4763-9188-A769E7FEA446}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -523,22 +523,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -550,9 +580,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -562,36 +589,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -909,7 +911,7 @@
   <dimension ref="B1:Z56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,12 +935,12 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="2:26" ht="24" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
@@ -947,29 +949,29 @@
       <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="51"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="38"/>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="51"/>
-      <c r="S4" s="46" t="s">
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="54"/>
+      <c r="S4" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="47"/>
+      <c r="T4" s="53"/>
       <c r="U4" s="35"/>
       <c r="V4" s="35"/>
       <c r="W4" s="35"/>
@@ -981,19 +983,19 @@
       <c r="B5" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="47"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="30" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="57"/>
-      <c r="J5" s="48" t="s">
+      <c r="F5" s="65"/>
+      <c r="G5" s="66"/>
+      <c r="J5" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="49"/>
+      <c r="K5" s="61"/>
       <c r="L5" s="39" t="s">
         <v>12</v>
       </c>
@@ -1017,26 +1019,26 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="10">
         <f>SUM(J14:J47)</f>
-        <v>1230</v>
+        <v>1290</v>
       </c>
       <c r="E6" s="28">
         <f t="shared" ref="E6:E8" si="0">_xlfn.FLOOR.MATH(D6/60)</f>
-        <v>20</v>
-      </c>
-      <c r="F6" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="J6" s="50" t="s">
+      <c r="G6" s="59"/>
+      <c r="J6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="50"/>
+      <c r="K6" s="49"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="37"/>
@@ -1049,10 +1051,10 @@
       <c r="T6" s="37"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="7">
         <f>SUM(O14:O117)</f>
         <v>2850</v>
@@ -1061,14 +1063,14 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="J7" s="61" t="s">
+      <c r="G7" s="57"/>
+      <c r="J7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="61"/>
+      <c r="K7" s="50"/>
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
       <c r="N7" s="42"/>
@@ -1077,10 +1079,10 @@
       <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="62"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="26">
         <f>SUM(T14:T51)</f>
         <v>2490</v>
@@ -1089,14 +1091,14 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="J8" s="62" t="s">
+      <c r="G8" s="59"/>
+      <c r="J8" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="62"/>
+      <c r="K8" s="51"/>
       <c r="L8" s="26"/>
       <c r="M8" s="10"/>
       <c r="N8" s="37"/>
@@ -1105,10 +1107,10 @@
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="7">
         <f>SUM(E14:E37)</f>
         <v>750</v>
@@ -1117,17 +1119,17 @@
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
         <v>36</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="68"/>
+      <c r="G9" s="57"/>
       <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="63"/>
+      <c r="K9" s="68"/>
       <c r="L9" s="43"/>
       <c r="M9" s="41"/>
       <c r="N9" s="42"/>
@@ -1136,48 +1138,48 @@
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="58"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="27">
         <f>SUM(D6:D9)</f>
-        <v>7320</v>
+        <v>7380</v>
       </c>
       <c r="E10" s="28">
         <f>SUM(E6:E9)</f>
-        <v>144</v>
-      </c>
-      <c r="F10" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="60"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
-      <c r="G12" s="52" t="s">
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="G12" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
-      <c r="L12" s="52" t="s">
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
+      <c r="L12" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="54"/>
-      <c r="Q12" s="52" t="s">
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="64"/>
+      <c r="Q12" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="54"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="64"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
@@ -2160,17 +2162,17 @@
       </c>
     </row>
     <row r="35" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G35" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="33">
+      <c r="G35" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="70">
         <v>43582</v>
       </c>
-      <c r="J35" s="34">
-        <v>60</v>
+      <c r="J35" s="69">
+        <v>120</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>10</v>
@@ -2493,17 +2495,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
@@ -2518,6 +2509,17 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianluca\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2061EC-FC55-4763-9188-A769E7FEA446}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD6E6AA-256D-4B5C-8104-890B5E86CAB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="34">
   <si>
     <t>Persona</t>
   </si>
@@ -472,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -523,52 +523,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -580,6 +552,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -589,11 +564,38 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -911,7 +913,7 @@
   <dimension ref="B1:Z56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,12 +937,12 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="2:26" ht="24" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
@@ -949,29 +951,29 @@
       <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="54"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="38"/>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
-      <c r="S4" s="52" t="s">
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="53"/>
+      <c r="S4" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="53"/>
+      <c r="T4" s="49"/>
       <c r="U4" s="35"/>
       <c r="V4" s="35"/>
       <c r="W4" s="35"/>
@@ -980,22 +982,22 @@
       <c r="Z4" s="36"/>
     </row>
     <row r="5" spans="2:26" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="53"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="66"/>
-      <c r="J5" s="60" t="s">
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
+      <c r="J5" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="61"/>
+      <c r="K5" s="51"/>
       <c r="L5" s="39" t="s">
         <v>12</v>
       </c>
@@ -1019,26 +1021,26 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="10">
         <f>SUM(J14:J47)</f>
-        <v>1290</v>
+        <v>1320</v>
       </c>
       <c r="E6" s="28">
         <f t="shared" ref="E6:E8" si="0">_xlfn.FLOOR.MATH(D6/60)</f>
-        <v>21</v>
-      </c>
-      <c r="F6" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="J6" s="49" t="s">
+      <c r="G6" s="62"/>
+      <c r="J6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="49"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="37"/>
@@ -1051,10 +1053,10 @@
       <c r="T6" s="37"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="7">
         <f>SUM(O14:O117)</f>
         <v>2850</v>
@@ -1063,14 +1065,14 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="J7" s="50" t="s">
+      <c r="G7" s="70"/>
+      <c r="J7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="50"/>
+      <c r="K7" s="63"/>
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
       <c r="N7" s="42"/>
@@ -1079,10 +1081,10 @@
       <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="51"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="26">
         <f>SUM(T14:T51)</f>
         <v>2490</v>
@@ -1091,14 +1093,14 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="J8" s="51" t="s">
+      <c r="G8" s="62"/>
+      <c r="J8" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="51"/>
+      <c r="K8" s="64"/>
       <c r="L8" s="26"/>
       <c r="M8" s="10"/>
       <c r="N8" s="37"/>
@@ -1107,10 +1109,10 @@
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="50"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="7">
         <f>SUM(E14:E37)</f>
         <v>750</v>
@@ -1119,17 +1121,17 @@
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
         <v>36</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="57"/>
+      <c r="G9" s="70"/>
       <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="68" t="s">
+      <c r="J9" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="68"/>
+      <c r="K9" s="65"/>
       <c r="L9" s="43"/>
       <c r="M9" s="41"/>
       <c r="N9" s="42"/>
@@ -1138,48 +1140,48 @@
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="67"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="27">
         <f>SUM(D6:D9)</f>
-        <v>7380</v>
+        <v>7410</v>
       </c>
       <c r="E10" s="28">
         <f>SUM(E6:E9)</f>
-        <v>145</v>
-      </c>
-      <c r="F10" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="59"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
-      <c r="G12" s="62" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="G12" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
-      <c r="L12" s="62" t="s">
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
+      <c r="L12" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="64"/>
-      <c r="Q12" s="62" t="s">
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="56"/>
+      <c r="Q12" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="64"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="56"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
@@ -2162,16 +2164,16 @@
       </c>
     </row>
     <row r="35" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G35" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="70">
+      <c r="G35" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="47">
         <v>43582</v>
       </c>
-      <c r="J35" s="69">
+      <c r="J35" s="46">
         <v>120</v>
       </c>
       <c r="L35" s="4" t="s">
@@ -2200,6 +2202,18 @@
       </c>
     </row>
     <row r="36" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G36" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="72">
+        <v>43582</v>
+      </c>
+      <c r="J36" s="71">
+        <v>30</v>
+      </c>
       <c r="L36" s="2" t="s">
         <v>5</v>
       </c>
@@ -2495,6 +2509,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
@@ -2509,17 +2534,6 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianluca\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD6E6AA-256D-4B5C-8104-890B5E86CAB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0810D3B1-9BE3-4FE1-BD3D-F027228B1A64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="34">
   <si>
     <t>Persona</t>
   </si>
@@ -525,22 +525,54 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -552,9 +584,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,38 +593,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -912,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,12 +937,12 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="2:26" ht="24" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
@@ -951,29 +951,29 @@
       <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="53"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="38"/>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="53"/>
-      <c r="S4" s="48" t="s">
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="58"/>
+      <c r="S4" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="49"/>
+      <c r="T4" s="57"/>
       <c r="U4" s="35"/>
       <c r="V4" s="35"/>
       <c r="W4" s="35"/>
@@ -982,22 +982,22 @@
       <c r="Z4" s="36"/>
     </row>
     <row r="5" spans="2:26" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
-      <c r="J5" s="50" t="s">
+      <c r="F5" s="69"/>
+      <c r="G5" s="70"/>
+      <c r="J5" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="51"/>
+      <c r="K5" s="65"/>
       <c r="L5" s="39" t="s">
         <v>12</v>
       </c>
@@ -1021,26 +1021,26 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="10">
         <f>SUM(J14:J47)</f>
-        <v>1320</v>
+        <v>1440</v>
       </c>
       <c r="E6" s="28">
         <f t="shared" ref="E6:E8" si="0">_xlfn.FLOOR.MATH(D6/60)</f>
-        <v>22</v>
-      </c>
-      <c r="F6" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="J6" s="52" t="s">
+      <c r="G6" s="63"/>
+      <c r="J6" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="53"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="37"/>
@@ -1053,10 +1053,10 @@
       <c r="T6" s="37"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="7">
         <f>SUM(O14:O117)</f>
         <v>2850</v>
@@ -1065,14 +1065,14 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="J7" s="63" t="s">
+      <c r="G7" s="61"/>
+      <c r="J7" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="63"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
       <c r="N7" s="42"/>
@@ -1081,10 +1081,10 @@
       <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="64"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="26">
         <f>SUM(T14:T51)</f>
         <v>2490</v>
@@ -1093,14 +1093,14 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="62"/>
-      <c r="J8" s="64" t="s">
+      <c r="G8" s="63"/>
+      <c r="J8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="64"/>
+      <c r="K8" s="55"/>
       <c r="L8" s="26"/>
       <c r="M8" s="10"/>
       <c r="N8" s="37"/>
@@ -1109,10 +1109,10 @@
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="7">
         <f>SUM(E14:E37)</f>
         <v>750</v>
@@ -1121,17 +1121,17 @@
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
         <v>36</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="70"/>
+      <c r="G9" s="61"/>
       <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="65" t="s">
+      <c r="J9" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="65"/>
+      <c r="K9" s="72"/>
       <c r="L9" s="43"/>
       <c r="M9" s="41"/>
       <c r="N9" s="42"/>
@@ -1140,48 +1140,48 @@
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="60"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="27">
         <f>SUM(D6:D9)</f>
-        <v>7410</v>
+        <v>7530</v>
       </c>
       <c r="E10" s="28">
         <f>SUM(E6:E9)</f>
-        <v>146</v>
-      </c>
-      <c r="F10" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="62"/>
+      <c r="G10" s="63"/>
     </row>
     <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="G12" s="54" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
+      <c r="G12" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="56"/>
-      <c r="L12" s="54" t="s">
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68"/>
+      <c r="L12" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="56"/>
-      <c r="Q12" s="54" t="s">
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="68"/>
+      <c r="Q12" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="56"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="68"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
@@ -2202,16 +2202,16 @@
       </c>
     </row>
     <row r="36" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G36" s="71" t="s">
+      <c r="G36" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="71" t="s">
+      <c r="H36" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="72">
+      <c r="I36" s="49">
         <v>43582</v>
       </c>
-      <c r="J36" s="71">
+      <c r="J36" s="48">
         <v>30</v>
       </c>
       <c r="L36" s="2" t="s">
@@ -2228,6 +2228,18 @@
       </c>
     </row>
     <row r="37" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="33">
+        <v>43583</v>
+      </c>
+      <c r="J37">
+        <v>50</v>
+      </c>
       <c r="L37" s="4" t="s">
         <v>5</v>
       </c>
@@ -2242,6 +2254,18 @@
       </c>
     </row>
     <row r="38" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="33">
+        <v>43583</v>
+      </c>
+      <c r="J38">
+        <v>70</v>
+      </c>
       <c r="L38" s="2" t="s">
         <v>5</v>
       </c>
@@ -2509,17 +2533,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
@@ -2534,6 +2547,17 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianluca\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0810D3B1-9BE3-4FE1-BD3D-F027228B1A64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D19A941-F97F-4B36-BA71-14E74BF7E945}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="34">
   <si>
     <t>Persona</t>
   </si>
@@ -527,52 +527,22 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -584,6 +554,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -593,7 +566,34 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -913,7 +913,7 @@
   <dimension ref="B1:Z56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,12 +937,12 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="2:26" ht="24" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
@@ -951,29 +951,29 @@
       <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="38"/>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="58"/>
-      <c r="S4" s="56" t="s">
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="55"/>
+      <c r="S4" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="57"/>
+      <c r="T4" s="51"/>
       <c r="U4" s="35"/>
       <c r="V4" s="35"/>
       <c r="W4" s="35"/>
@@ -985,19 +985,19 @@
       <c r="B5" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="57"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="30" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="70"/>
-      <c r="J5" s="64" t="s">
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
+      <c r="J5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="65"/>
+      <c r="K5" s="53"/>
       <c r="L5" s="39" t="s">
         <v>12</v>
       </c>
@@ -1021,26 +1021,26 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="53"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="10">
         <f>SUM(J14:J47)</f>
-        <v>1440</v>
+        <v>1540</v>
       </c>
       <c r="E6" s="28">
         <f t="shared" ref="E6:E8" si="0">_xlfn.FLOOR.MATH(D6/60)</f>
-        <v>24</v>
-      </c>
-      <c r="F6" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="J6" s="53" t="s">
+      <c r="G6" s="64"/>
+      <c r="J6" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="53"/>
+      <c r="K6" s="54"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="37"/>
@@ -1053,10 +1053,10 @@
       <c r="T6" s="37"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="7">
         <f>SUM(O14:O117)</f>
         <v>2850</v>
@@ -1065,14 +1065,14 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="J7" s="54" t="s">
+      <c r="G7" s="72"/>
+      <c r="J7" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="54"/>
+      <c r="K7" s="65"/>
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
       <c r="N7" s="42"/>
@@ -1081,10 +1081,10 @@
       <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="26">
         <f>SUM(T14:T51)</f>
         <v>2490</v>
@@ -1093,14 +1093,14 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="J8" s="55" t="s">
+      <c r="G8" s="64"/>
+      <c r="J8" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="55"/>
+      <c r="K8" s="66"/>
       <c r="L8" s="26"/>
       <c r="M8" s="10"/>
       <c r="N8" s="37"/>
@@ -1109,10 +1109,10 @@
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="7">
         <f>SUM(E14:E37)</f>
         <v>750</v>
@@ -1121,17 +1121,17 @@
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
         <v>36</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="61"/>
+      <c r="G9" s="72"/>
       <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="72" t="s">
+      <c r="J9" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="72"/>
+      <c r="K9" s="67"/>
       <c r="L9" s="43"/>
       <c r="M9" s="41"/>
       <c r="N9" s="42"/>
@@ -1140,48 +1140,48 @@
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="71"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="27">
         <f>SUM(D6:D9)</f>
-        <v>7530</v>
+        <v>7630</v>
       </c>
       <c r="E10" s="28">
         <f>SUM(E6:E9)</f>
-        <v>148</v>
-      </c>
-      <c r="F10" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="63"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
-      <c r="G12" s="66" t="s">
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="G12" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
-      <c r="L12" s="66" t="s">
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="58"/>
+      <c r="L12" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="68"/>
-      <c r="Q12" s="66" t="s">
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="58"/>
+      <c r="Q12" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="68"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="58"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
@@ -2280,6 +2280,18 @@
       </c>
     </row>
     <row r="39" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="33">
+        <v>43584</v>
+      </c>
+      <c r="J39">
+        <v>40</v>
+      </c>
       <c r="L39" s="4" t="s">
         <v>5</v>
       </c>
@@ -2294,6 +2306,18 @@
       </c>
     </row>
     <row r="40" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="33">
+        <v>43584</v>
+      </c>
+      <c r="J40">
+        <v>60</v>
+      </c>
       <c r="L40" s="2" t="s">
         <v>5</v>
       </c>
@@ -2533,6 +2557,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
@@ -2547,17 +2582,6 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianluca\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documenti\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D19A941-F97F-4B36-BA71-14E74BF7E945}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BD0D9E-144B-460B-828A-06AF7224CB80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="33">
   <si>
     <t>Persona</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>Totali per progetto</t>
-  </si>
-  <si>
-    <t>Intenro</t>
   </si>
 </sst>
 </file>
@@ -235,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -468,11 +465,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -504,47 +527,64 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,9 +594,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -566,36 +603,44 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -912,278 +957,404 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V38" sqref="V38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" customWidth="1"/>
+    <col min="21" max="21" width="13.44140625" customWidth="1"/>
+    <col min="22" max="22" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:26" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="68" t="s">
+    <row r="1" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:26" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70"/>
-    </row>
-    <row r="3" spans="2:26" ht="24" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="2:26" ht="24" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="50" t="s">
+    <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.4">
+      <c r="B4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="38"/>
-      <c r="J4" s="50" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="33"/>
+      <c r="J4" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="55"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
       <c r="S4" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="51"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="36"/>
-    </row>
-    <row r="5" spans="2:26" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="59" t="s">
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+    </row>
+    <row r="5" spans="2:26" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="30" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
-      <c r="J5" s="52" t="s">
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="J5" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="53"/>
-      <c r="L5" s="39" t="s">
+      <c r="K5" s="50"/>
+      <c r="L5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="39" t="s">
+      <c r="M5" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="40" t="s">
+      <c r="O5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="40" t="s">
+      <c r="Q5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="S5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="54" t="s">
+      <c r="R5" s="64"/>
+      <c r="S5" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="50"/>
+      <c r="U5" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" s="65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="10">
         <f>SUM(J14:J47)</f>
         <v>1540</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="27">
         <f t="shared" ref="E6:E8" si="0">_xlfn.FLOOR.MATH(D6/60)</f>
         <v>25</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="J6" s="54" t="s">
+      <c r="G6" s="48"/>
+      <c r="J6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="54"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="S6" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="37"/>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="65" t="s">
+      <c r="K6" s="38"/>
+      <c r="L6" s="66">
+        <f>SUMIF(H14:H47,"CM",J14:J47)</f>
+        <v>120</v>
+      </c>
+      <c r="M6" s="66">
+        <f>SUMIF(H14:H47,"Documentazione",J14:J47)</f>
+        <v>1030</v>
+      </c>
+      <c r="N6" s="66">
+        <f>SUMIF(H14:H47,"Ricerche",J14:J47)</f>
+        <v>120</v>
+      </c>
+      <c r="O6" s="66">
+        <f>SUMIF(H14:H47,"Codice",J14:J47)</f>
+        <v>150</v>
+      </c>
+      <c r="P6" s="66">
+        <f>SUMIF(H14:H47,_xlnm.Database,J14:J47)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="66">
+        <f>SUMIF(H14:H47,"Test",J14:J47)</f>
+        <v>120</v>
+      </c>
+      <c r="S6" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6" s="38"/>
+      <c r="U6" s="10">
+        <f>SUMIF(G14:G48,"Interno",J14:J48)</f>
+        <v>240</v>
+      </c>
+      <c r="V6" s="10">
+        <f>SUMIF(G14:G48,"GDPR",J14:J48)</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="7">
         <f>SUM(O14:O117)</f>
         <v>2850</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="J7" s="65" t="s">
+      <c r="G7" s="46"/>
+      <c r="J7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="65"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="66" t="s">
+      <c r="K7" s="39"/>
+      <c r="L7" s="67">
+        <f>SUMIF(M14:M65,"CM",O14:O65)</f>
+        <v>340</v>
+      </c>
+      <c r="M7" s="67">
+        <f>SUMIF(M14:M65,"Documentazione",O14:O65)</f>
+        <v>970</v>
+      </c>
+      <c r="N7" s="67">
+        <f>SUMIF(M14:M65,"Ricerche",O14:O65)</f>
+        <v>90</v>
+      </c>
+      <c r="O7" s="67">
+        <f>SUMIF(M14:M65,"Codice",O14:O65)</f>
+        <v>1160</v>
+      </c>
+      <c r="P7" s="67">
+        <f>SUMIF(M14:M65,"Database",O14:O65)</f>
+        <v>290</v>
+      </c>
+      <c r="Q7" s="67">
+        <f>SUMIF(M14:M65,"Test",O14:O65)</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="T7" s="39"/>
+      <c r="U7" s="7">
+        <f>SUMIF(L14:L68,"Interno",O14:O68)</f>
+        <v>400</v>
+      </c>
+      <c r="V7" s="7">
+        <f>SUMIF(L14:L65,"GDPR",O14:O65)</f>
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="66"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="26">
         <f>SUM(T14:T51)</f>
-        <v>2490</v>
-      </c>
-      <c r="E8" s="28">
+        <v>2715</v>
+      </c>
+      <c r="E8" s="27">
         <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="F8" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="64"/>
-      <c r="J8" s="66" t="s">
+      <c r="G8" s="48"/>
+      <c r="J8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="66"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="65" t="s">
+      <c r="K8" s="40"/>
+      <c r="L8" s="66">
+        <f>SUMIF(R14:R47,"CM",T14:T47)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="66">
+        <f>SUMIF(R14:R47,"Documentazione",T14:T47)</f>
+        <v>945</v>
+      </c>
+      <c r="N8" s="66">
+        <f>SUMIF(R14:R47,"Ricerche",T14:T47)</f>
+        <v>300</v>
+      </c>
+      <c r="O8" s="66">
+        <f>SUMIF(R14:R47,"Codice",T14:T47)</f>
+        <v>1200</v>
+      </c>
+      <c r="P8" s="66">
+        <f>SUMIF(R14:R47,"Database",T14:T47)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="66">
+        <f>SUMIF(R14:R47,"Test",T14:T47)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="40"/>
+      <c r="U8" s="10">
+        <f>SUMIF(Q14:Q48,"Interno",T14:T48)</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="10">
+        <f>SUMIF(Q14:Q48,"GDPR",T14:T48)</f>
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B9" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="65"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="7">
         <f>SUM(E14:E37)</f>
         <v>750</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
         <v>36</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="72"/>
+      <c r="G9" s="46"/>
       <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="67" t="s">
+      <c r="J9" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="67"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="62" t="s">
+      <c r="K9" s="57"/>
+      <c r="L9" s="68">
+        <f>SUMIF(H17:H50,"CM",J17:J50)</f>
+        <v>120</v>
+      </c>
+      <c r="M9" s="68">
+        <f>SUM(M6:M8)</f>
+        <v>2945</v>
+      </c>
+      <c r="N9" s="68">
+        <f>SUM(N6:N8)</f>
+        <v>510</v>
+      </c>
+      <c r="O9" s="68">
+        <f>SUM(O6:O8)</f>
+        <v>2510</v>
+      </c>
+      <c r="P9" s="69">
+        <f>SUM(P6:P8)</f>
+        <v>290</v>
+      </c>
+      <c r="Q9" s="69">
+        <f>SUM(Q6:Q8)</f>
+        <v>120</v>
+      </c>
+      <c r="S9" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="27">
+      <c r="T9" s="57"/>
+      <c r="U9" s="62">
+        <f>SUM(U6:U8)</f>
+        <v>640</v>
+      </c>
+      <c r="V9" s="62">
+        <f>SUM(V6:V8)</f>
+        <v>6465</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B10" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="70">
         <f>SUM(D6:D9)</f>
-        <v>7630</v>
-      </c>
-      <c r="E10" s="28">
+        <v>7855</v>
+      </c>
+      <c r="E10" s="70">
         <f>SUM(E6:E9)</f>
-        <v>149</v>
-      </c>
-      <c r="F10" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="64"/>
-    </row>
-    <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="56" t="s">
+      <c r="G10" s="72"/>
+    </row>
+    <row r="12" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
-      <c r="G12" s="56" t="s">
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
+      <c r="G12" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
-      <c r="L12" s="56" t="s">
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="53"/>
+      <c r="L12" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="58"/>
-      <c r="Q12" s="56" t="s">
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="53"/>
+      <c r="Q12" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="58"/>
-    </row>
-    <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="53"/>
+    </row>
+    <row r="13" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
@@ -1233,7 +1404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1283,7 +1454,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
@@ -1333,7 +1504,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1383,7 +1554,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1433,7 +1604,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1483,7 +1654,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
@@ -1533,7 +1704,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
@@ -1583,7 +1754,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
@@ -1633,7 +1804,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
@@ -1683,7 +1854,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
@@ -1733,7 +1904,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
@@ -1783,7 +1954,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="G25" s="4" t="s">
         <v>5</v>
       </c>
@@ -1821,7 +1992,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="G26" s="2" t="s">
         <v>10</v>
       </c>
@@ -1859,7 +2030,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="G27" s="4" t="s">
         <v>5</v>
       </c>
@@ -1897,7 +2068,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="G28" s="2" t="s">
         <v>5</v>
       </c>
@@ -1935,7 +2106,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="G29" s="4" t="s">
         <v>5</v>
       </c>
@@ -1973,7 +2144,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="G30" s="2" t="s">
         <v>5</v>
       </c>
@@ -2011,17 +2182,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G31" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="33">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="G31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="32">
         <v>43567</v>
       </c>
-      <c r="J31" s="32">
+      <c r="J31" s="31">
         <v>60</v>
       </c>
       <c r="L31" s="4" t="s">
@@ -2049,17 +2220,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G32" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="33">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="G32" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="8">
         <v>43571</v>
       </c>
-      <c r="J32" s="34">
+      <c r="J32" s="61">
         <v>40</v>
       </c>
       <c r="L32" s="2" t="s">
@@ -2087,17 +2258,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G33" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="45">
+    <row r="33" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G33" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="74">
         <v>43578</v>
       </c>
-      <c r="J33" s="44">
+      <c r="J33" s="73">
         <v>60</v>
       </c>
       <c r="L33" s="4" t="s">
@@ -2125,17 +2296,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="3">
+    <row r="34" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G34" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="59">
         <v>43581</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="58">
         <v>60</v>
       </c>
       <c r="L34" s="2" t="s">
@@ -2160,20 +2331,20 @@
         <v>43567</v>
       </c>
       <c r="T34" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G35" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="47">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G35" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="14">
         <v>43582</v>
       </c>
-      <c r="J35" s="46">
+      <c r="J35" s="60">
         <v>120</v>
       </c>
       <c r="L35" s="4" t="s">
@@ -2194,24 +2365,24 @@
       <c r="R35" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="S35" s="31">
+      <c r="S35" s="30">
         <v>43569</v>
       </c>
       <c r="T35" s="13">
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G36" s="48" t="s">
+    <row r="36" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="48" t="s">
+      <c r="H36" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="49">
+      <c r="I36" s="11">
         <v>43582</v>
       </c>
-      <c r="J36" s="48">
+      <c r="J36" s="10">
         <v>30</v>
       </c>
       <c r="L36" s="2" t="s">
@@ -2226,18 +2397,30 @@
       <c r="O36" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="Q36" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S36" s="11">
+        <v>43585</v>
+      </c>
+      <c r="T36" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I37" s="8">
         <v>43583</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="7">
         <v>50</v>
       </c>
       <c r="L37" s="4" t="s">
@@ -2252,18 +2435,30 @@
       <c r="O37" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G38" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" s="33">
+      <c r="Q37" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R37" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S37" s="8">
+        <v>43585</v>
+      </c>
+      <c r="T37" s="13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G38" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="11">
         <v>43583</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="10">
         <v>70</v>
       </c>
       <c r="L38" s="2" t="s">
@@ -2279,17 +2474,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G39" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" t="s">
+    <row r="39" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="8">
         <v>43584</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="7">
         <v>40</v>
       </c>
       <c r="L39" s="4" t="s">
@@ -2305,17 +2500,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G40" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="33">
+    <row r="40" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G40" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="11">
         <v>43584</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="10">
         <v>60</v>
       </c>
       <c r="L40" s="2" t="s">
@@ -2331,7 +2526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:20" x14ac:dyDescent="0.3">
       <c r="L41" s="4" t="s">
         <v>5</v>
       </c>
@@ -2345,7 +2540,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:20" x14ac:dyDescent="0.3">
       <c r="L42" s="2" t="s">
         <v>5</v>
       </c>
@@ -2359,7 +2554,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:20" x14ac:dyDescent="0.3">
       <c r="L43" s="4" t="s">
         <v>5</v>
       </c>
@@ -2373,7 +2568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:20" x14ac:dyDescent="0.3">
       <c r="L44" s="2" t="s">
         <v>5</v>
       </c>
@@ -2387,7 +2582,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:20" x14ac:dyDescent="0.3">
       <c r="L45" s="4" t="s">
         <v>5</v>
       </c>
@@ -2401,7 +2596,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:20" x14ac:dyDescent="0.3">
       <c r="L46" s="2" t="s">
         <v>5</v>
       </c>
@@ -2415,7 +2610,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:20" x14ac:dyDescent="0.3">
       <c r="L47" s="4" t="s">
         <v>5</v>
       </c>
@@ -2429,7 +2624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:20" x14ac:dyDescent="0.3">
       <c r="L48" s="2" t="s">
         <v>5</v>
       </c>
@@ -2443,7 +2638,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L49" s="4" t="s">
         <v>10</v>
       </c>
@@ -2457,7 +2652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L50" s="2" t="s">
         <v>5</v>
       </c>
@@ -2471,7 +2666,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L51" s="4" t="s">
         <v>5</v>
       </c>
@@ -2485,7 +2680,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L52" s="2" t="s">
         <v>5</v>
       </c>
@@ -2499,7 +2694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L53" s="4" t="s">
         <v>5</v>
       </c>
@@ -2513,7 +2708,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L54" s="2" t="s">
         <v>5</v>
       </c>
@@ -2527,48 +2722,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L55" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="M55" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="N55" s="33">
+    <row r="55" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L55" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M55" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="N55" s="32">
         <v>43577</v>
       </c>
-      <c r="O55" s="32">
+      <c r="O55" s="31">
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L56" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="M56" s="34" t="s">
+    <row r="56" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L56" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="M56" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="N56" s="33">
+      <c r="N56" s="11">
         <v>43577</v>
       </c>
-      <c r="O56" s="34">
+      <c r="O56" s="61">
         <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="S4:T4"/>
+  <mergeCells count="30">
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S4:V4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J4:Q4"/>
@@ -2582,6 +2769,19 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documenti\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BD0D9E-144B-460B-828A-06AF7224CB80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01C28D9-A08F-424F-AE0A-7A5DE7123CAA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="33">
   <si>
     <t>Persona</t>
   </si>
@@ -495,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -537,75 +537,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -633,14 +564,85 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -957,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V38" sqref="V38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,12 +986,12 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:26" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="2:26" ht="24" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B3" s="25"/>
@@ -998,53 +1000,53 @@
       <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.4">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="33"/>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="43"/>
-      <c r="S4" s="50" t="s">
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="62"/>
+      <c r="S4" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
       <c r="W4" s="33"/>
       <c r="X4" s="33"/>
       <c r="Y4" s="33"/>
       <c r="Z4" s="33"/>
     </row>
     <row r="5" spans="2:26" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="42"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="J5" s="49" t="s">
+      <c r="F5" s="68"/>
+      <c r="G5" s="69"/>
+      <c r="J5" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="50"/>
+      <c r="K5" s="75"/>
       <c r="L5" s="34" t="s">
         <v>12</v>
       </c>
@@ -1054,32 +1056,32 @@
       <c r="N5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="63" t="s">
+      <c r="O5" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="63" t="s">
+      <c r="P5" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="63" t="s">
+      <c r="Q5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="64"/>
-      <c r="S5" s="49" t="s">
+      <c r="R5" s="41"/>
+      <c r="S5" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="T5" s="50"/>
-      <c r="U5" s="65" t="s">
+      <c r="T5" s="75"/>
+      <c r="U5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="65" t="s">
+      <c r="V5" s="42" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="10">
         <f>SUM(J14:J47)</f>
         <v>1540</v>
@@ -1088,42 +1090,42 @@
         <f t="shared" ref="E6:E8" si="0">_xlfn.FLOOR.MATH(D6/60)</f>
         <v>25</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="J6" s="38" t="s">
+      <c r="G6" s="67"/>
+      <c r="J6" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="66">
+      <c r="K6" s="54"/>
+      <c r="L6" s="43">
         <f>SUMIF(H14:H47,"CM",J14:J47)</f>
         <v>120</v>
       </c>
-      <c r="M6" s="66">
+      <c r="M6" s="43">
         <f>SUMIF(H14:H47,"Documentazione",J14:J47)</f>
         <v>1030</v>
       </c>
-      <c r="N6" s="66">
+      <c r="N6" s="43">
         <f>SUMIF(H14:H47,"Ricerche",J14:J47)</f>
         <v>120</v>
       </c>
-      <c r="O6" s="66">
+      <c r="O6" s="43">
         <f>SUMIF(H14:H47,"Codice",J14:J47)</f>
         <v>150</v>
       </c>
-      <c r="P6" s="66">
+      <c r="P6" s="43">
         <f>SUMIF(H14:H47,_xlnm.Database,J14:J47)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="66">
+      <c r="Q6" s="43">
         <f>SUMIF(H14:H47,"Test",J14:J47)</f>
         <v>120</v>
       </c>
-      <c r="S6" s="38" t="s">
+      <c r="S6" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="T6" s="38"/>
+      <c r="T6" s="54"/>
       <c r="U6" s="10">
         <f>SUMIF(G14:G48,"Interno",J14:J48)</f>
         <v>240</v>
@@ -1134,10 +1136,10 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="7">
         <f>SUM(O14:O117)</f>
         <v>2850</v>
@@ -1146,42 +1148,42 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="J7" s="39" t="s">
+      <c r="G7" s="65"/>
+      <c r="J7" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="67">
+      <c r="K7" s="55"/>
+      <c r="L7" s="44">
         <f>SUMIF(M14:M65,"CM",O14:O65)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="67">
+      <c r="M7" s="44">
         <f>SUMIF(M14:M65,"Documentazione",O14:O65)</f>
         <v>970</v>
       </c>
-      <c r="N7" s="67">
+      <c r="N7" s="44">
         <f>SUMIF(M14:M65,"Ricerche",O14:O65)</f>
         <v>90</v>
       </c>
-      <c r="O7" s="67">
+      <c r="O7" s="44">
         <f>SUMIF(M14:M65,"Codice",O14:O65)</f>
         <v>1160</v>
       </c>
-      <c r="P7" s="67">
+      <c r="P7" s="44">
         <f>SUMIF(M14:M65,"Database",O14:O65)</f>
         <v>290</v>
       </c>
-      <c r="Q7" s="67">
+      <c r="Q7" s="44">
         <f>SUMIF(M14:M65,"Test",O14:O65)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="39" t="s">
+      <c r="S7" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="39"/>
+      <c r="T7" s="55"/>
       <c r="U7" s="7">
         <f>SUMIF(L14:L68,"Interno",O14:O68)</f>
         <v>400</v>
@@ -1192,68 +1194,68 @@
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="40"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="26">
         <f>SUM(T14:T51)</f>
-        <v>2715</v>
+        <v>2820</v>
       </c>
       <c r="E8" s="27">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="F8" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="J8" s="40" t="s">
+      <c r="G8" s="67"/>
+      <c r="J8" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="40"/>
-      <c r="L8" s="66">
+      <c r="K8" s="59"/>
+      <c r="L8" s="43">
         <f>SUMIF(R14:R47,"CM",T14:T47)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="66">
+      <c r="M8" s="43">
         <f>SUMIF(R14:R47,"Documentazione",T14:T47)</f>
         <v>945</v>
       </c>
-      <c r="N8" s="66">
+      <c r="N8" s="43">
         <f>SUMIF(R14:R47,"Ricerche",T14:T47)</f>
         <v>300</v>
       </c>
-      <c r="O8" s="66">
+      <c r="O8" s="43">
         <f>SUMIF(R14:R47,"Codice",T14:T47)</f>
-        <v>1200</v>
-      </c>
-      <c r="P8" s="66">
+        <v>1260</v>
+      </c>
+      <c r="P8" s="43">
         <f>SUMIF(R14:R47,"Database",T14:T47)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="66">
+      <c r="Q8" s="43">
         <f>SUMIF(R14:R47,"Test",T14:T47)</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="S8" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="40"/>
+      <c r="T8" s="59"/>
       <c r="U8" s="10">
         <f>SUMIF(Q14:Q48,"Interno",T14:T48)</f>
         <v>0</v>
       </c>
       <c r="V8" s="10">
         <f>SUMIF(Q14:Q48,"GDPR",T14:T48)</f>
-        <v>2715</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="7">
         <f>SUM(E14:E37)</f>
         <v>750</v>
@@ -1262,66 +1264,66 @@
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
         <v>36</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="46"/>
+      <c r="G9" s="65"/>
       <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="68">
+      <c r="K9" s="73"/>
+      <c r="L9" s="45">
         <f>SUMIF(H17:H50,"CM",J17:J50)</f>
         <v>120</v>
       </c>
-      <c r="M9" s="68">
+      <c r="M9" s="45">
         <f>SUM(M6:M8)</f>
         <v>2945</v>
       </c>
-      <c r="N9" s="68">
+      <c r="N9" s="45">
         <f>SUM(N6:N8)</f>
         <v>510</v>
       </c>
-      <c r="O9" s="68">
+      <c r="O9" s="45">
         <f>SUM(O6:O8)</f>
-        <v>2510</v>
-      </c>
-      <c r="P9" s="69">
+        <v>2570</v>
+      </c>
+      <c r="P9" s="46">
         <f>SUM(P6:P8)</f>
         <v>290</v>
       </c>
-      <c r="Q9" s="69">
+      <c r="Q9" s="46">
         <f>SUM(Q6:Q8)</f>
-        <v>120</v>
-      </c>
-      <c r="S9" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="S9" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="T9" s="57"/>
-      <c r="U9" s="62">
+      <c r="T9" s="73"/>
+      <c r="U9" s="39">
         <f>SUM(U6:U8)</f>
         <v>640</v>
       </c>
-      <c r="V9" s="62">
+      <c r="V9" s="39">
         <f>SUM(V6:V8)</f>
-        <v>6465</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="70">
+      <c r="C10" s="70"/>
+      <c r="D10" s="47">
         <f>SUM(D6:D9)</f>
-        <v>7855</v>
-      </c>
-      <c r="E10" s="70">
+        <v>7960</v>
+      </c>
+      <c r="E10" s="47">
         <f>SUM(E6:E9)</f>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F10" s="71" t="s">
         <v>26</v>
@@ -2221,16 +2223,16 @@
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="G32" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="61" t="s">
+      <c r="G32" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="38" t="s">
         <v>11</v>
       </c>
       <c r="I32" s="8">
         <v>43571</v>
       </c>
-      <c r="J32" s="61">
+      <c r="J32" s="38">
         <v>40</v>
       </c>
       <c r="L32" s="2" t="s">
@@ -2259,16 +2261,16 @@
       </c>
     </row>
     <row r="33" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G33" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="74">
+      <c r="G33" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="49">
         <v>43578</v>
       </c>
-      <c r="J33" s="73">
+      <c r="J33" s="48">
         <v>60</v>
       </c>
       <c r="L33" s="4" t="s">
@@ -2297,16 +2299,16 @@
       </c>
     </row>
     <row r="34" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G34" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="59">
+      <c r="G34" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="36">
         <v>43581</v>
       </c>
-      <c r="J34" s="58">
+      <c r="J34" s="35">
         <v>60</v>
       </c>
       <c r="L34" s="2" t="s">
@@ -2335,16 +2337,16 @@
       </c>
     </row>
     <row r="35" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G35" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="60" t="s">
+      <c r="G35" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="37" t="s">
         <v>11</v>
       </c>
       <c r="I35" s="14">
         <v>43582</v>
       </c>
-      <c r="J35" s="60">
+      <c r="J35" s="37">
         <v>120</v>
       </c>
       <c r="L35" s="4" t="s">
@@ -2473,6 +2475,18 @@
       <c r="O38" s="2">
         <v>10</v>
       </c>
+      <c r="Q38" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R38" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S38" s="50">
+        <v>43587</v>
+      </c>
+      <c r="T38" s="10">
+        <v>60</v>
+      </c>
     </row>
     <row r="39" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G39" s="7" t="s">
@@ -2499,6 +2513,18 @@
       <c r="O39" s="4">
         <v>60</v>
       </c>
+      <c r="Q39" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R39" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="S39" s="76">
+        <v>43587</v>
+      </c>
+      <c r="T39" s="13">
+        <v>45</v>
+      </c>
     </row>
     <row r="40" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G40" s="10" t="s">
@@ -2525,6 +2551,7 @@
       <c r="O40" s="2">
         <v>30</v>
       </c>
+      <c r="S40" s="32"/>
     </row>
     <row r="41" spans="7:20" x14ac:dyDescent="0.3">
       <c r="L41" s="4" t="s">
@@ -2539,6 +2566,7 @@
       <c r="O41" s="4">
         <v>30</v>
       </c>
+      <c r="S41" s="32"/>
     </row>
     <row r="42" spans="7:20" x14ac:dyDescent="0.3">
       <c r="L42" s="2" t="s">
@@ -2553,6 +2581,7 @@
       <c r="O42" s="2">
         <v>90</v>
       </c>
+      <c r="S42" s="32"/>
     </row>
     <row r="43" spans="7:20" x14ac:dyDescent="0.3">
       <c r="L43" s="4" t="s">
@@ -2567,6 +2596,7 @@
       <c r="O43" s="4">
         <v>50</v>
       </c>
+      <c r="S43" s="32"/>
     </row>
     <row r="44" spans="7:20" x14ac:dyDescent="0.3">
       <c r="L44" s="2" t="s">
@@ -2581,6 +2611,7 @@
       <c r="O44" s="2">
         <v>120</v>
       </c>
+      <c r="S44" s="32"/>
     </row>
     <row r="45" spans="7:20" x14ac:dyDescent="0.3">
       <c r="L45" s="4" t="s">
@@ -2595,6 +2626,7 @@
       <c r="O45" s="4">
         <v>60</v>
       </c>
+      <c r="S45" s="32"/>
     </row>
     <row r="46" spans="7:20" x14ac:dyDescent="0.3">
       <c r="L46" s="2" t="s">
@@ -2737,16 +2769,16 @@
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.3">
-      <c r="L56" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="M56" s="61" t="s">
+      <c r="L56" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="M56" s="38" t="s">
         <v>16</v>
       </c>
       <c r="N56" s="11">
         <v>43577</v>
       </c>
-      <c r="O56" s="61">
+      <c r="O56" s="38">
         <v>120</v>
       </c>
     </row>
@@ -2759,8 +2791,6 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="B10:C10"/>
@@ -2782,6 +2812,8 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documenti\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianluca\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01C28D9-A08F-424F-AE0A-7A5DE7123CAA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D2A93E-C3D5-4143-84AA-36B950FDF144}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="33">
   <si>
     <t>Persona</t>
   </si>
@@ -567,6 +567,31 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,7 +601,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -591,21 +631,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -618,31 +643,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -959,94 +959,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T41" sqref="T41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" customWidth="1"/>
-    <col min="21" max="21" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:26" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="56" t="s">
+    <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:26" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-    </row>
-    <row r="3" spans="2:26" ht="24" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+    </row>
+    <row r="3" spans="2:26" ht="24" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.4">
-      <c r="B4" s="60" t="s">
+    <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="33"/>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="62"/>
-      <c r="S4" s="75" t="s">
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="59"/>
+      <c r="S4" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
       <c r="W4" s="33"/>
       <c r="X4" s="33"/>
       <c r="Y4" s="33"/>
       <c r="Z4" s="33"/>
     </row>
-    <row r="5" spans="2:26" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:26" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="29" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="69"/>
-      <c r="J5" s="74" t="s">
+      <c r="F5" s="64"/>
+      <c r="G5" s="65"/>
+      <c r="J5" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="75"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="34" t="s">
         <v>12</v>
       </c>
@@ -1066,10 +1066,10 @@
         <v>13</v>
       </c>
       <c r="R5" s="41"/>
-      <c r="S5" s="74" t="s">
+      <c r="S5" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="T5" s="75"/>
+      <c r="T5" s="55"/>
       <c r="U5" s="42" t="s">
         <v>10</v>
       </c>
@@ -1077,34 +1077,34 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B6" s="54" t="s">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="10">
         <f>SUM(J14:J47)</f>
-        <v>1540</v>
+        <v>1660</v>
       </c>
       <c r="E6" s="27">
         <f t="shared" ref="E6:E8" si="0">_xlfn.FLOOR.MATH(D6/60)</f>
-        <v>25</v>
-      </c>
-      <c r="F6" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="67"/>
-      <c r="J6" s="54" t="s">
+      <c r="G6" s="76"/>
+      <c r="J6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="54"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="43">
         <f>SUMIF(H14:H47,"CM",J14:J47)</f>
         <v>120</v>
       </c>
       <c r="M6" s="43">
         <f>SUMIF(H14:H47,"Documentazione",J14:J47)</f>
-        <v>1030</v>
+        <v>1090</v>
       </c>
       <c r="N6" s="43">
         <f>SUMIF(H14:H47,"Ricerche",J14:J47)</f>
@@ -1120,26 +1120,26 @@
       </c>
       <c r="Q6" s="43">
         <f>SUMIF(H14:H47,"Test",J14:J47)</f>
-        <v>120</v>
-      </c>
-      <c r="S6" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="S6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="T6" s="54"/>
+      <c r="T6" s="56"/>
       <c r="U6" s="10">
         <f>SUMIF(G14:G48,"Interno",J14:J48)</f>
         <v>240</v>
       </c>
       <c r="V6" s="10">
         <f>SUMIF(G14:G48,"GDPR",J14:J48)</f>
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="55" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="7">
         <f>SUM(O14:O117)</f>
         <v>2850</v>
@@ -1148,14 +1148,14 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="65"/>
-      <c r="J7" s="55" t="s">
+      <c r="G7" s="74"/>
+      <c r="J7" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="55"/>
+      <c r="K7" s="69"/>
       <c r="L7" s="44">
         <f>SUMIF(M14:M65,"CM",O14:O65)</f>
         <v>340</v>
@@ -1180,10 +1180,10 @@
         <f>SUMIF(M14:M65,"Test",O14:O65)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="55" t="s">
+      <c r="S7" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="55"/>
+      <c r="T7" s="69"/>
       <c r="U7" s="7">
         <f>SUMIF(L14:L68,"Interno",O14:O68)</f>
         <v>400</v>
@@ -1193,11 +1193,11 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B8" s="59" t="s">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="26">
         <f>SUM(T14:T51)</f>
         <v>2820</v>
@@ -1206,14 +1206,14 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="J8" s="59" t="s">
+      <c r="G8" s="76"/>
+      <c r="J8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="59"/>
+      <c r="K8" s="52"/>
       <c r="L8" s="43">
         <f>SUMIF(R14:R47,"CM",T14:T47)</f>
         <v>0</v>
@@ -1238,10 +1238,10 @@
         <f>SUMIF(R14:R47,"Test",T14:T47)</f>
         <v>45</v>
       </c>
-      <c r="S8" s="59" t="s">
+      <c r="S8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="59"/>
+      <c r="T8" s="52"/>
       <c r="U8" s="10">
         <f>SUMIF(Q14:Q48,"Interno",T14:T48)</f>
         <v>0</v>
@@ -1251,11 +1251,11 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B9" s="55" t="s">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="55"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="7">
         <f>SUM(E14:E37)</f>
         <v>750</v>
@@ -1264,24 +1264,24 @@
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
         <v>36</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="65"/>
+      <c r="G9" s="74"/>
       <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="73" t="s">
+      <c r="J9" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="73"/>
+      <c r="K9" s="53"/>
       <c r="L9" s="45">
         <f>SUMIF(H17:H50,"CM",J17:J50)</f>
         <v>120</v>
       </c>
       <c r="M9" s="45">
         <f>SUM(M6:M8)</f>
-        <v>2945</v>
+        <v>3005</v>
       </c>
       <c r="N9" s="45">
         <f>SUM(N6:N8)</f>
@@ -1297,66 +1297,66 @@
       </c>
       <c r="Q9" s="46">
         <f>SUM(Q6:Q8)</f>
-        <v>165</v>
-      </c>
-      <c r="S9" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="S9" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="T9" s="73"/>
+      <c r="T9" s="53"/>
       <c r="U9" s="39">
         <f>SUM(U6:U8)</f>
         <v>640</v>
       </c>
       <c r="V9" s="39">
         <f>SUM(V6:V8)</f>
-        <v>6570</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B10" s="70" t="s">
+        <v>6690</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="70"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="47">
         <f>SUM(D6:D9)</f>
-        <v>7960</v>
+        <v>8080</v>
       </c>
       <c r="E10" s="47">
         <f>SUM(E6:E9)</f>
-        <v>155</v>
-      </c>
-      <c r="F10" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="72"/>
-    </row>
-    <row r="12" spans="2:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="B12" s="51" t="s">
+      <c r="G10" s="68"/>
+    </row>
+    <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
-      <c r="G12" s="51" t="s">
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="G12" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
-      <c r="L12" s="51" t="s">
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
+      <c r="L12" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="53"/>
-      <c r="Q12" s="51" t="s">
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="62"/>
+      <c r="Q12" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="53"/>
-    </row>
-    <row r="13" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="62"/>
+    </row>
+    <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G25" s="4" t="s">
         <v>5</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G27" s="4" t="s">
         <v>5</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G28" s="2" t="s">
         <v>5</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G29" s="4" t="s">
         <v>5</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G30" s="2" t="s">
         <v>5</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G31" s="31" t="s">
         <v>5</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G32" s="38" t="s">
         <v>5</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G33" s="48" t="s">
         <v>5</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G34" s="35" t="s">
         <v>5</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G35" s="37" t="s">
         <v>5</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G36" s="10" t="s">
         <v>10</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G37" s="7" t="s">
         <v>5</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G38" s="10" t="s">
         <v>5</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G39" s="7" t="s">
         <v>5</v>
       </c>
@@ -2519,14 +2519,14 @@
       <c r="R39" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="S39" s="76">
+      <c r="S39" s="51">
         <v>43587</v>
       </c>
       <c r="T39" s="13">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G40" s="10" t="s">
         <v>5</v>
       </c>
@@ -2553,7 +2553,19 @@
       </c>
       <c r="S40" s="32"/>
     </row>
-    <row r="41" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="32">
+        <v>43592</v>
+      </c>
+      <c r="J41" s="12">
+        <v>60</v>
+      </c>
       <c r="L41" s="4" t="s">
         <v>5</v>
       </c>
@@ -2568,7 +2580,19 @@
       </c>
       <c r="S41" s="32"/>
     </row>
-    <row r="42" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G42" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="32">
+        <v>43593</v>
+      </c>
+      <c r="J42" s="15">
+        <v>60</v>
+      </c>
       <c r="L42" s="2" t="s">
         <v>5</v>
       </c>
@@ -2583,7 +2607,7 @@
       </c>
       <c r="S42" s="32"/>
     </row>
-    <row r="43" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L43" s="4" t="s">
         <v>5</v>
       </c>
@@ -2598,7 +2622,7 @@
       </c>
       <c r="S43" s="32"/>
     </row>
-    <row r="44" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L44" s="2" t="s">
         <v>5</v>
       </c>
@@ -2613,7 +2637,7 @@
       </c>
       <c r="S44" s="32"/>
     </row>
-    <row r="45" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L45" s="4" t="s">
         <v>5</v>
       </c>
@@ -2628,7 +2652,7 @@
       </c>
       <c r="S45" s="32"/>
     </row>
-    <row r="46" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L46" s="2" t="s">
         <v>5</v>
       </c>
@@ -2642,7 +2666,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L47" s="4" t="s">
         <v>5</v>
       </c>
@@ -2656,7 +2680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L48" s="2" t="s">
         <v>5</v>
       </c>
@@ -2670,7 +2694,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L49" s="4" t="s">
         <v>10</v>
       </c>
@@ -2684,7 +2708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L50" s="2" t="s">
         <v>5</v>
       </c>
@@ -2698,7 +2722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L51" s="4" t="s">
         <v>5</v>
       </c>
@@ -2712,7 +2736,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L52" s="2" t="s">
         <v>5</v>
       </c>
@@ -2726,7 +2750,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L53" s="4" t="s">
         <v>5</v>
       </c>
@@ -2740,7 +2764,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L54" s="2" t="s">
         <v>5</v>
       </c>
@@ -2754,7 +2778,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L55" s="31" t="s">
         <v>5</v>
       </c>
@@ -2768,7 +2792,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L56" s="38" t="s">
         <v>5</v>
       </c>
@@ -2784,20 +2808,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
     <mergeCell ref="Q12:T12"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="S7:T7"/>
@@ -2814,6 +2824,20 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="G12:J12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documenti\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01C28D9-A08F-424F-AE0A-7A5DE7123CAA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB50DAD-0FEE-4468-960C-F5D9CC78BED3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="33">
   <si>
     <t>Persona</t>
   </si>
@@ -495,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -567,6 +566,31 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,7 +600,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -591,21 +630,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -618,31 +642,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -957,96 +957,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Z56"/>
+  <dimension ref="B1:Z57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T41" sqref="T41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" customWidth="1"/>
-    <col min="21" max="21" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:26" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="56" t="s">
+    <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:26" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-    </row>
-    <row r="3" spans="2:26" ht="24" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+    </row>
+    <row r="3" spans="2:26" ht="24" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.4">
-      <c r="B4" s="60" t="s">
+    <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="33"/>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="62"/>
-      <c r="S4" s="75" t="s">
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="59"/>
+      <c r="S4" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
       <c r="W4" s="33"/>
       <c r="X4" s="33"/>
       <c r="Y4" s="33"/>
       <c r="Z4" s="33"/>
     </row>
-    <row r="5" spans="2:26" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:26" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="29" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="69"/>
-      <c r="J5" s="74" t="s">
+      <c r="F5" s="64"/>
+      <c r="G5" s="65"/>
+      <c r="J5" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="75"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="34" t="s">
         <v>12</v>
       </c>
@@ -1066,10 +1066,10 @@
         <v>13</v>
       </c>
       <c r="R5" s="41"/>
-      <c r="S5" s="74" t="s">
+      <c r="S5" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="T5" s="75"/>
+      <c r="T5" s="55"/>
       <c r="U5" s="42" t="s">
         <v>10</v>
       </c>
@@ -1077,11 +1077,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B6" s="54" t="s">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="10">
         <f>SUM(J14:J47)</f>
         <v>1540</v>
@@ -1090,14 +1090,14 @@
         <f t="shared" ref="E6:E8" si="0">_xlfn.FLOOR.MATH(D6/60)</f>
         <v>25</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="67"/>
-      <c r="J6" s="54" t="s">
+      <c r="G6" s="76"/>
+      <c r="J6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="54"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="43">
         <f>SUMIF(H14:H47,"CM",J14:J47)</f>
         <v>120</v>
@@ -1122,10 +1122,10 @@
         <f>SUMIF(H14:H47,"Test",J14:J47)</f>
         <v>120</v>
       </c>
-      <c r="S6" s="54" t="s">
+      <c r="S6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="T6" s="54"/>
+      <c r="T6" s="56"/>
       <c r="U6" s="10">
         <f>SUMIF(G14:G48,"Interno",J14:J48)</f>
         <v>240</v>
@@ -1135,27 +1135,27 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="55" t="s">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="7">
         <f>SUM(O14:O117)</f>
-        <v>2850</v>
+        <v>2950</v>
       </c>
       <c r="E7" s="28">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="F7" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="65"/>
-      <c r="J7" s="55" t="s">
+      <c r="G7" s="74"/>
+      <c r="J7" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="55"/>
+      <c r="K7" s="69"/>
       <c r="L7" s="44">
         <f>SUMIF(M14:M65,"CM",O14:O65)</f>
         <v>340</v>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="O7" s="44">
         <f>SUMIF(M14:M65,"Codice",O14:O65)</f>
-        <v>1160</v>
+        <v>1260</v>
       </c>
       <c r="P7" s="44">
         <f>SUMIF(M14:M65,"Database",O14:O65)</f>
@@ -1180,24 +1180,24 @@
         <f>SUMIF(M14:M65,"Test",O14:O65)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="55" t="s">
+      <c r="S7" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="55"/>
+      <c r="T7" s="69"/>
       <c r="U7" s="7">
         <f>SUMIF(L14:L68,"Interno",O14:O68)</f>
         <v>400</v>
       </c>
       <c r="V7" s="7">
         <f>SUMIF(L14:L65,"GDPR",O14:O65)</f>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B8" s="59" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="26">
         <f>SUM(T14:T51)</f>
         <v>2820</v>
@@ -1206,14 +1206,14 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="J8" s="59" t="s">
+      <c r="G8" s="76"/>
+      <c r="J8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="59"/>
+      <c r="K8" s="52"/>
       <c r="L8" s="43">
         <f>SUMIF(R14:R47,"CM",T14:T47)</f>
         <v>0</v>
@@ -1238,10 +1238,10 @@
         <f>SUMIF(R14:R47,"Test",T14:T47)</f>
         <v>45</v>
       </c>
-      <c r="S8" s="59" t="s">
+      <c r="S8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="59"/>
+      <c r="T8" s="52"/>
       <c r="U8" s="10">
         <f>SUMIF(Q14:Q48,"Interno",T14:T48)</f>
         <v>0</v>
@@ -1251,30 +1251,30 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B9" s="55" t="s">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="55"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="7">
         <f>SUM(E14:E37)</f>
-        <v>750</v>
+        <v>810</v>
       </c>
       <c r="E9" s="28">
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
-        <v>36</v>
-      </c>
-      <c r="F9" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="65"/>
+      <c r="G9" s="74"/>
       <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="73" t="s">
+      <c r="J9" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="73"/>
+      <c r="K9" s="53"/>
       <c r="L9" s="45">
         <f>SUMIF(H17:H50,"CM",J17:J50)</f>
         <v>120</v>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="O9" s="45">
         <f>SUM(O6:O8)</f>
-        <v>2570</v>
+        <v>2670</v>
       </c>
       <c r="P9" s="46">
         <f>SUM(P6:P8)</f>
@@ -1299,64 +1299,64 @@
         <f>SUM(Q6:Q8)</f>
         <v>165</v>
       </c>
-      <c r="S9" s="73" t="s">
+      <c r="S9" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="T9" s="73"/>
+      <c r="T9" s="53"/>
       <c r="U9" s="39">
         <f>SUM(U6:U8)</f>
         <v>640</v>
       </c>
       <c r="V9" s="39">
         <f>SUM(V6:V8)</f>
-        <v>6570</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B10" s="70" t="s">
+        <v>6670</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="70"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="47">
         <f>SUM(D6:D9)</f>
-        <v>7960</v>
+        <v>8120</v>
       </c>
       <c r="E10" s="47">
         <f>SUM(E6:E9)</f>
-        <v>155</v>
-      </c>
-      <c r="F10" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="72"/>
-    </row>
-    <row r="12" spans="2:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="B12" s="51" t="s">
+      <c r="G10" s="68"/>
+    </row>
+    <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
-      <c r="G12" s="51" t="s">
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="G12" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
-      <c r="L12" s="51" t="s">
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
+      <c r="L12" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="53"/>
-      <c r="Q12" s="51" t="s">
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="62"/>
+      <c r="Q12" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="53"/>
-    </row>
-    <row r="13" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="62"/>
+    </row>
+    <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
@@ -1956,7 +1956,19 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="32">
+        <v>43593</v>
+      </c>
+      <c r="E25" s="31">
+        <v>60</v>
+      </c>
       <c r="G25" s="4" t="s">
         <v>5</v>
       </c>
@@ -1994,7 +2006,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2032,7 +2044,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G27" s="4" t="s">
         <v>5</v>
       </c>
@@ -2070,7 +2082,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G28" s="2" t="s">
         <v>5</v>
       </c>
@@ -2108,7 +2120,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G29" s="4" t="s">
         <v>5</v>
       </c>
@@ -2146,7 +2158,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G30" s="2" t="s">
         <v>5</v>
       </c>
@@ -2184,7 +2196,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G31" s="31" t="s">
         <v>5</v>
       </c>
@@ -2222,7 +2234,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G32" s="38" t="s">
         <v>5</v>
       </c>
@@ -2260,7 +2272,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G33" s="48" t="s">
         <v>5</v>
       </c>
@@ -2298,7 +2310,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G34" s="35" t="s">
         <v>5</v>
       </c>
@@ -2336,7 +2348,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G35" s="37" t="s">
         <v>5</v>
       </c>
@@ -2374,7 +2386,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G36" s="10" t="s">
         <v>10</v>
       </c>
@@ -2412,7 +2424,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G37" s="7" t="s">
         <v>5</v>
       </c>
@@ -2450,7 +2462,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G38" s="10" t="s">
         <v>5</v>
       </c>
@@ -2488,7 +2500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G39" s="7" t="s">
         <v>5</v>
       </c>
@@ -2519,14 +2531,14 @@
       <c r="R39" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="S39" s="76">
+      <c r="S39" s="51">
         <v>43587</v>
       </c>
       <c r="T39" s="13">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G40" s="10" t="s">
         <v>5</v>
       </c>
@@ -2553,7 +2565,7 @@
       </c>
       <c r="S40" s="32"/>
     </row>
-    <row r="41" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L41" s="4" t="s">
         <v>5</v>
       </c>
@@ -2568,7 +2580,7 @@
       </c>
       <c r="S41" s="32"/>
     </row>
-    <row r="42" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L42" s="2" t="s">
         <v>5</v>
       </c>
@@ -2583,7 +2595,7 @@
       </c>
       <c r="S42" s="32"/>
     </row>
-    <row r="43" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L43" s="4" t="s">
         <v>5</v>
       </c>
@@ -2598,7 +2610,7 @@
       </c>
       <c r="S43" s="32"/>
     </row>
-    <row r="44" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L44" s="2" t="s">
         <v>5</v>
       </c>
@@ -2613,7 +2625,7 @@
       </c>
       <c r="S44" s="32"/>
     </row>
-    <row r="45" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L45" s="4" t="s">
         <v>5</v>
       </c>
@@ -2628,7 +2640,7 @@
       </c>
       <c r="S45" s="32"/>
     </row>
-    <row r="46" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L46" s="2" t="s">
         <v>5</v>
       </c>
@@ -2642,7 +2654,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L47" s="4" t="s">
         <v>5</v>
       </c>
@@ -2656,7 +2668,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L48" s="2" t="s">
         <v>5</v>
       </c>
@@ -2670,7 +2682,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L49" s="4" t="s">
         <v>10</v>
       </c>
@@ -2684,7 +2696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L50" s="2" t="s">
         <v>5</v>
       </c>
@@ -2698,7 +2710,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L51" s="4" t="s">
         <v>5</v>
       </c>
@@ -2712,7 +2724,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L52" s="2" t="s">
         <v>5</v>
       </c>
@@ -2726,7 +2738,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L53" s="4" t="s">
         <v>5</v>
       </c>
@@ -2740,7 +2752,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L54" s="2" t="s">
         <v>5</v>
       </c>
@@ -2754,7 +2766,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L55" s="31" t="s">
         <v>5</v>
       </c>
@@ -2768,7 +2780,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L56" s="38" t="s">
         <v>5</v>
       </c>
@@ -2782,22 +2794,22 @@
         <v>120</v>
       </c>
     </row>
+    <row r="57" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L57" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="N57" s="32">
+        <v>43593</v>
+      </c>
+      <c r="O57" s="77">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
     <mergeCell ref="Q12:T12"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="S7:T7"/>
@@ -2814,6 +2826,20 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="G12:J12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianluca\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D2A93E-C3D5-4143-84AA-36B950FDF144}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB2E629-D686-4A13-9AEE-4A9CC9CA7713}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="33">
   <si>
     <t>Persona</t>
   </si>
@@ -495,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -568,6 +567,7 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -957,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Z56"/>
+  <dimension ref="B1:Z57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,12 +986,12 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
     </row>
     <row r="3" spans="2:26" ht="24" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
@@ -1000,53 +1000,53 @@
       <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="33"/>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="59"/>
-      <c r="S4" s="55" t="s">
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="60"/>
+      <c r="S4" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
       <c r="W4" s="33"/>
       <c r="X4" s="33"/>
       <c r="Y4" s="33"/>
       <c r="Z4" s="33"/>
     </row>
     <row r="5" spans="2:26" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65"/>
-      <c r="J5" s="54" t="s">
+      <c r="F5" s="65"/>
+      <c r="G5" s="66"/>
+      <c r="J5" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="55"/>
+      <c r="K5" s="56"/>
       <c r="L5" s="34" t="s">
         <v>12</v>
       </c>
@@ -1066,10 +1066,10 @@
         <v>13</v>
       </c>
       <c r="R5" s="41"/>
-      <c r="S5" s="54" t="s">
+      <c r="S5" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="T5" s="55"/>
+      <c r="T5" s="56"/>
       <c r="U5" s="42" t="s">
         <v>10</v>
       </c>
@@ -1078,10 +1078,10 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="56"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="10">
         <f>SUM(J14:J47)</f>
         <v>1660</v>
@@ -1090,14 +1090,14 @@
         <f t="shared" ref="E6:E8" si="0">_xlfn.FLOOR.MATH(D6/60)</f>
         <v>27</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="J6" s="56" t="s">
+      <c r="G6" s="77"/>
+      <c r="J6" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="56"/>
+      <c r="K6" s="57"/>
       <c r="L6" s="43">
         <f>SUMIF(H14:H47,"CM",J14:J47)</f>
         <v>120</v>
@@ -1122,10 +1122,10 @@
         <f>SUMIF(H14:H47,"Test",J14:J47)</f>
         <v>180</v>
       </c>
-      <c r="S6" s="56" t="s">
+      <c r="S6" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T6" s="56"/>
+      <c r="T6" s="57"/>
       <c r="U6" s="10">
         <f>SUMIF(G14:G48,"Interno",J14:J48)</f>
         <v>240</v>
@@ -1136,26 +1136,26 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="69"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="7">
         <f>SUM(O14:O117)</f>
-        <v>2850</v>
+        <v>2990</v>
       </c>
       <c r="E7" s="28">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="F7" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="J7" s="69" t="s">
+      <c r="G7" s="75"/>
+      <c r="J7" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="69"/>
+      <c r="K7" s="70"/>
       <c r="L7" s="44">
         <f>SUMIF(M14:M65,"CM",O14:O65)</f>
         <v>340</v>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="O7" s="44">
         <f>SUMIF(M14:M65,"Codice",O14:O65)</f>
-        <v>1160</v>
+        <v>1300</v>
       </c>
       <c r="P7" s="44">
         <f>SUMIF(M14:M65,"Database",O14:O65)</f>
@@ -1180,24 +1180,24 @@
         <f>SUMIF(M14:M65,"Test",O14:O65)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="69" t="s">
+      <c r="S7" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="69"/>
+      <c r="T7" s="70"/>
       <c r="U7" s="7">
         <f>SUMIF(L14:L68,"Interno",O14:O68)</f>
         <v>400</v>
       </c>
       <c r="V7" s="7">
         <f>SUMIF(L14:L65,"GDPR",O14:O65)</f>
-        <v>2450</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="26">
         <f>SUM(T14:T51)</f>
         <v>2820</v>
@@ -1206,14 +1206,14 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="J8" s="52" t="s">
+      <c r="G8" s="77"/>
+      <c r="J8" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="52"/>
+      <c r="K8" s="53"/>
       <c r="L8" s="43">
         <f>SUMIF(R14:R47,"CM",T14:T47)</f>
         <v>0</v>
@@ -1238,10 +1238,10 @@
         <f>SUMIF(R14:R47,"Test",T14:T47)</f>
         <v>45</v>
       </c>
-      <c r="S8" s="52" t="s">
+      <c r="S8" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="52"/>
+      <c r="T8" s="53"/>
       <c r="U8" s="10">
         <f>SUMIF(Q14:Q48,"Interno",T14:T48)</f>
         <v>0</v>
@@ -1252,29 +1252,29 @@
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="69"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="7">
         <f>SUM(E14:E37)</f>
-        <v>750</v>
+        <v>810</v>
       </c>
       <c r="E9" s="28">
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
-        <v>36</v>
-      </c>
-      <c r="F9" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="74"/>
+      <c r="G9" s="75"/>
       <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="53"/>
+      <c r="K9" s="54"/>
       <c r="L9" s="45">
         <f>SUMIF(H17:H50,"CM",J17:J50)</f>
         <v>120</v>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="O9" s="45">
         <f>SUM(O6:O8)</f>
-        <v>2570</v>
+        <v>2710</v>
       </c>
       <c r="P9" s="46">
         <f>SUM(P6:P8)</f>
@@ -1299,62 +1299,62 @@
         <f>SUM(Q6:Q8)</f>
         <v>225</v>
       </c>
-      <c r="S9" s="53" t="s">
+      <c r="S9" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="T9" s="53"/>
+      <c r="T9" s="54"/>
       <c r="U9" s="39">
         <f>SUM(U6:U8)</f>
         <v>640</v>
       </c>
       <c r="V9" s="39">
         <f>SUM(V6:V8)</f>
-        <v>6690</v>
+        <v>6830</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="66"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="47">
         <f>SUM(D6:D9)</f>
-        <v>8080</v>
+        <v>8280</v>
       </c>
       <c r="E10" s="47">
         <f>SUM(E6:E9)</f>
-        <v>157</v>
-      </c>
-      <c r="F10" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="68"/>
+      <c r="G10" s="69"/>
     </row>
     <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="G12" s="60" t="s">
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
+      <c r="G12" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
-      <c r="L12" s="60" t="s">
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
+      <c r="L12" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="62"/>
-      <c r="Q12" s="60" t="s">
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="63"/>
+      <c r="Q12" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="63"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
@@ -1957,6 +1957,18 @@
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="32">
+        <v>43593</v>
+      </c>
+      <c r="E25" s="31">
+        <v>60</v>
+      </c>
       <c r="G25" s="4" t="s">
         <v>5</v>
       </c>
@@ -2804,6 +2816,20 @@
       </c>
       <c r="O56" s="38">
         <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L57" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="N57" s="32">
+        <v>43593</v>
+      </c>
+      <c r="O57" s="52">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB2E629-D686-4A13-9AEE-4A9CC9CA7713}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A0C691-C330-4059-BDFF-DB88DF0C6160}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="33">
   <si>
     <t>Persona</t>
   </si>
@@ -494,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -568,9 +568,72 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -580,69 +643,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -957,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Z57"/>
+  <dimension ref="B1:Z58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,12 +987,12 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" spans="2:26" ht="24" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
@@ -1000,53 +1001,53 @@
       <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="64"/>
       <c r="H4" s="33"/>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="60"/>
-      <c r="S4" s="56" t="s">
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="64"/>
+      <c r="S4" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
       <c r="W4" s="33"/>
       <c r="X4" s="33"/>
       <c r="Y4" s="33"/>
       <c r="Z4" s="33"/>
     </row>
     <row r="5" spans="2:26" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="66"/>
-      <c r="J5" s="55" t="s">
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
+      <c r="J5" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="56"/>
+      <c r="K5" s="77"/>
       <c r="L5" s="34" t="s">
         <v>12</v>
       </c>
@@ -1066,10 +1067,10 @@
         <v>13</v>
       </c>
       <c r="R5" s="41"/>
-      <c r="S5" s="55" t="s">
+      <c r="S5" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="T5" s="56"/>
+      <c r="T5" s="77"/>
       <c r="U5" s="42" t="s">
         <v>10</v>
       </c>
@@ -1078,10 +1079,10 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="10">
         <f>SUM(J14:J47)</f>
         <v>1660</v>
@@ -1090,14 +1091,14 @@
         <f t="shared" ref="E6:E8" si="0">_xlfn.FLOOR.MATH(D6/60)</f>
         <v>27</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="77"/>
-      <c r="J6" s="57" t="s">
+      <c r="G6" s="69"/>
+      <c r="J6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="57"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="43">
         <f>SUMIF(H14:H47,"CM",J14:J47)</f>
         <v>120</v>
@@ -1122,10 +1123,10 @@
         <f>SUMIF(H14:H47,"Test",J14:J47)</f>
         <v>180</v>
       </c>
-      <c r="S6" s="57" t="s">
+      <c r="S6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="T6" s="57"/>
+      <c r="T6" s="56"/>
       <c r="U6" s="10">
         <f>SUMIF(G14:G48,"Interno",J14:J48)</f>
         <v>240</v>
@@ -1136,26 +1137,26 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="70"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="7">
         <f>SUM(O14:O117)</f>
-        <v>2990</v>
+        <v>3020</v>
       </c>
       <c r="E7" s="28">
         <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="F7" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="J7" s="70" t="s">
+      <c r="G7" s="67"/>
+      <c r="J7" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="70"/>
+      <c r="K7" s="57"/>
       <c r="L7" s="44">
         <f>SUMIF(M14:M65,"CM",O14:O65)</f>
         <v>340</v>
@@ -1170,7 +1171,7 @@
       </c>
       <c r="O7" s="44">
         <f>SUMIF(M14:M65,"Codice",O14:O65)</f>
-        <v>1300</v>
+        <v>1330</v>
       </c>
       <c r="P7" s="44">
         <f>SUMIF(M14:M65,"Database",O14:O65)</f>
@@ -1180,24 +1181,24 @@
         <f>SUMIF(M14:M65,"Test",O14:O65)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="70" t="s">
+      <c r="S7" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="70"/>
+      <c r="T7" s="57"/>
       <c r="U7" s="7">
         <f>SUMIF(L14:L68,"Interno",O14:O68)</f>
         <v>400</v>
       </c>
       <c r="V7" s="7">
         <f>SUMIF(L14:L65,"GDPR",O14:O65)</f>
-        <v>2590</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="53"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="26">
         <f>SUM(T14:T51)</f>
         <v>2820</v>
@@ -1206,14 +1207,14 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="F8" s="76" t="s">
+      <c r="F8" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="77"/>
-      <c r="J8" s="53" t="s">
+      <c r="G8" s="69"/>
+      <c r="J8" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="53"/>
+      <c r="K8" s="61"/>
       <c r="L8" s="43">
         <f>SUMIF(R14:R47,"CM",T14:T47)</f>
         <v>0</v>
@@ -1238,10 +1239,10 @@
         <f>SUMIF(R14:R47,"Test",T14:T47)</f>
         <v>45</v>
       </c>
-      <c r="S8" s="53" t="s">
+      <c r="S8" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="53"/>
+      <c r="T8" s="61"/>
       <c r="U8" s="10">
         <f>SUMIF(Q14:Q48,"Interno",T14:T48)</f>
         <v>0</v>
@@ -1252,10 +1253,10 @@
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="70"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="7">
         <f>SUM(E14:E37)</f>
         <v>810</v>
@@ -1264,17 +1265,17 @@
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
         <v>39</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="75"/>
+      <c r="G9" s="67"/>
       <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="54" t="s">
+      <c r="J9" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="54"/>
+      <c r="K9" s="75"/>
       <c r="L9" s="45">
         <f>SUMIF(H17:H50,"CM",J17:J50)</f>
         <v>120</v>
@@ -1289,7 +1290,7 @@
       </c>
       <c r="O9" s="45">
         <f>SUM(O6:O8)</f>
-        <v>2710</v>
+        <v>2740</v>
       </c>
       <c r="P9" s="46">
         <f>SUM(P6:P8)</f>
@@ -1299,62 +1300,62 @@
         <f>SUM(Q6:Q8)</f>
         <v>225</v>
       </c>
-      <c r="S9" s="54" t="s">
+      <c r="S9" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="T9" s="54"/>
+      <c r="T9" s="75"/>
       <c r="U9" s="39">
         <f>SUM(U6:U8)</f>
         <v>640</v>
       </c>
       <c r="V9" s="39">
         <f>SUM(V6:V8)</f>
-        <v>6830</v>
+        <v>6860</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="67"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="47">
         <f>SUM(D6:D9)</f>
-        <v>8280</v>
+        <v>8310</v>
       </c>
       <c r="E10" s="47">
         <f>SUM(E6:E9)</f>
-        <v>162</v>
-      </c>
-      <c r="F10" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="69"/>
+      <c r="G10" s="74"/>
     </row>
     <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
-      <c r="G12" s="61" t="s">
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="G12" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="63"/>
-      <c r="L12" s="61" t="s">
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
+      <c r="L12" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="63"/>
-      <c r="Q12" s="61" t="s">
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="55"/>
+      <c r="Q12" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="63"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="55"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
@@ -2832,8 +2833,36 @@
         <v>140</v>
       </c>
     </row>
+    <row r="58" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L58" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="N58" s="32">
+        <v>43598</v>
+      </c>
+      <c r="O58" s="78">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="Q12:T12"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="S7:T7"/>
@@ -2850,20 +2879,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="G12:J12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A0C691-C330-4059-BDFF-DB88DF0C6160}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB69C16-AF52-4992-B764-1E577F7855AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,6 +568,31 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -577,7 +602,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -592,21 +632,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -619,31 +644,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Z58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,12 +987,12 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
     </row>
     <row r="3" spans="2:26" ht="24" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
@@ -1001,31 +1001,31 @@
       <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="33"/>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="64"/>
-      <c r="S4" s="77" t="s">
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
+      <c r="S4" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
       <c r="W4" s="33"/>
       <c r="X4" s="33"/>
       <c r="Y4" s="33"/>
@@ -1035,19 +1035,19 @@
       <c r="B5" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="63"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="29" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="71"/>
-      <c r="J5" s="76" t="s">
+      <c r="F5" s="66"/>
+      <c r="G5" s="67"/>
+      <c r="J5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="77"/>
+      <c r="K5" s="57"/>
       <c r="L5" s="34" t="s">
         <v>12</v>
       </c>
@@ -1067,10 +1067,10 @@
         <v>13</v>
       </c>
       <c r="R5" s="41"/>
-      <c r="S5" s="76" t="s">
+      <c r="S5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="T5" s="77"/>
+      <c r="T5" s="57"/>
       <c r="U5" s="42" t="s">
         <v>10</v>
       </c>
@@ -1079,10 +1079,10 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="56"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="10">
         <f>SUM(J14:J47)</f>
         <v>1660</v>
@@ -1091,14 +1091,14 @@
         <f t="shared" ref="E6:E8" si="0">_xlfn.FLOOR.MATH(D6/60)</f>
         <v>27</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="69"/>
-      <c r="J6" s="56" t="s">
+      <c r="G6" s="78"/>
+      <c r="J6" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="56"/>
+      <c r="K6" s="58"/>
       <c r="L6" s="43">
         <f>SUMIF(H14:H47,"CM",J14:J47)</f>
         <v>120</v>
@@ -1123,10 +1123,10 @@
         <f>SUMIF(H14:H47,"Test",J14:J47)</f>
         <v>180</v>
       </c>
-      <c r="S6" s="56" t="s">
+      <c r="S6" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="T6" s="56"/>
+      <c r="T6" s="58"/>
       <c r="U6" s="10">
         <f>SUMIF(G14:G48,"Interno",J14:J48)</f>
         <v>240</v>
@@ -1137,26 +1137,26 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="7">
         <f>SUM(O14:O117)</f>
-        <v>3020</v>
+        <v>3080</v>
       </c>
       <c r="E7" s="28">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F7" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="J7" s="57" t="s">
+      <c r="G7" s="76"/>
+      <c r="J7" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="57"/>
+      <c r="K7" s="71"/>
       <c r="L7" s="44">
         <f>SUMIF(M14:M65,"CM",O14:O65)</f>
         <v>340</v>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="O7" s="44">
         <f>SUMIF(M14:M65,"Codice",O14:O65)</f>
-        <v>1330</v>
+        <v>1390</v>
       </c>
       <c r="P7" s="44">
         <f>SUMIF(M14:M65,"Database",O14:O65)</f>
@@ -1181,24 +1181,24 @@
         <f>SUMIF(M14:M65,"Test",O14:O65)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="57" t="s">
+      <c r="S7" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="57"/>
+      <c r="T7" s="71"/>
       <c r="U7" s="7">
         <f>SUMIF(L14:L68,"Interno",O14:O68)</f>
         <v>400</v>
       </c>
       <c r="V7" s="7">
         <f>SUMIF(L14:L65,"GDPR",O14:O65)</f>
-        <v>2620</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="26">
         <f>SUM(T14:T51)</f>
         <v>2820</v>
@@ -1207,14 +1207,14 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="69"/>
-      <c r="J8" s="61" t="s">
+      <c r="G8" s="78"/>
+      <c r="J8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="61"/>
+      <c r="K8" s="54"/>
       <c r="L8" s="43">
         <f>SUMIF(R14:R47,"CM",T14:T47)</f>
         <v>0</v>
@@ -1239,10 +1239,10 @@
         <f>SUMIF(R14:R47,"Test",T14:T47)</f>
         <v>45</v>
       </c>
-      <c r="S8" s="61" t="s">
+      <c r="S8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="61"/>
+      <c r="T8" s="54"/>
       <c r="U8" s="10">
         <f>SUMIF(Q14:Q48,"Interno",T14:T48)</f>
         <v>0</v>
@@ -1253,10 +1253,10 @@
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="57"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="7">
         <f>SUM(E14:E37)</f>
         <v>810</v>
@@ -1265,17 +1265,17 @@
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
         <v>39</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="67"/>
+      <c r="G9" s="76"/>
       <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="75" t="s">
+      <c r="J9" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="75"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="45">
         <f>SUMIF(H17:H50,"CM",J17:J50)</f>
         <v>120</v>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="O9" s="45">
         <f>SUM(O6:O8)</f>
-        <v>2740</v>
+        <v>2800</v>
       </c>
       <c r="P9" s="46">
         <f>SUM(P6:P8)</f>
@@ -1300,62 +1300,62 @@
         <f>SUM(Q6:Q8)</f>
         <v>225</v>
       </c>
-      <c r="S9" s="75" t="s">
+      <c r="S9" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="T9" s="75"/>
+      <c r="T9" s="55"/>
       <c r="U9" s="39">
         <f>SUM(U6:U8)</f>
         <v>640</v>
       </c>
       <c r="V9" s="39">
         <f>SUM(V6:V8)</f>
-        <v>6860</v>
+        <v>6920</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="72"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="47">
         <f>SUM(D6:D9)</f>
-        <v>8310</v>
+        <v>8370</v>
       </c>
       <c r="E10" s="47">
         <f>SUM(E6:E9)</f>
-        <v>163</v>
-      </c>
-      <c r="F10" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="74"/>
+      <c r="G10" s="70"/>
     </row>
     <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
-      <c r="G12" s="53" t="s">
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="G12" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="55"/>
-      <c r="L12" s="53" t="s">
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
+      <c r="L12" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="55"/>
-      <c r="Q12" s="53" t="s">
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="64"/>
+      <c r="Q12" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="55"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="64"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
@@ -2834,35 +2834,21 @@
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L58" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="78" t="s">
+      <c r="L58" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="53" t="s">
         <v>16</v>
       </c>
       <c r="N58" s="32">
         <v>43598</v>
       </c>
-      <c r="O58" s="78">
-        <v>30</v>
+      <c r="O58" s="53">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
     <mergeCell ref="Q12:T12"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="S7:T7"/>
@@ -2879,6 +2865,20 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="G12:J12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB69C16-AF52-4992-B764-1E577F7855AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AB8970-E78F-44DB-95BC-83A478D4F3B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="33">
   <si>
     <t>Persona</t>
   </si>
@@ -569,9 +569,72 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -580,69 +643,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,7 +958,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Z58"/>
+  <dimension ref="B1:Z59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O61" sqref="O61"/>
@@ -987,12 +987,12 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
     </row>
     <row r="3" spans="2:26" ht="24" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
@@ -1001,53 +1001,53 @@
       <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
       <c r="H4" s="33"/>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="61"/>
-      <c r="S4" s="57" t="s">
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="65"/>
+      <c r="S4" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
       <c r="W4" s="33"/>
       <c r="X4" s="33"/>
       <c r="Y4" s="33"/>
       <c r="Z4" s="33"/>
     </row>
     <row r="5" spans="2:26" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67"/>
-      <c r="J5" s="56" t="s">
+      <c r="F5" s="71"/>
+      <c r="G5" s="72"/>
+      <c r="J5" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="57"/>
+      <c r="K5" s="78"/>
       <c r="L5" s="34" t="s">
         <v>12</v>
       </c>
@@ -1067,10 +1067,10 @@
         <v>13</v>
       </c>
       <c r="R5" s="41"/>
-      <c r="S5" s="56" t="s">
+      <c r="S5" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="T5" s="57"/>
+      <c r="T5" s="78"/>
       <c r="U5" s="42" t="s">
         <v>10</v>
       </c>
@@ -1079,10 +1079,10 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="10">
         <f>SUM(J14:J47)</f>
         <v>1660</v>
@@ -1091,14 +1091,14 @@
         <f t="shared" ref="E6:E8" si="0">_xlfn.FLOOR.MATH(D6/60)</f>
         <v>27</v>
       </c>
-      <c r="F6" s="77" t="s">
+      <c r="F6" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="78"/>
-      <c r="J6" s="58" t="s">
+      <c r="G6" s="70"/>
+      <c r="J6" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="58"/>
+      <c r="K6" s="57"/>
       <c r="L6" s="43">
         <f>SUMIF(H14:H47,"CM",J14:J47)</f>
         <v>120</v>
@@ -1123,10 +1123,10 @@
         <f>SUMIF(H14:H47,"Test",J14:J47)</f>
         <v>180</v>
       </c>
-      <c r="S6" s="58" t="s">
+      <c r="S6" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T6" s="58"/>
+      <c r="T6" s="57"/>
       <c r="U6" s="10">
         <f>SUMIF(G14:G48,"Interno",J14:J48)</f>
         <v>240</v>
@@ -1137,33 +1137,33 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="71"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="7">
         <f>SUM(O14:O117)</f>
-        <v>3080</v>
+        <v>3150</v>
       </c>
       <c r="E7" s="28">
         <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="F7" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="76"/>
-      <c r="J7" s="71" t="s">
+      <c r="G7" s="68"/>
+      <c r="J7" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="71"/>
+      <c r="K7" s="58"/>
       <c r="L7" s="44">
         <f>SUMIF(M14:M65,"CM",O14:O65)</f>
         <v>340</v>
       </c>
       <c r="M7" s="44">
         <f>SUMIF(M14:M65,"Documentazione",O14:O65)</f>
-        <v>970</v>
+        <v>1040</v>
       </c>
       <c r="N7" s="44">
         <f>SUMIF(M14:M65,"Ricerche",O14:O65)</f>
@@ -1181,24 +1181,24 @@
         <f>SUMIF(M14:M65,"Test",O14:O65)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="71" t="s">
+      <c r="S7" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="71"/>
+      <c r="T7" s="58"/>
       <c r="U7" s="7">
         <f>SUMIF(L14:L68,"Interno",O14:O68)</f>
         <v>400</v>
       </c>
       <c r="V7" s="7">
         <f>SUMIF(L14:L65,"GDPR",O14:O65)</f>
-        <v>2680</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="26">
         <f>SUM(T14:T51)</f>
         <v>2820</v>
@@ -1207,14 +1207,14 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="J8" s="54" t="s">
+      <c r="G8" s="70"/>
+      <c r="J8" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="54"/>
+      <c r="K8" s="62"/>
       <c r="L8" s="43">
         <f>SUMIF(R14:R47,"CM",T14:T47)</f>
         <v>0</v>
@@ -1239,10 +1239,10 @@
         <f>SUMIF(R14:R47,"Test",T14:T47)</f>
         <v>45</v>
       </c>
-      <c r="S8" s="54" t="s">
+      <c r="S8" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="54"/>
+      <c r="T8" s="62"/>
       <c r="U8" s="10">
         <f>SUMIF(Q14:Q48,"Interno",T14:T48)</f>
         <v>0</v>
@@ -1253,10 +1253,10 @@
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="71"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="7">
         <f>SUM(E14:E37)</f>
         <v>810</v>
@@ -1265,24 +1265,24 @@
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
         <v>39</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="76"/>
+      <c r="G9" s="68"/>
       <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="76"/>
       <c r="L9" s="45">
         <f>SUMIF(H17:H50,"CM",J17:J50)</f>
         <v>120</v>
       </c>
       <c r="M9" s="45">
         <f>SUM(M6:M8)</f>
-        <v>3005</v>
+        <v>3075</v>
       </c>
       <c r="N9" s="45">
         <f>SUM(N6:N8)</f>
@@ -1300,62 +1300,62 @@
         <f>SUM(Q6:Q8)</f>
         <v>225</v>
       </c>
-      <c r="S9" s="55" t="s">
+      <c r="S9" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="T9" s="55"/>
+      <c r="T9" s="76"/>
       <c r="U9" s="39">
         <f>SUM(U6:U8)</f>
         <v>640</v>
       </c>
       <c r="V9" s="39">
         <f>SUM(V6:V8)</f>
-        <v>6920</v>
+        <v>6990</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="47">
         <f>SUM(D6:D9)</f>
-        <v>8370</v>
+        <v>8440</v>
       </c>
       <c r="E10" s="47">
         <f>SUM(E6:E9)</f>
-        <v>164</v>
-      </c>
-      <c r="F10" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="70"/>
+      <c r="G10" s="75"/>
     </row>
     <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
-      <c r="G12" s="62" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="G12" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
-      <c r="L12" s="62" t="s">
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
+      <c r="L12" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="64"/>
-      <c r="Q12" s="62" t="s">
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="56"/>
+      <c r="Q12" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="64"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="56"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
@@ -2847,8 +2847,36 @@
         <v>90</v>
       </c>
     </row>
+    <row r="59" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L59" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="N59" s="32">
+        <v>43608</v>
+      </c>
+      <c r="O59" s="52">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="Q12:T12"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="S7:T7"/>
@@ -2865,20 +2893,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="G12:J12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documenti\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AB8970-E78F-44DB-95BC-83A478D4F3B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC58BC74-64B3-4DB0-8AB6-9E391C998BBA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="33">
   <si>
     <t>Persona</t>
   </si>
@@ -567,8 +568,30 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -578,7 +601,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -593,21 +631,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -620,30 +643,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -961,93 +962,93 @@
   <dimension ref="B1:Z59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O61" sqref="O61"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" customWidth="1"/>
+    <col min="21" max="21" width="13.44140625" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:26" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="59" t="s">
+    <row r="1" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:26" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
-    </row>
-    <row r="3" spans="2:26" ht="24" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+    </row>
+    <row r="3" spans="2:26" ht="24" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="63" t="s">
+    <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.4">
+      <c r="B4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="65"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="33"/>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="65"/>
-      <c r="S4" s="78" t="s">
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="59"/>
+      <c r="S4" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
       <c r="W4" s="33"/>
       <c r="X4" s="33"/>
       <c r="Y4" s="33"/>
       <c r="Z4" s="33"/>
     </row>
-    <row r="5" spans="2:26" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="66" t="s">
+    <row r="5" spans="2:26" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="64"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="72"/>
-      <c r="J5" s="77" t="s">
+      <c r="F5" s="64"/>
+      <c r="G5" s="65"/>
+      <c r="J5" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="78"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="34" t="s">
         <v>12</v>
       </c>
@@ -1067,10 +1068,10 @@
         <v>13</v>
       </c>
       <c r="R5" s="41"/>
-      <c r="S5" s="77" t="s">
+      <c r="S5" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="T5" s="78"/>
+      <c r="T5" s="55"/>
       <c r="U5" s="42" t="s">
         <v>10</v>
       </c>
@@ -1078,11 +1079,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="57" t="s">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="10">
         <f>SUM(J14:J47)</f>
         <v>1660</v>
@@ -1091,14 +1092,14 @@
         <f t="shared" ref="E6:E8" si="0">_xlfn.FLOOR.MATH(D6/60)</f>
         <v>27</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="70"/>
-      <c r="J6" s="57" t="s">
+      <c r="G6" s="76"/>
+      <c r="J6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="57"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="43">
         <f>SUMIF(H14:H47,"CM",J14:J47)</f>
         <v>120</v>
@@ -1123,10 +1124,10 @@
         <f>SUMIF(H14:H47,"Test",J14:J47)</f>
         <v>180</v>
       </c>
-      <c r="S6" s="57" t="s">
+      <c r="S6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="T6" s="57"/>
+      <c r="T6" s="56"/>
       <c r="U6" s="10">
         <f>SUMIF(G14:G48,"Interno",J14:J48)</f>
         <v>240</v>
@@ -1136,11 +1137,11 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="58" t="s">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B7" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="58"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="7">
         <f>SUM(O14:O117)</f>
         <v>3150</v>
@@ -1149,14 +1150,14 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="J7" s="58" t="s">
+      <c r="G7" s="74"/>
+      <c r="J7" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="58"/>
+      <c r="K7" s="69"/>
       <c r="L7" s="44">
         <f>SUMIF(M14:M65,"CM",O14:O65)</f>
         <v>340</v>
@@ -1181,10 +1182,10 @@
         <f>SUMIF(M14:M65,"Test",O14:O65)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="58" t="s">
+      <c r="S7" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="58"/>
+      <c r="T7" s="69"/>
       <c r="U7" s="7">
         <f>SUMIF(L14:L68,"Interno",O14:O68)</f>
         <v>400</v>
@@ -1194,34 +1195,34 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="62" t="s">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="62"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="26">
         <f>SUM(T14:T51)</f>
-        <v>2820</v>
+        <v>3180</v>
       </c>
       <c r="E8" s="27">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="F8" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="70"/>
-      <c r="J8" s="62" t="s">
+      <c r="G8" s="76"/>
+      <c r="J8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="62"/>
+      <c r="K8" s="52"/>
       <c r="L8" s="43">
         <f>SUMIF(R14:R47,"CM",T14:T47)</f>
         <v>0</v>
       </c>
       <c r="M8" s="43">
         <f>SUMIF(R14:R47,"Documentazione",T14:T47)</f>
-        <v>945</v>
+        <v>1095</v>
       </c>
       <c r="N8" s="43">
         <f>SUMIF(R14:R47,"Ricerche",T14:T47)</f>
@@ -1229,7 +1230,7 @@
       </c>
       <c r="O8" s="43">
         <f>SUMIF(R14:R47,"Codice",T14:T47)</f>
-        <v>1260</v>
+        <v>1470</v>
       </c>
       <c r="P8" s="43">
         <f>SUMIF(R14:R47,"Database",T14:T47)</f>
@@ -1239,24 +1240,24 @@
         <f>SUMIF(R14:R47,"Test",T14:T47)</f>
         <v>45</v>
       </c>
-      <c r="S8" s="62" t="s">
+      <c r="S8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="62"/>
+      <c r="T8" s="52"/>
       <c r="U8" s="10">
         <f>SUMIF(Q14:Q48,"Interno",T14:T48)</f>
         <v>0</v>
       </c>
       <c r="V8" s="10">
         <f>SUMIF(Q14:Q48,"GDPR",T14:T48)</f>
-        <v>2820</v>
-      </c>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="58" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B9" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="58"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="7">
         <f>SUM(E14:E37)</f>
         <v>810</v>
@@ -1265,24 +1266,24 @@
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
         <v>39</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="68"/>
+      <c r="G9" s="74"/>
       <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="76"/>
+      <c r="K9" s="53"/>
       <c r="L9" s="45">
         <f>SUMIF(H17:H50,"CM",J17:J50)</f>
         <v>120</v>
       </c>
       <c r="M9" s="45">
         <f>SUM(M6:M8)</f>
-        <v>3075</v>
+        <v>3225</v>
       </c>
       <c r="N9" s="45">
         <f>SUM(N6:N8)</f>
@@ -1290,7 +1291,7 @@
       </c>
       <c r="O9" s="45">
         <f>SUM(O6:O8)</f>
-        <v>2800</v>
+        <v>3010</v>
       </c>
       <c r="P9" s="46">
         <f>SUM(P6:P8)</f>
@@ -1300,64 +1301,64 @@
         <f>SUM(Q6:Q8)</f>
         <v>225</v>
       </c>
-      <c r="S9" s="76" t="s">
+      <c r="S9" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="T9" s="76"/>
+      <c r="T9" s="53"/>
       <c r="U9" s="39">
         <f>SUM(U6:U8)</f>
         <v>640</v>
       </c>
       <c r="V9" s="39">
         <f>SUM(V6:V8)</f>
-        <v>6990</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="73" t="s">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B10" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="73"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="47">
         <f>SUM(D6:D9)</f>
-        <v>8440</v>
+        <v>8800</v>
       </c>
       <c r="E10" s="47">
         <f>SUM(E6:E9)</f>
-        <v>165</v>
-      </c>
-      <c r="F10" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="75"/>
-    </row>
-    <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="54" t="s">
+      <c r="G10" s="68"/>
+    </row>
+    <row r="12" spans="2:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="G12" s="54" t="s">
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="G12" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="56"/>
-      <c r="L12" s="54" t="s">
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
+      <c r="L12" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="56"/>
-      <c r="Q12" s="54" t="s">
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="62"/>
+      <c r="Q12" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="56"/>
-    </row>
-    <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="62"/>
+    </row>
+    <row r="13" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
@@ -1407,7 +1408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1457,7 +1458,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1557,7 +1558,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1607,7 +1608,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1657,7 +1658,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
@@ -1707,7 +1708,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
@@ -1757,7 +1758,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
@@ -1807,7 +1808,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
@@ -1857,7 +1858,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
@@ -1907,17 +1908,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2" t="s">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B24" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="36">
         <v>43558</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="35">
         <v>70</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -1957,17 +1958,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="31" t="s">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B25" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="8">
         <v>43593</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="77">
         <v>60</v>
       </c>
       <c r="G25" s="4" t="s">
@@ -2007,7 +2008,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="G26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2045,7 +2046,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="G27" s="4" t="s">
         <v>5</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="G28" s="2" t="s">
         <v>5</v>
       </c>
@@ -2121,7 +2122,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="G29" s="4" t="s">
         <v>5</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="G30" s="2" t="s">
         <v>5</v>
       </c>
@@ -2197,7 +2198,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="G31" s="31" t="s">
         <v>5</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="G32" s="38" t="s">
         <v>5</v>
       </c>
@@ -2273,7 +2274,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G33" s="48" t="s">
         <v>5</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G34" s="35" t="s">
         <v>5</v>
       </c>
@@ -2349,7 +2350,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G35" s="37" t="s">
         <v>5</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G36" s="10" t="s">
         <v>10</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G37" s="7" t="s">
         <v>5</v>
       </c>
@@ -2463,7 +2464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G38" s="10" t="s">
         <v>5</v>
       </c>
@@ -2501,7 +2502,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G39" s="7" t="s">
         <v>5</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G40" s="10" t="s">
         <v>5</v>
       </c>
@@ -2564,19 +2565,30 @@
       <c r="O40" s="2">
         <v>30</v>
       </c>
-      <c r="S40" s="32"/>
-    </row>
-    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G41" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="12" t="s">
+      <c r="Q40" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S40" s="11">
+        <v>43593</v>
+      </c>
+      <c r="T40" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G41" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="32">
+      <c r="I41" s="8">
         <v>43592</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="78">
         <v>60</v>
       </c>
       <c r="L41" s="4" t="s">
@@ -2591,19 +2603,30 @@
       <c r="O41" s="4">
         <v>30</v>
       </c>
-      <c r="S41" s="32"/>
-    </row>
-    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G42" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="32">
+      <c r="Q41" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S41" s="8">
+        <v>43599</v>
+      </c>
+      <c r="T41" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G42" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="11">
         <v>43593</v>
       </c>
-      <c r="J42" s="15">
+      <c r="J42" s="10">
         <v>60</v>
       </c>
       <c r="L42" s="2" t="s">
@@ -2618,9 +2641,20 @@
       <c r="O42" s="2">
         <v>90</v>
       </c>
-      <c r="S42" s="32"/>
-    </row>
-    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="Q42" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S42" s="11">
+        <v>43608</v>
+      </c>
+      <c r="T42" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="7:20" x14ac:dyDescent="0.3">
       <c r="L43" s="4" t="s">
         <v>5</v>
       </c>
@@ -2633,9 +2667,20 @@
       <c r="O43" s="4">
         <v>50</v>
       </c>
-      <c r="S43" s="32"/>
-    </row>
-    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="Q43" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="S43" s="8">
+        <v>43609</v>
+      </c>
+      <c r="T43" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="7:20" x14ac:dyDescent="0.3">
       <c r="L44" s="2" t="s">
         <v>5</v>
       </c>
@@ -2650,7 +2695,7 @@
       </c>
       <c r="S44" s="32"/>
     </row>
-    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:20" x14ac:dyDescent="0.3">
       <c r="L45" s="4" t="s">
         <v>5</v>
       </c>
@@ -2665,7 +2710,7 @@
       </c>
       <c r="S45" s="32"/>
     </row>
-    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:20" x14ac:dyDescent="0.3">
       <c r="L46" s="2" t="s">
         <v>5</v>
       </c>
@@ -2679,7 +2724,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:20" x14ac:dyDescent="0.3">
       <c r="L47" s="4" t="s">
         <v>5</v>
       </c>
@@ -2693,7 +2738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:20" x14ac:dyDescent="0.3">
       <c r="L48" s="2" t="s">
         <v>5</v>
       </c>
@@ -2707,7 +2752,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L49" s="4" t="s">
         <v>10</v>
       </c>
@@ -2721,7 +2766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L50" s="2" t="s">
         <v>5</v>
       </c>
@@ -2735,7 +2780,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L51" s="4" t="s">
         <v>5</v>
       </c>
@@ -2749,7 +2794,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L52" s="2" t="s">
         <v>5</v>
       </c>
@@ -2763,7 +2808,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L53" s="4" t="s">
         <v>5</v>
       </c>
@@ -2777,7 +2822,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L54" s="2" t="s">
         <v>5</v>
       </c>
@@ -2791,7 +2836,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L55" s="31" t="s">
         <v>5</v>
       </c>
@@ -2805,7 +2850,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L56" s="38" t="s">
         <v>5</v>
       </c>
@@ -2819,64 +2864,50 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L57" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="52" t="s">
+    <row r="57" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L57" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="N57" s="32">
+      <c r="N57" s="8">
         <v>43593</v>
       </c>
-      <c r="O57" s="52">
+      <c r="O57" s="77">
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L58" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="53" t="s">
+    <row r="58" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L58" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="N58" s="32">
+      <c r="N58" s="11">
         <v>43598</v>
       </c>
-      <c r="O58" s="53">
+      <c r="O58" s="38">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L59" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="N59" s="32">
+    <row r="59" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L59" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="N59" s="8">
         <v>43608</v>
       </c>
-      <c r="O59" s="52">
+      <c r="O59" s="77">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
     <mergeCell ref="Q12:T12"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="S7:T7"/>
@@ -2893,6 +2924,20 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="G12:J12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documenti\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC58BC74-64B3-4DB0-8AB6-9E391C998BBA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B68569-ADE2-4751-B627-9873CD4BF02C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="33">
   <si>
     <t>Persona</t>
   </si>
@@ -495,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -568,6 +567,9 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -643,8 +645,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -959,96 +960,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Z59"/>
+  <dimension ref="B1:Z61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" customWidth="1"/>
-    <col min="21" max="21" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:26" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="70" t="s">
+    <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:26" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-    </row>
-    <row r="3" spans="2:26" ht="24" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+    </row>
+    <row r="3" spans="2:26" ht="24" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.4">
-      <c r="B4" s="57" t="s">
+    <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="33"/>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="59"/>
-      <c r="S4" s="55" t="s">
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="62"/>
+      <c r="S4" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
       <c r="W4" s="33"/>
       <c r="X4" s="33"/>
       <c r="Y4" s="33"/>
       <c r="Z4" s="33"/>
     </row>
-    <row r="5" spans="2:26" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="63" t="s">
+    <row r="5" spans="2:26" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65"/>
-      <c r="J5" s="54" t="s">
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
+      <c r="J5" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="55"/>
+      <c r="K5" s="58"/>
       <c r="L5" s="34" t="s">
         <v>12</v>
       </c>
@@ -1068,10 +1069,10 @@
         <v>13</v>
       </c>
       <c r="R5" s="41"/>
-      <c r="S5" s="54" t="s">
+      <c r="S5" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="T5" s="55"/>
+      <c r="T5" s="58"/>
       <c r="U5" s="42" t="s">
         <v>10</v>
       </c>
@@ -1079,11 +1080,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B6" s="56" t="s">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="56"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="10">
         <f>SUM(J14:J47)</f>
         <v>1660</v>
@@ -1092,14 +1093,14 @@
         <f t="shared" ref="E6:E8" si="0">_xlfn.FLOOR.MATH(D6/60)</f>
         <v>27</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="J6" s="56" t="s">
+      <c r="G6" s="79"/>
+      <c r="J6" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="56"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="43">
         <f>SUMIF(H14:H47,"CM",J14:J47)</f>
         <v>120</v>
@@ -1124,10 +1125,10 @@
         <f>SUMIF(H14:H47,"Test",J14:J47)</f>
         <v>180</v>
       </c>
-      <c r="S6" s="56" t="s">
+      <c r="S6" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="T6" s="56"/>
+      <c r="T6" s="59"/>
       <c r="U6" s="10">
         <f>SUMIF(G14:G48,"Interno",J14:J48)</f>
         <v>240</v>
@@ -1137,27 +1138,27 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="69" t="s">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="69"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="7">
         <f>SUM(O14:O117)</f>
-        <v>3150</v>
+        <v>3450</v>
       </c>
       <c r="E7" s="28">
         <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="F7" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="74"/>
-      <c r="J7" s="69" t="s">
+      <c r="G7" s="77"/>
+      <c r="J7" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="69"/>
+      <c r="K7" s="72"/>
       <c r="L7" s="44">
         <f>SUMIF(M14:M65,"CM",O14:O65)</f>
         <v>340</v>
@@ -1172,7 +1173,7 @@
       </c>
       <c r="O7" s="44">
         <f>SUMIF(M14:M65,"Codice",O14:O65)</f>
-        <v>1390</v>
+        <v>1690</v>
       </c>
       <c r="P7" s="44">
         <f>SUMIF(M14:M65,"Database",O14:O65)</f>
@@ -1182,24 +1183,24 @@
         <f>SUMIF(M14:M65,"Test",O14:O65)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="69" t="s">
+      <c r="S7" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="69"/>
+      <c r="T7" s="72"/>
       <c r="U7" s="7">
         <f>SUMIF(L14:L68,"Interno",O14:O68)</f>
         <v>400</v>
       </c>
       <c r="V7" s="7">
         <f>SUMIF(L14:L65,"GDPR",O14:O65)</f>
-        <v>2750</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B8" s="52" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="26">
         <f>SUM(T14:T51)</f>
         <v>3180</v>
@@ -1208,14 +1209,14 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="J8" s="52" t="s">
+      <c r="G8" s="79"/>
+      <c r="J8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="52"/>
+      <c r="K8" s="55"/>
       <c r="L8" s="43">
         <f>SUMIF(R14:R47,"CM",T14:T47)</f>
         <v>0</v>
@@ -1240,10 +1241,10 @@
         <f>SUMIF(R14:R47,"Test",T14:T47)</f>
         <v>45</v>
       </c>
-      <c r="S8" s="52" t="s">
+      <c r="S8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="52"/>
+      <c r="T8" s="55"/>
       <c r="U8" s="10">
         <f>SUMIF(Q14:Q48,"Interno",T14:T48)</f>
         <v>0</v>
@@ -1253,11 +1254,11 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B9" s="69" t="s">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="69"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="7">
         <f>SUM(E14:E37)</f>
         <v>810</v>
@@ -1266,17 +1267,17 @@
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
         <v>39</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="74"/>
+      <c r="G9" s="77"/>
       <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="53"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="45">
         <f>SUMIF(H17:H50,"CM",J17:J50)</f>
         <v>120</v>
@@ -1291,7 +1292,7 @@
       </c>
       <c r="O9" s="45">
         <f>SUM(O6:O8)</f>
-        <v>3010</v>
+        <v>3310</v>
       </c>
       <c r="P9" s="46">
         <f>SUM(P6:P8)</f>
@@ -1301,64 +1302,64 @@
         <f>SUM(Q6:Q8)</f>
         <v>225</v>
       </c>
-      <c r="S9" s="53" t="s">
+      <c r="S9" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="T9" s="53"/>
+      <c r="T9" s="56"/>
       <c r="U9" s="39">
         <f>SUM(U6:U8)</f>
         <v>640</v>
       </c>
       <c r="V9" s="39">
         <f>SUM(V6:V8)</f>
-        <v>7350</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B10" s="66" t="s">
+        <v>7650</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="66"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="47">
         <f>SUM(D6:D9)</f>
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="E10" s="47">
         <f>SUM(E6:E9)</f>
-        <v>171</v>
-      </c>
-      <c r="F10" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="68"/>
-    </row>
-    <row r="12" spans="2:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="B12" s="60" t="s">
+      <c r="G10" s="71"/>
+    </row>
+    <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="G12" s="60" t="s">
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
+      <c r="G12" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
-      <c r="L12" s="60" t="s">
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
+      <c r="L12" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="62"/>
-      <c r="Q12" s="60" t="s">
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="65"/>
+      <c r="Q12" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="62"/>
-    </row>
-    <row r="13" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="65"/>
+    </row>
+    <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
@@ -1408,7 +1409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
@@ -1508,7 +1509,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1558,7 +1559,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1608,7 +1609,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
@@ -1758,7 +1759,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
@@ -1808,7 +1809,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
@@ -1858,7 +1859,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
@@ -1908,7 +1909,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="35" t="s">
         <v>5</v>
       </c>
@@ -1958,17 +1959,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B25" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="77" t="s">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="52" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="8">
         <v>43593</v>
       </c>
-      <c r="E25" s="77">
+      <c r="E25" s="52">
         <v>60</v>
       </c>
       <c r="G25" s="4" t="s">
@@ -2008,7 +2009,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2046,7 +2047,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G27" s="4" t="s">
         <v>5</v>
       </c>
@@ -2084,7 +2085,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G28" s="2" t="s">
         <v>5</v>
       </c>
@@ -2122,7 +2123,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G29" s="4" t="s">
         <v>5</v>
       </c>
@@ -2160,7 +2161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G30" s="2" t="s">
         <v>5</v>
       </c>
@@ -2198,7 +2199,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G31" s="31" t="s">
         <v>5</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G32" s="38" t="s">
         <v>5</v>
       </c>
@@ -2274,7 +2275,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G33" s="48" t="s">
         <v>5</v>
       </c>
@@ -2312,7 +2313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G34" s="35" t="s">
         <v>5</v>
       </c>
@@ -2350,7 +2351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G35" s="37" t="s">
         <v>5</v>
       </c>
@@ -2388,7 +2389,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G36" s="10" t="s">
         <v>10</v>
       </c>
@@ -2426,7 +2427,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G37" s="7" t="s">
         <v>5</v>
       </c>
@@ -2464,7 +2465,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G38" s="10" t="s">
         <v>5</v>
       </c>
@@ -2502,7 +2503,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G39" s="7" t="s">
         <v>5</v>
       </c>
@@ -2540,7 +2541,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G40" s="10" t="s">
         <v>5</v>
       </c>
@@ -2578,17 +2579,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G41" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="78" t="s">
+    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G41" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="53" t="s">
         <v>13</v>
       </c>
       <c r="I41" s="8">
         <v>43592</v>
       </c>
-      <c r="J41" s="78">
+      <c r="J41" s="53">
         <v>60</v>
       </c>
       <c r="L41" s="4" t="s">
@@ -2616,7 +2617,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G42" s="10" t="s">
         <v>5</v>
       </c>
@@ -2654,7 +2655,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L43" s="4" t="s">
         <v>5</v>
       </c>
@@ -2680,7 +2681,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L44" s="2" t="s">
         <v>5</v>
       </c>
@@ -2695,7 +2696,7 @@
       </c>
       <c r="S44" s="32"/>
     </row>
-    <row r="45" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L45" s="4" t="s">
         <v>5</v>
       </c>
@@ -2710,7 +2711,7 @@
       </c>
       <c r="S45" s="32"/>
     </row>
-    <row r="46" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L46" s="2" t="s">
         <v>5</v>
       </c>
@@ -2724,7 +2725,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L47" s="4" t="s">
         <v>5</v>
       </c>
@@ -2738,7 +2739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="7:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L48" s="2" t="s">
         <v>5</v>
       </c>
@@ -2752,7 +2753,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L49" s="4" t="s">
         <v>10</v>
       </c>
@@ -2766,7 +2767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L50" s="2" t="s">
         <v>5</v>
       </c>
@@ -2780,7 +2781,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L51" s="4" t="s">
         <v>5</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L52" s="2" t="s">
         <v>5</v>
       </c>
@@ -2808,7 +2809,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L53" s="4" t="s">
         <v>5</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L54" s="2" t="s">
         <v>5</v>
       </c>
@@ -2836,7 +2837,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L55" s="31" t="s">
         <v>5</v>
       </c>
@@ -2850,7 +2851,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L56" s="38" t="s">
         <v>5</v>
       </c>
@@ -2864,21 +2865,21 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="12:15" x14ac:dyDescent="0.3">
-      <c r="L57" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="77" t="s">
+    <row r="57" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L57" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="52" t="s">
         <v>16</v>
       </c>
       <c r="N57" s="8">
         <v>43593</v>
       </c>
-      <c r="O57" s="77">
+      <c r="O57" s="52">
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L58" s="38" t="s">
         <v>5</v>
       </c>
@@ -2892,18 +2893,46 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="12:15" x14ac:dyDescent="0.3">
-      <c r="L59" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="77" t="s">
+    <row r="59" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L59" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="52" t="s">
         <v>11</v>
       </c>
       <c r="N59" s="8">
         <v>43608</v>
       </c>
-      <c r="O59" s="77">
+      <c r="O59" s="52">
         <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L60" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="N60" s="32">
+        <v>43621</v>
+      </c>
+      <c r="O60" s="54">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L61" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="M61" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="N61" s="32">
+        <v>43622</v>
+      </c>
+      <c r="O61" s="80">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B68569-ADE2-4751-B627-9873CD4BF02C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB75436A-55B0-4842-944A-76D3CE3BC0DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="34">
   <si>
     <t>Persona</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Totali per progetto</t>
+  </si>
+  <si>
+    <t>Migrazione</t>
   </si>
 </sst>
 </file>
@@ -570,9 +573,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -582,70 +649,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -960,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Z61"/>
+  <dimension ref="B1:Z62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N63" sqref="N63"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,12 +992,12 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="2:26" ht="24" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25"/>
@@ -1003,53 +1006,53 @@
       <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="67"/>
       <c r="H4" s="33"/>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="62"/>
-      <c r="S4" s="58" t="s">
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="67"/>
+      <c r="S4" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
       <c r="W4" s="33"/>
       <c r="X4" s="33"/>
       <c r="Y4" s="33"/>
       <c r="Z4" s="33"/>
     </row>
     <row r="5" spans="2:26" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
-      <c r="J5" s="57" t="s">
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
+      <c r="J5" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="58"/>
+      <c r="K5" s="80"/>
       <c r="L5" s="34" t="s">
         <v>12</v>
       </c>
@@ -1069,10 +1072,10 @@
         <v>13</v>
       </c>
       <c r="R5" s="41"/>
-      <c r="S5" s="57" t="s">
+      <c r="S5" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="T5" s="58"/>
+      <c r="T5" s="80"/>
       <c r="U5" s="42" t="s">
         <v>10</v>
       </c>
@@ -1093,10 +1096,10 @@
         <f t="shared" ref="E6:E8" si="0">_xlfn.FLOOR.MATH(D6/60)</f>
         <v>27</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="79"/>
+      <c r="G6" s="72"/>
       <c r="J6" s="59" t="s">
         <v>14</v>
       </c>
@@ -1139,26 +1142,26 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="72"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="7">
         <f>SUM(O14:O117)</f>
-        <v>3450</v>
+        <v>3600</v>
       </c>
       <c r="E7" s="28">
         <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="F7" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="77"/>
-      <c r="J7" s="72" t="s">
+      <c r="G7" s="70"/>
+      <c r="J7" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="72"/>
+      <c r="K7" s="60"/>
       <c r="L7" s="44">
         <f>SUMIF(M14:M65,"CM",O14:O65)</f>
         <v>340</v>
@@ -1183,40 +1186,40 @@
         <f>SUMIF(M14:M65,"Test",O14:O65)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="72" t="s">
+      <c r="S7" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="72"/>
+      <c r="T7" s="60"/>
       <c r="U7" s="7">
         <f>SUMIF(L14:L68,"Interno",O14:O68)</f>
         <v>400</v>
       </c>
       <c r="V7" s="7">
         <f>SUMIF(L14:L65,"GDPR",O14:O65)</f>
-        <v>3050</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="26">
         <f>SUM(T14:T51)</f>
-        <v>3180</v>
+        <v>3330</v>
       </c>
       <c r="E8" s="27">
         <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="F8" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="79"/>
-      <c r="J8" s="55" t="s">
+      <c r="G8" s="72"/>
+      <c r="J8" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="55"/>
+      <c r="K8" s="64"/>
       <c r="L8" s="43">
         <f>SUMIF(R14:R47,"CM",T14:T47)</f>
         <v>0</v>
@@ -1241,43 +1244,43 @@
         <f>SUMIF(R14:R47,"Test",T14:T47)</f>
         <v>45</v>
       </c>
-      <c r="S8" s="55" t="s">
+      <c r="S8" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="55"/>
+      <c r="T8" s="64"/>
       <c r="U8" s="10">
         <f>SUMIF(Q14:Q48,"Interno",T14:T48)</f>
         <v>0</v>
       </c>
       <c r="V8" s="10">
         <f>SUMIF(Q14:Q48,"GDPR",T14:T48)</f>
-        <v>3180</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="72"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="7">
         <f>SUM(E14:E37)</f>
-        <v>810</v>
+        <v>910</v>
       </c>
       <c r="E9" s="28">
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
-        <v>39</v>
-      </c>
-      <c r="F9" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="77"/>
+      <c r="G9" s="70"/>
       <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="56" t="s">
+      <c r="J9" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="56"/>
+      <c r="K9" s="78"/>
       <c r="L9" s="45">
         <f>SUMIF(H17:H50,"CM",J17:J50)</f>
         <v>120</v>
@@ -1302,62 +1305,62 @@
         <f>SUM(Q6:Q8)</f>
         <v>225</v>
       </c>
-      <c r="S9" s="56" t="s">
+      <c r="S9" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="T9" s="56"/>
+      <c r="T9" s="78"/>
       <c r="U9" s="39">
         <f>SUM(U6:U8)</f>
         <v>640</v>
       </c>
       <c r="V9" s="39">
         <f>SUM(V6:V8)</f>
-        <v>7650</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="47">
         <f>SUM(D6:D9)</f>
-        <v>9100</v>
+        <v>9500</v>
       </c>
       <c r="E10" s="47">
         <f>SUM(E6:E9)</f>
-        <v>176</v>
-      </c>
-      <c r="F10" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="71"/>
+      <c r="G10" s="77"/>
     </row>
     <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
-      <c r="G12" s="63" t="s">
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="G12" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
-      <c r="L12" s="63" t="s">
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="58"/>
+      <c r="L12" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="65"/>
-      <c r="Q12" s="63" t="s">
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="58"/>
+      <c r="Q12" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="65"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="58"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
@@ -2010,6 +2013,18 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="32">
+        <v>43635</v>
+      </c>
+      <c r="E26" s="54">
+        <v>100</v>
+      </c>
       <c r="G26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2694,7 +2709,18 @@
       <c r="O44" s="2">
         <v>120</v>
       </c>
-      <c r="S44" s="32"/>
+      <c r="Q44" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S44" s="32">
+        <v>43636</v>
+      </c>
+      <c r="T44" s="15">
+        <v>150</v>
+      </c>
     </row>
     <row r="45" spans="7:20" x14ac:dyDescent="0.25">
       <c r="L45" s="4" t="s">
@@ -2922,21 +2948,49 @@
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L61" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="M61" s="80" t="s">
+      <c r="L61" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="M61" s="55" t="s">
         <v>16</v>
       </c>
       <c r="N61" s="32">
         <v>43622</v>
       </c>
-      <c r="O61" s="80">
+      <c r="O61" s="55">
         <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L62" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="N62" s="32">
+        <v>43636</v>
+      </c>
+      <c r="O62" s="54">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="Q12:T12"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="S7:T7"/>
@@ -2953,20 +3007,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="G12:J12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="35">
   <si>
     <t xml:space="preserve">Registrazione Tempi di Lavoro</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve">Migrazione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/06/2019</t>
   </si>
 </sst>
 </file>
@@ -318,7 +321,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -351,10 +354,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -411,10 +410,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -499,10 +494,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -524,10 +515,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -626,8 +613,8 @@
   </sheetPr>
   <dimension ref="B1:Z62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T47" activeCellId="0" sqref="T47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T46" activeCellId="0" sqref="T46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -728,16 +715,16 @@
       <c r="N5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="8" t="s">
+      <c r="O5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="9"/>
+      <c r="R5" s="8"/>
       <c r="S5" s="7" t="s">
         <v>4</v>
       </c>
@@ -750,1655 +737,1655 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11" t="n">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10" t="n">
         <f aca="false">SUM(J14:J47)</f>
         <v>1660</v>
       </c>
-      <c r="E6" s="12" t="n">
+      <c r="E6" s="11" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(D6/60)</f>
         <v>27</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="J6" s="10" t="s">
+      <c r="G6" s="12"/>
+      <c r="J6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="14" t="n">
+      <c r="K6" s="9"/>
+      <c r="L6" s="13" t="n">
         <f aca="false">SUMIF(H14:H47,"CM",J14:J47)</f>
         <v>120</v>
       </c>
-      <c r="M6" s="14" t="n">
+      <c r="M6" s="13" t="n">
         <f aca="false">SUMIF(H14:H47,"Documentazione",J14:J47)</f>
         <v>1090</v>
       </c>
-      <c r="N6" s="14" t="n">
+      <c r="N6" s="13" t="n">
         <f aca="false">SUMIF(H14:H47,"Ricerche",J14:J47)</f>
         <v>120</v>
       </c>
-      <c r="O6" s="14" t="n">
+      <c r="O6" s="13" t="n">
         <f aca="false">SUMIF(H14:H47,"Codice",J14:J47)</f>
         <v>150</v>
       </c>
-      <c r="P6" s="14" t="n">
+      <c r="P6" s="13" t="n">
         <f aca="false">SUMIF(H14:H47,_xlnm.database,J14:J47)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="14" t="n">
+      <c r="Q6" s="13" t="n">
         <f aca="false">SUMIF(H14:H47,"Test",J14:J47)</f>
         <v>180</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="10"/>
-      <c r="U6" s="11" t="n">
+      <c r="T6" s="9"/>
+      <c r="U6" s="10" t="n">
         <f aca="false">SUMIF(G14:G48,"Interno",J14:J48)</f>
         <v>240</v>
       </c>
-      <c r="V6" s="11" t="n">
+      <c r="V6" s="10" t="n">
         <f aca="false">SUMIF(G14:G48,"GDPR",J14:J48)</f>
         <v>1420</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16" t="n">
+      <c r="C7" s="14"/>
+      <c r="D7" s="15" t="n">
         <f aca="false">SUM(O14:O117)</f>
         <v>3600</v>
       </c>
-      <c r="E7" s="17" t="n">
+      <c r="E7" s="16" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(D7/60)</f>
         <v>60</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="17"/>
+      <c r="J7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="19" t="n">
+      <c r="K7" s="14"/>
+      <c r="L7" s="18" t="n">
         <f aca="false">SUMIF(M14:M65,"CM",O14:O65)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="19" t="n">
+      <c r="M7" s="18" t="n">
         <f aca="false">SUMIF(M14:M65,"Documentazione",O14:O65)</f>
         <v>1040</v>
       </c>
-      <c r="N7" s="19" t="n">
+      <c r="N7" s="18" t="n">
         <f aca="false">SUMIF(M14:M65,"Ricerche",O14:O65)</f>
         <v>90</v>
       </c>
-      <c r="O7" s="19" t="n">
+      <c r="O7" s="18" t="n">
         <f aca="false">SUMIF(M14:M65,"Codice",O14:O65)</f>
         <v>1690</v>
       </c>
-      <c r="P7" s="19" t="n">
+      <c r="P7" s="18" t="n">
         <f aca="false">SUMIF(M14:M65,"Database",O14:O65)</f>
         <v>290</v>
       </c>
-      <c r="Q7" s="19" t="n">
+      <c r="Q7" s="18" t="n">
         <f aca="false">SUMIF(M14:M65,"Test",O14:O65)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="15" t="s">
+      <c r="S7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="16" t="n">
+      <c r="T7" s="14"/>
+      <c r="U7" s="15" t="n">
         <f aca="false">SUMIF(L14:L68,"Interno",O14:O68)</f>
         <v>400</v>
       </c>
-      <c r="V7" s="16" t="n">
+      <c r="V7" s="15" t="n">
         <f aca="false">SUMIF(L14:L65,"GDPR",O14:O65)</f>
         <v>3200</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="20" t="n">
+      <c r="C8" s="9"/>
+      <c r="D8" s="19" t="n">
         <f aca="false">SUM(T14:T51)</f>
-        <v>3450</v>
-      </c>
-      <c r="E8" s="12" t="n">
+        <v>3570</v>
+      </c>
+      <c r="E8" s="11" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(D8/60)</f>
-        <v>57</v>
-      </c>
-      <c r="F8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="J8" s="10" t="s">
+      <c r="G8" s="12"/>
+      <c r="J8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="14" t="n">
+      <c r="K8" s="9"/>
+      <c r="L8" s="13" t="n">
         <f aca="false">SUMIF(R14:R47,"CM",T14:T47)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="14" t="n">
+      <c r="M8" s="13" t="n">
         <f aca="false">SUMIF(R14:R47,"Documentazione",T14:T47)</f>
         <v>1095</v>
       </c>
-      <c r="N8" s="14" t="n">
+      <c r="N8" s="13" t="n">
         <f aca="false">SUMIF(R14:R47,"Ricerche",T14:T47)</f>
         <v>300</v>
       </c>
-      <c r="O8" s="14" t="n">
+      <c r="O8" s="13" t="n">
         <f aca="false">SUMIF(R14:R47,"Codice",T14:T47)</f>
-        <v>1590</v>
-      </c>
-      <c r="P8" s="14" t="n">
+        <v>1710</v>
+      </c>
+      <c r="P8" s="13" t="n">
         <f aca="false">SUMIF(R14:R47,"Database",T14:T47)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="14" t="n">
+      <c r="Q8" s="13" t="n">
         <f aca="false">SUMIF(R14:R47,"Test",T14:T47)</f>
         <v>45</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="S8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="10"/>
-      <c r="U8" s="11" t="n">
+      <c r="T8" s="9"/>
+      <c r="U8" s="10" t="n">
         <f aca="false">SUMIF(Q14:Q48,"Interno",T14:T48)</f>
         <v>0</v>
       </c>
-      <c r="V8" s="11" t="n">
+      <c r="V8" s="10" t="n">
         <f aca="false">SUMIF(Q14:Q48,"GDPR",T14:T48)</f>
-        <v>3450</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16" t="n">
+      <c r="C9" s="14"/>
+      <c r="D9" s="15" t="n">
         <f aca="false">SUM(E14:E37)</f>
         <v>910</v>
       </c>
-      <c r="E9" s="17" t="n">
+      <c r="E9" s="16" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(D9/60)*3</f>
         <v>45</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22" t="n">
+      <c r="K9" s="20"/>
+      <c r="L9" s="21" t="n">
         <f aca="false">SUMIF(H17:H50,"CM",J17:J50)</f>
         <v>120</v>
       </c>
-      <c r="M9" s="22" t="n">
+      <c r="M9" s="21" t="n">
         <f aca="false">SUM(M6:M8)</f>
         <v>3225</v>
       </c>
-      <c r="N9" s="22" t="n">
+      <c r="N9" s="21" t="n">
         <f aca="false">SUM(N6:N8)</f>
         <v>510</v>
       </c>
-      <c r="O9" s="22" t="n">
+      <c r="O9" s="21" t="n">
         <f aca="false">SUM(O6:O8)</f>
-        <v>3430</v>
-      </c>
-      <c r="P9" s="23" t="n">
+        <v>3550</v>
+      </c>
+      <c r="P9" s="21" t="n">
         <f aca="false">SUM(P6:P8)</f>
         <v>290</v>
       </c>
-      <c r="Q9" s="23" t="n">
+      <c r="Q9" s="21" t="n">
         <f aca="false">SUM(Q6:Q8)</f>
         <v>225</v>
       </c>
-      <c r="S9" s="21" t="s">
+      <c r="S9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="21"/>
-      <c r="U9" s="24" t="n">
+      <c r="T9" s="20"/>
+      <c r="U9" s="22" t="n">
         <f aca="false">SUM(U6:U8)</f>
         <v>640</v>
       </c>
-      <c r="V9" s="24" t="n">
+      <c r="V9" s="22" t="n">
         <f aca="false">SUM(V6:V8)</f>
-        <v>8070</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26" t="n">
+      <c r="C10" s="23"/>
+      <c r="D10" s="24" t="n">
         <f aca="false">SUM(D6:D9)</f>
-        <v>9620</v>
-      </c>
-      <c r="E10" s="26" t="n">
+        <v>9740</v>
+      </c>
+      <c r="E10" s="24" t="n">
         <f aca="false">SUM(E6:E9)</f>
-        <v>189</v>
-      </c>
-      <c r="F10" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="G12" s="28" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="G12" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="L12" s="28" t="s">
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="L12" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="Q12" s="28" t="s">
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="Q12" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="30" t="s">
+      <c r="L13" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="30" t="s">
+      <c r="M13" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="30" t="s">
+      <c r="N13" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="30" t="s">
+      <c r="O13" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="30" t="s">
+      <c r="Q13" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="R13" s="30" t="s">
+      <c r="R13" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="S13" s="30" t="s">
+      <c r="S13" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="T13" s="30" t="s">
+      <c r="T13" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="31" t="n">
+      <c r="D14" s="29" t="n">
         <v>43478</v>
       </c>
-      <c r="E14" s="20" t="n">
+      <c r="E14" s="19" t="n">
         <v>90</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="31" t="n">
+      <c r="I14" s="29" t="n">
         <v>43423</v>
       </c>
-      <c r="J14" s="20" t="n">
-        <v>60</v>
-      </c>
-      <c r="L14" s="20" t="s">
+      <c r="J14" s="19" t="n">
+        <v>60</v>
+      </c>
+      <c r="L14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="M14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="31" t="n">
+      <c r="N14" s="29" t="n">
         <v>43423</v>
       </c>
-      <c r="O14" s="20" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="R14" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="33" t="n">
+      <c r="O14" s="19" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="31" t="n">
         <v>43433</v>
       </c>
-      <c r="T14" s="32" t="n">
+      <c r="T14" s="30" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="34" t="s">
+      <c r="B15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="35" t="n">
+      <c r="D15" s="33" t="n">
         <v>43778</v>
       </c>
-      <c r="E15" s="34" t="n">
+      <c r="E15" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="35" t="n">
+      <c r="I15" s="33" t="n">
         <v>43424</v>
       </c>
-      <c r="J15" s="34" t="n">
-        <v>60</v>
-      </c>
-      <c r="L15" s="34" t="s">
+      <c r="J15" s="32" t="n">
+        <v>60</v>
+      </c>
+      <c r="L15" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="34" t="s">
+      <c r="M15" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="35" t="n">
+      <c r="N15" s="33" t="n">
         <v>43431</v>
       </c>
-      <c r="O15" s="34" t="n">
+      <c r="O15" s="32" t="n">
         <v>80</v>
       </c>
-      <c r="Q15" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="R15" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="S15" s="36" t="n">
+      <c r="Q15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="34" t="n">
         <v>43446</v>
       </c>
-      <c r="T15" s="16" t="n">
+      <c r="T15" s="15" t="n">
         <v>360</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="31" t="n">
+      <c r="D16" s="29" t="n">
         <v>43790</v>
       </c>
-      <c r="E16" s="20" t="n">
-        <v>60</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="31" t="n">
+      <c r="E16" s="19" t="n">
+        <v>60</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="29" t="n">
         <v>43426</v>
       </c>
-      <c r="J16" s="20" t="n">
+      <c r="J16" s="19" t="n">
         <v>30</v>
       </c>
-      <c r="L16" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="N16" s="31" t="n">
+      <c r="L16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="29" t="n">
         <v>43433</v>
       </c>
-      <c r="O16" s="20" t="n">
+      <c r="O16" s="19" t="n">
         <v>70</v>
       </c>
-      <c r="Q16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="S16" s="37" t="n">
+      <c r="Q16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="S16" s="35" t="n">
         <v>43481</v>
       </c>
-      <c r="T16" s="11" t="n">
+      <c r="T16" s="10" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="34" t="s">
+      <c r="B17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="35" t="n">
+      <c r="D17" s="33" t="n">
         <v>43792</v>
       </c>
-      <c r="E17" s="34" t="n">
+      <c r="E17" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="G17" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="35" t="n">
+      <c r="G17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="33" t="n">
         <v>43429</v>
       </c>
-      <c r="J17" s="34" t="n">
+      <c r="J17" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="L17" s="34" t="s">
+      <c r="L17" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="34" t="s">
+      <c r="M17" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="35" t="n">
+      <c r="N17" s="33" t="n">
         <v>43434</v>
       </c>
-      <c r="O17" s="34" t="n">
+      <c r="O17" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="Q17" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="R17" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="S17" s="38" t="n">
+      <c r="Q17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="36" t="n">
         <v>43481</v>
       </c>
-      <c r="T17" s="16" t="n">
+      <c r="T17" s="15" t="n">
         <v>120</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="31" t="n">
+      <c r="D18" s="29" t="n">
         <v>43797</v>
       </c>
-      <c r="E18" s="20" t="n">
-        <v>60</v>
-      </c>
-      <c r="G18" s="20" t="s">
+      <c r="E18" s="19" t="n">
+        <v>60</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="31" t="n">
+      <c r="I18" s="29" t="n">
         <v>43434</v>
       </c>
-      <c r="J18" s="20" t="n">
-        <v>60</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31" t="n">
+      <c r="J18" s="19" t="n">
+        <v>60</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="29" t="n">
         <v>43440</v>
       </c>
-      <c r="O18" s="20" t="n">
+      <c r="O18" s="19" t="n">
         <v>50</v>
       </c>
-      <c r="Q18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="S18" s="37" t="n">
+      <c r="Q18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18" s="35" t="n">
         <v>43482</v>
       </c>
-      <c r="T18" s="11" t="n">
+      <c r="T18" s="10" t="n">
         <v>120</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="34" t="s">
+      <c r="B19" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="35" t="n">
+      <c r="D19" s="33" t="n">
         <v>43804</v>
       </c>
-      <c r="E19" s="34" t="n">
+      <c r="E19" s="32" t="n">
         <v>90</v>
       </c>
-      <c r="G19" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="35" t="n">
+      <c r="G19" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="33" t="n">
         <v>43444</v>
       </c>
-      <c r="J19" s="34" t="n">
-        <v>60</v>
-      </c>
-      <c r="L19" s="34" t="s">
+      <c r="J19" s="32" t="n">
+        <v>60</v>
+      </c>
+      <c r="L19" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="34" t="s">
+      <c r="M19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N19" s="35" t="n">
+      <c r="N19" s="33" t="n">
         <v>43447</v>
       </c>
-      <c r="O19" s="34" t="n">
+      <c r="O19" s="32" t="n">
         <v>40</v>
       </c>
-      <c r="Q19" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="R19" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="S19" s="38" t="n">
+      <c r="Q19" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19" s="36" t="n">
         <v>43496</v>
       </c>
-      <c r="T19" s="16" t="n">
+      <c r="T19" s="15" t="n">
         <v>240</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="31" t="n">
+      <c r="D20" s="29" t="n">
         <v>43811</v>
       </c>
-      <c r="E20" s="20" t="n">
+      <c r="E20" s="19" t="n">
         <v>50</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="31" t="n">
+      <c r="G20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="29" t="n">
         <v>43467</v>
       </c>
-      <c r="J20" s="20" t="n">
+      <c r="J20" s="19" t="n">
         <v>30</v>
       </c>
-      <c r="L20" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31" t="n">
+      <c r="L20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="29" t="n">
         <v>43455</v>
       </c>
-      <c r="O20" s="20" t="n">
+      <c r="O20" s="19" t="n">
         <v>30</v>
       </c>
-      <c r="Q20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S20" s="37" t="n">
+      <c r="Q20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20" s="35" t="n">
         <v>43497</v>
       </c>
-      <c r="T20" s="11" t="n">
+      <c r="T20" s="10" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="34" t="s">
+      <c r="B21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="35" t="n">
+      <c r="D21" s="33" t="n">
         <v>43525</v>
       </c>
-      <c r="E21" s="34" t="n">
+      <c r="E21" s="32" t="n">
         <v>90</v>
       </c>
-      <c r="G21" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="35" t="n">
+      <c r="G21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="33" t="n">
         <v>43481</v>
       </c>
-      <c r="J21" s="34" t="n">
+      <c r="J21" s="32" t="n">
         <v>90</v>
       </c>
-      <c r="L21" s="34" t="s">
+      <c r="L21" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M21" s="34" t="s">
+      <c r="M21" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N21" s="35" t="n">
+      <c r="N21" s="33" t="n">
         <v>43471</v>
       </c>
-      <c r="O21" s="34" t="n">
+      <c r="O21" s="32" t="n">
         <v>80</v>
       </c>
-      <c r="Q21" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="R21" s="39" t="s">
+      <c r="Q21" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="R21" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="S21" s="40" t="n">
+      <c r="S21" s="38" t="n">
         <v>43499</v>
       </c>
-      <c r="T21" s="16" t="n">
+      <c r="T21" s="15" t="n">
         <v>120</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="31" t="n">
+      <c r="D22" s="29" t="n">
         <v>43535</v>
       </c>
-      <c r="E22" s="20" t="n">
+      <c r="E22" s="19" t="n">
         <v>90</v>
       </c>
-      <c r="G22" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="31" t="n">
+      <c r="G22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="29" t="n">
         <v>43497</v>
       </c>
-      <c r="J22" s="20" t="n">
+      <c r="J22" s="19" t="n">
         <v>90</v>
       </c>
-      <c r="L22" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="31" t="n">
+      <c r="L22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="29" t="n">
         <v>43481</v>
       </c>
-      <c r="O22" s="20" t="n">
+      <c r="O22" s="19" t="n">
         <v>40</v>
       </c>
-      <c r="Q22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R22" s="11" t="s">
+      <c r="Q22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="S22" s="37" t="n">
+      <c r="S22" s="35" t="n">
         <v>43501</v>
       </c>
-      <c r="T22" s="11" t="n">
+      <c r="T22" s="10" t="n">
         <v>120</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="35" t="n">
+      <c r="D23" s="33" t="n">
         <v>43542</v>
       </c>
-      <c r="E23" s="34" t="n">
+      <c r="E23" s="32" t="n">
         <v>90</v>
       </c>
-      <c r="G23" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="35" t="n">
+      <c r="G23" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="33" t="n">
         <v>43511</v>
       </c>
-      <c r="J23" s="34" t="n">
-        <v>60</v>
-      </c>
-      <c r="L23" s="34" t="s">
+      <c r="J23" s="32" t="n">
+        <v>60</v>
+      </c>
+      <c r="L23" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M23" s="34" t="s">
+      <c r="M23" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N23" s="35" t="n">
+      <c r="N23" s="33" t="n">
         <v>43482</v>
       </c>
-      <c r="O23" s="34" t="n">
+      <c r="O23" s="32" t="n">
         <v>40</v>
       </c>
-      <c r="Q23" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="R23" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="S23" s="42" t="n">
+      <c r="Q23" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="R23" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="S23" s="40" t="n">
         <v>43509</v>
       </c>
-      <c r="T23" s="41" t="n">
+      <c r="T23" s="39" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="43" t="s">
+      <c r="B24" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="44" t="n">
+      <c r="D24" s="42" t="n">
         <v>43558</v>
       </c>
-      <c r="E24" s="43" t="n">
+      <c r="E24" s="41" t="n">
         <v>70</v>
       </c>
-      <c r="G24" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="31" t="n">
+      <c r="G24" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="29" t="n">
         <v>43526</v>
       </c>
-      <c r="J24" s="20" t="n">
+      <c r="J24" s="19" t="n">
         <v>20</v>
       </c>
-      <c r="L24" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="N24" s="31" t="n">
+      <c r="L24" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="29" t="n">
         <v>43482</v>
       </c>
-      <c r="O24" s="20" t="n">
+      <c r="O24" s="19" t="n">
         <v>90</v>
       </c>
-      <c r="Q24" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R24" s="11" t="s">
+      <c r="Q24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R24" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="S24" s="37" t="n">
+      <c r="S24" s="35" t="n">
         <v>43516</v>
       </c>
-      <c r="T24" s="11" t="n">
+      <c r="T24" s="10" t="n">
         <v>120</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="45" t="s">
+      <c r="B25" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="38" t="n">
+      <c r="D25" s="36" t="n">
         <v>43593</v>
       </c>
-      <c r="E25" s="45" t="n">
-        <v>60</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="35" t="n">
+      <c r="E25" s="32" t="n">
+        <v>60</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="33" t="n">
         <v>43549</v>
       </c>
-      <c r="J25" s="34" t="n">
+      <c r="J25" s="32" t="n">
         <v>90</v>
       </c>
-      <c r="L25" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="34" t="s">
+      <c r="L25" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="N25" s="35" t="n">
+      <c r="N25" s="33" t="n">
         <v>43482</v>
       </c>
-      <c r="O25" s="34" t="n">
+      <c r="O25" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="Q25" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="R25" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="S25" s="42" t="n">
+      <c r="Q25" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="R25" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="S25" s="40" t="n">
         <v>43525</v>
       </c>
-      <c r="T25" s="41" t="n">
+      <c r="T25" s="39" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="46" t="s">
+      <c r="B26" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="47" t="n">
+      <c r="D26" s="44" t="n">
         <v>43635</v>
       </c>
-      <c r="E26" s="46" t="n">
+      <c r="E26" s="43" t="n">
         <v>100</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="31" t="n">
+      <c r="I26" s="29" t="n">
         <v>43550</v>
       </c>
-      <c r="J26" s="20" t="n">
+      <c r="J26" s="19" t="n">
         <v>30</v>
       </c>
-      <c r="L26" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="N26" s="31" t="n">
+      <c r="L26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="29" t="n">
         <v>43483</v>
       </c>
-      <c r="O26" s="20" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q26" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="R26" s="48" t="s">
+      <c r="O26" s="19" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q26" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="R26" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="S26" s="49" t="n">
+      <c r="S26" s="46" t="n">
         <v>43527</v>
       </c>
-      <c r="T26" s="48" t="n">
+      <c r="T26" s="45" t="n">
         <v>120</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G27" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="34" t="s">
+      <c r="G27" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="35" t="n">
+      <c r="I27" s="33" t="n">
         <v>43552</v>
       </c>
-      <c r="J27" s="34" t="n">
+      <c r="J27" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="L27" s="34" t="s">
+      <c r="L27" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="34" t="s">
+      <c r="M27" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N27" s="35" t="n">
+      <c r="N27" s="33" t="n">
         <v>43484</v>
       </c>
-      <c r="O27" s="34" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="R27" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="S27" s="42" t="n">
+      <c r="O27" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="R27" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="S27" s="40" t="n">
         <v>43534</v>
       </c>
-      <c r="T27" s="41" t="n">
+      <c r="T27" s="39" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G28" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" s="31" t="n">
+      <c r="G28" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="29" t="n">
         <v>43552</v>
       </c>
-      <c r="J28" s="20" t="n">
+      <c r="J28" s="19" t="n">
         <v>30</v>
       </c>
-      <c r="L28" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N28" s="31" t="n">
+      <c r="L28" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="29" t="n">
         <v>43492</v>
       </c>
-      <c r="O28" s="20" t="n">
+      <c r="O28" s="19" t="n">
         <v>120</v>
       </c>
-      <c r="Q28" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="S28" s="37" t="n">
+      <c r="Q28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="S28" s="35" t="n">
         <v>43553</v>
       </c>
-      <c r="T28" s="11" t="n">
+      <c r="T28" s="10" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G29" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="35" t="n">
+      <c r="G29" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="33" t="n">
         <v>43554</v>
       </c>
-      <c r="J29" s="34" t="n">
-        <v>60</v>
-      </c>
-      <c r="L29" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="N29" s="35" t="n">
+      <c r="J29" s="32" t="n">
+        <v>60</v>
+      </c>
+      <c r="L29" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="33" t="n">
         <v>43493</v>
       </c>
-      <c r="O29" s="34" t="n">
+      <c r="O29" s="32" t="n">
         <v>120</v>
       </c>
-      <c r="Q29" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="R29" s="41" t="s">
+      <c r="Q29" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="R29" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="S29" s="42" t="n">
+      <c r="S29" s="40" t="n">
         <v>43558</v>
       </c>
-      <c r="T29" s="41" t="n">
+      <c r="T29" s="39" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G30" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="31" t="n">
+      <c r="G30" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="29" t="n">
         <v>43559</v>
       </c>
-      <c r="J30" s="20" t="n">
+      <c r="J30" s="19" t="n">
         <v>120</v>
       </c>
-      <c r="L30" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N30" s="31" t="n">
+      <c r="L30" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N30" s="29" t="n">
         <v>43495</v>
       </c>
-      <c r="O30" s="20" t="n">
+      <c r="O30" s="19" t="n">
         <v>120</v>
       </c>
-      <c r="Q30" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R30" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S30" s="37" t="n">
+      <c r="Q30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S30" s="35" t="n">
         <v>43558</v>
       </c>
-      <c r="T30" s="11" t="n">
+      <c r="T30" s="10" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G31" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="I31" s="47" t="n">
+      <c r="G31" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="44" t="n">
         <v>43567</v>
       </c>
-      <c r="J31" s="39" t="n">
-        <v>60</v>
-      </c>
-      <c r="L31" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="34" t="s">
+      <c r="J31" s="37" t="n">
+        <v>60</v>
+      </c>
+      <c r="L31" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="N31" s="35" t="n">
+      <c r="N31" s="33" t="n">
         <v>43496</v>
       </c>
-      <c r="O31" s="34" t="n">
+      <c r="O31" s="32" t="n">
         <v>120</v>
       </c>
-      <c r="Q31" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="R31" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="S31" s="42" t="n">
+      <c r="Q31" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="R31" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="S31" s="40" t="n">
         <v>43559</v>
       </c>
-      <c r="T31" s="41" t="n">
+      <c r="T31" s="39" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G32" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="38" t="n">
+      <c r="G32" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="36" t="n">
         <v>43571</v>
       </c>
-      <c r="J32" s="20" t="n">
+      <c r="J32" s="19" t="n">
         <v>40</v>
       </c>
-      <c r="L32" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N32" s="31" t="n">
+      <c r="L32" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N32" s="29" t="n">
         <v>43497</v>
       </c>
-      <c r="O32" s="20" t="n">
+      <c r="O32" s="19" t="n">
         <v>130</v>
       </c>
-      <c r="Q32" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R32" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S32" s="37" t="n">
+      <c r="Q32" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S32" s="35" t="n">
         <v>43559</v>
       </c>
-      <c r="T32" s="11" t="n">
+      <c r="T32" s="10" t="n">
         <v>120</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G33" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="51" t="n">
+      <c r="G33" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="48" t="n">
         <v>43578</v>
       </c>
-      <c r="J33" s="50" t="n">
-        <v>60</v>
-      </c>
-      <c r="L33" s="34" t="s">
+      <c r="J33" s="47" t="n">
+        <v>60</v>
+      </c>
+      <c r="L33" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M33" s="34" t="s">
+      <c r="M33" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N33" s="35" t="n">
+      <c r="N33" s="33" t="n">
         <v>43498</v>
       </c>
-      <c r="O33" s="34" t="n">
+      <c r="O33" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="Q33" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="R33" s="41" t="s">
+      <c r="Q33" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="R33" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="S33" s="52" t="n">
+      <c r="S33" s="36" t="n">
         <v>43560</v>
       </c>
-      <c r="T33" s="41" t="n">
+      <c r="T33" s="39" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G34" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="44" t="n">
+      <c r="G34" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="42" t="n">
         <v>43581</v>
       </c>
-      <c r="J34" s="43" t="n">
-        <v>60</v>
-      </c>
-      <c r="L34" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M34" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="N34" s="31" t="n">
+      <c r="J34" s="41" t="n">
+        <v>60</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="29" t="n">
         <v>43509</v>
       </c>
-      <c r="O34" s="20" t="n">
+      <c r="O34" s="19" t="n">
         <v>100</v>
       </c>
-      <c r="Q34" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R34" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="S34" s="37" t="n">
+      <c r="Q34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R34" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="S34" s="35" t="n">
         <v>43567</v>
       </c>
-      <c r="T34" s="11" t="n">
+      <c r="T34" s="10" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G35" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="42" t="n">
+      <c r="G35" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="40" t="n">
         <v>43582</v>
       </c>
-      <c r="J35" s="41" t="n">
+      <c r="J35" s="39" t="n">
         <v>120</v>
       </c>
-      <c r="L35" s="34" t="s">
+      <c r="L35" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M35" s="34" t="s">
+      <c r="M35" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N35" s="35" t="n">
+      <c r="N35" s="33" t="n">
         <v>43517</v>
       </c>
-      <c r="O35" s="34" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q35" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="R35" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="S35" s="53" t="n">
+      <c r="O35" s="32" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="R35" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="S35" s="49" t="n">
         <v>43569</v>
       </c>
-      <c r="T35" s="41" t="n">
+      <c r="T35" s="39" t="n">
         <v>240</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="37" t="n">
+      <c r="I36" s="35" t="n">
         <v>43582</v>
       </c>
-      <c r="J36" s="11" t="n">
+      <c r="J36" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="L36" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N36" s="31" t="n">
+      <c r="L36" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="29" t="n">
         <v>43520</v>
       </c>
-      <c r="O36" s="20" t="n">
+      <c r="O36" s="19" t="n">
         <v>20</v>
       </c>
-      <c r="Q36" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S36" s="37" t="n">
+      <c r="Q36" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S36" s="35" t="n">
         <v>43585</v>
       </c>
-      <c r="T36" s="11" t="n">
+      <c r="T36" s="10" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G37" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="16" t="s">
+      <c r="G37" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="38" t="n">
+      <c r="I37" s="36" t="n">
         <v>43583</v>
       </c>
-      <c r="J37" s="16" t="n">
+      <c r="J37" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="L37" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="M37" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="N37" s="35" t="n">
+      <c r="L37" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N37" s="33" t="n">
         <v>43521</v>
       </c>
-      <c r="O37" s="34" t="n">
+      <c r="O37" s="32" t="n">
         <v>40</v>
       </c>
-      <c r="Q37" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="R37" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="S37" s="38" t="n">
+      <c r="Q37" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="R37" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="S37" s="36" t="n">
         <v>43585</v>
       </c>
-      <c r="T37" s="41" t="n">
+      <c r="T37" s="39" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G38" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38" s="37" t="n">
+      <c r="G38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="35" t="n">
         <v>43583</v>
       </c>
-      <c r="J38" s="11" t="n">
+      <c r="J38" s="10" t="n">
         <v>70</v>
       </c>
-      <c r="L38" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M38" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="N38" s="31" t="n">
+      <c r="L38" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38" s="29" t="n">
         <v>43523</v>
       </c>
-      <c r="O38" s="20" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R38" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S38" s="54" t="n">
+      <c r="O38" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S38" s="50" t="n">
         <v>43587</v>
       </c>
-      <c r="T38" s="11" t="n">
+      <c r="T38" s="10" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G39" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="16" t="s">
+      <c r="G39" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="38" t="n">
+      <c r="I39" s="36" t="n">
         <v>43584</v>
       </c>
-      <c r="J39" s="16" t="n">
+      <c r="J39" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="L39" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="M39" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="N39" s="35" t="n">
+      <c r="L39" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N39" s="33" t="n">
         <v>43523</v>
       </c>
-      <c r="O39" s="34" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q39" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="R39" s="41" t="s">
+      <c r="O39" s="32" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q39" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="R39" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="S39" s="55" t="n">
+      <c r="S39" s="51" t="n">
         <v>43587</v>
       </c>
-      <c r="T39" s="41" t="n">
+      <c r="T39" s="39" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G40" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" s="37" t="n">
+      <c r="G40" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="35" t="n">
         <v>43584</v>
       </c>
-      <c r="J40" s="11" t="n">
-        <v>60</v>
-      </c>
-      <c r="L40" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M40" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N40" s="31" t="n">
+      <c r="J40" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="L40" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M40" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N40" s="29" t="n">
         <v>43525</v>
       </c>
-      <c r="O40" s="20" t="n">
+      <c r="O40" s="19" t="n">
         <v>30</v>
       </c>
-      <c r="Q40" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R40" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S40" s="37" t="n">
+      <c r="Q40" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R40" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="S40" s="35" t="n">
         <v>43593</v>
       </c>
-      <c r="T40" s="11" t="n">
+      <c r="T40" s="10" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G41" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="45" t="s">
+      <c r="G41" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="38" t="n">
+      <c r="I41" s="36" t="n">
         <v>43592</v>
       </c>
-      <c r="J41" s="45" t="n">
-        <v>60</v>
-      </c>
-      <c r="L41" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="M41" s="34" t="s">
+      <c r="J41" s="32" t="n">
+        <v>60</v>
+      </c>
+      <c r="L41" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M41" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="N41" s="35" t="n">
+      <c r="N41" s="33" t="n">
         <v>43530</v>
       </c>
-      <c r="O41" s="34" t="n">
+      <c r="O41" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="Q41" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="R41" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="38" t="n">
+      <c r="Q41" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="R41" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="36" t="n">
         <v>43599</v>
       </c>
-      <c r="T41" s="41" t="n">
+      <c r="T41" s="39" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G42" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="37" t="n">
+      <c r="G42" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="35" t="n">
         <v>43593</v>
       </c>
-      <c r="J42" s="11" t="n">
-        <v>60</v>
-      </c>
-      <c r="L42" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M42" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N42" s="31" t="n">
+      <c r="J42" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="L42" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N42" s="29" t="n">
         <v>43538</v>
       </c>
-      <c r="O42" s="20" t="n">
+      <c r="O42" s="19" t="n">
         <v>90</v>
       </c>
-      <c r="Q42" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R42" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="S42" s="37" t="n">
+      <c r="Q42" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="35" t="n">
         <v>43608</v>
       </c>
-      <c r="T42" s="11" t="n">
+      <c r="T42" s="10" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L43" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="M43" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" s="35" t="n">
+      <c r="L43" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M43" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="33" t="n">
         <v>43539</v>
       </c>
-      <c r="O43" s="34" t="n">
+      <c r="O43" s="32" t="n">
         <v>50</v>
       </c>
-      <c r="Q43" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="R43" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="S43" s="38" t="n">
+      <c r="Q43" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="R43" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="S43" s="36" t="n">
         <v>43609</v>
       </c>
-      <c r="T43" s="41" t="n">
+      <c r="T43" s="39" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L44" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M44" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N44" s="31" t="n">
+      <c r="L44" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M44" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44" s="29" t="n">
         <v>43544</v>
       </c>
-      <c r="O44" s="20" t="n">
+      <c r="O44" s="19" t="n">
         <v>120</v>
       </c>
-      <c r="Q44" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="R44" s="48" t="s">
+      <c r="Q44" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="R44" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="S44" s="47" t="n">
+      <c r="S44" s="44" t="n">
         <v>43636</v>
       </c>
-      <c r="T44" s="48" t="n">
+      <c r="T44" s="45" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L45" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="M45" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="N45" s="35" t="n">
+      <c r="L45" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M45" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="33" t="n">
         <v>43543</v>
       </c>
-      <c r="O45" s="34" t="n">
+      <c r="O45" s="32" t="n">
         <v>60</v>
       </c>
       <c r="Q45" s="0" t="s">
@@ -2407,248 +2394,260 @@
       <c r="R45" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="S45" s="47" t="n">
+      <c r="S45" s="44" t="n">
         <v>43637</v>
       </c>
       <c r="T45" s="0" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L46" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M46" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="N46" s="31" t="n">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L46" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M46" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="29" t="n">
         <v>43546</v>
       </c>
-      <c r="O46" s="20" t="n">
+      <c r="O46" s="19" t="n">
         <v>70</v>
       </c>
+      <c r="Q46" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="R46" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="S46" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L47" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="M47" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="35" t="n">
+      <c r="L47" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M47" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="33" t="n">
         <v>43552</v>
       </c>
-      <c r="O47" s="34" t="n">
+      <c r="O47" s="32" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L48" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M48" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N48" s="31" t="n">
+      <c r="L48" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M48" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N48" s="29" t="n">
         <v>43553</v>
       </c>
-      <c r="O48" s="20" t="n">
+      <c r="O48" s="19" t="n">
         <v>190</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L49" s="34" t="s">
+      <c r="L49" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M49" s="34" t="s">
+      <c r="M49" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N49" s="35" t="n">
+      <c r="N49" s="33" t="n">
         <v>43558</v>
       </c>
-      <c r="O49" s="34" t="n">
+      <c r="O49" s="32" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L50" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M50" s="20" t="s">
+      <c r="L50" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M50" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="N50" s="31" t="n">
+      <c r="N50" s="29" t="n">
         <v>43558</v>
       </c>
-      <c r="O50" s="20" t="n">
+      <c r="O50" s="19" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L51" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="M51" s="34" t="s">
+      <c r="L51" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M51" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="N51" s="35" t="n">
+      <c r="N51" s="33" t="n">
         <v>43558</v>
       </c>
-      <c r="O51" s="34" t="n">
+      <c r="O51" s="32" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L52" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M52" s="20" t="s">
+      <c r="L52" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M52" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="N52" s="31" t="n">
+      <c r="N52" s="29" t="n">
         <v>43558</v>
       </c>
-      <c r="O52" s="20" t="n">
+      <c r="O52" s="19" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L53" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="M53" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="N53" s="35" t="n">
+      <c r="L53" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M53" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N53" s="33" t="n">
         <v>43559</v>
       </c>
-      <c r="O53" s="34" t="n">
+      <c r="O53" s="32" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L54" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M54" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="N54" s="31" t="n">
+      <c r="L54" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M54" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="29" t="n">
         <v>43565</v>
       </c>
-      <c r="O54" s="20" t="n">
+      <c r="O54" s="19" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L55" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="M55" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="N55" s="47" t="n">
+      <c r="L55" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="M55" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="N55" s="44" t="n">
         <v>43577</v>
       </c>
-      <c r="O55" s="39" t="n">
+      <c r="O55" s="37" t="n">
         <v>120</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L56" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M56" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N56" s="37" t="n">
+      <c r="L56" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M56" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N56" s="35" t="n">
         <v>43577</v>
       </c>
-      <c r="O56" s="20" t="n">
+      <c r="O56" s="19" t="n">
         <v>120</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L57" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="M57" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="N57" s="38" t="n">
+      <c r="L57" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M57" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N57" s="36" t="n">
         <v>43593</v>
       </c>
-      <c r="O57" s="45" t="n">
+      <c r="O57" s="32" t="n">
         <v>140</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L58" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M58" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N58" s="37" t="n">
+      <c r="L58" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M58" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N58" s="35" t="n">
         <v>43598</v>
       </c>
-      <c r="O58" s="20" t="n">
+      <c r="O58" s="19" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L59" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="M59" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="N59" s="38" t="n">
+      <c r="L59" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M59" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="36" t="n">
         <v>43608</v>
       </c>
-      <c r="O59" s="45" t="n">
+      <c r="O59" s="32" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L60" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="M60" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="N60" s="47" t="n">
+      <c r="L60" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="M60" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="N60" s="44" t="n">
         <v>43621</v>
       </c>
-      <c r="O60" s="46" t="n">
+      <c r="O60" s="43" t="n">
         <v>120</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L61" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="M61" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="N61" s="47" t="n">
+      <c r="L61" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="M61" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="N61" s="44" t="n">
         <v>43622</v>
       </c>
-      <c r="O61" s="56" t="n">
+      <c r="O61" s="52" t="n">
         <v>180</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L62" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="M62" s="46" t="s">
+      <c r="L62" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="M62" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="N62" s="47" t="n">
+      <c r="N62" s="44" t="n">
         <v>43636</v>
       </c>
-      <c r="O62" s="46" t="n">
+      <c r="O62" s="43" t="n">
         <v>150</v>
       </c>
     </row>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="36">
   <si>
     <t xml:space="preserve">Registrazione Tempi di Lavoro</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t xml:space="preserve">27/06/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28/06/2019</t>
   </si>
 </sst>
 </file>
@@ -613,8 +616,8 @@
   </sheetPr>
   <dimension ref="B1:Z62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T46" activeCellId="0" sqref="T46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W21" activeCellId="0" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -858,12 +861,12 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="19" t="n">
-        <f aca="false">SUM(T14:T51)</f>
-        <v>3570</v>
+        <f aca="false">SUM(T14:T59)</f>
+        <v>3760</v>
       </c>
       <c r="E8" s="11" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(D8/60)</f>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>16</v>
@@ -874,27 +877,27 @@
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="13" t="n">
-        <f aca="false">SUMIF(R14:R47,"CM",T14:T47)</f>
+        <f aca="false">SUMIF(R14:R50,"CM",T14:T47)</f>
         <v>0</v>
       </c>
       <c r="M8" s="13" t="n">
-        <f aca="false">SUMIF(R14:R47,"Documentazione",T14:T47)</f>
+        <f aca="false">SUMIF(R14:R64,"Documentazione",T14:T64)</f>
         <v>1095</v>
       </c>
       <c r="N8" s="13" t="n">
-        <f aca="false">SUMIF(R14:R47,"Ricerche",T14:T47)</f>
-        <v>300</v>
+        <f aca="false">SUMIF(R14:R58,"Ricerche",T14:T58)</f>
+        <v>340</v>
       </c>
       <c r="O8" s="13" t="n">
-        <f aca="false">SUMIF(R14:R47,"Codice",T14:T47)</f>
-        <v>1710</v>
+        <f aca="false">SUMIF(R14:R60,"Codice",T14:T60)</f>
+        <v>1860</v>
       </c>
       <c r="P8" s="13" t="n">
-        <f aca="false">SUMIF(R14:R47,"Database",T14:T47)</f>
+        <f aca="false">SUMIF(R14:R58,"Database",T14:T58)</f>
         <v>0</v>
       </c>
       <c r="Q8" s="13" t="n">
-        <f aca="false">SUMIF(R14:R47,"Test",T14:T47)</f>
+        <f aca="false">SUMIF(R14:R57,"Test",T14:T57)</f>
         <v>45</v>
       </c>
       <c r="S8" s="9" t="s">
@@ -902,12 +905,12 @@
       </c>
       <c r="T8" s="9"/>
       <c r="U8" s="10" t="n">
-        <f aca="false">SUMIF(Q14:Q48,"Interno",T14:T48)</f>
+        <f aca="false">SUMIF(Q14:Q62,"Interno",T14:T62)</f>
         <v>0</v>
       </c>
       <c r="V8" s="10" t="n">
-        <f aca="false">SUMIF(Q14:Q48,"GDPR",T14:T48)</f>
-        <v>3570</v>
+        <f aca="false">SUMIF(Q14:Q62,"GDPR",T14:T62)</f>
+        <v>3760</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,11 +947,11 @@
       </c>
       <c r="N9" s="21" t="n">
         <f aca="false">SUM(N6:N8)</f>
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="O9" s="21" t="n">
         <f aca="false">SUM(O6:O8)</f>
-        <v>3550</v>
+        <v>3700</v>
       </c>
       <c r="P9" s="21" t="n">
         <f aca="false">SUM(P6:P8)</f>
@@ -968,7 +971,7 @@
       </c>
       <c r="V9" s="22" t="n">
         <f aca="false">SUM(V6:V8)</f>
-        <v>8190</v>
+        <v>8380</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -978,11 +981,11 @@
       <c r="C10" s="23"/>
       <c r="D10" s="24" t="n">
         <f aca="false">SUM(D6:D9)</f>
-        <v>9740</v>
+        <v>9930</v>
       </c>
       <c r="E10" s="24" t="n">
         <f aca="false">SUM(E6:E9)</f>
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>16</v>
@@ -2427,7 +2430,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L47" s="32" t="s">
         <v>14</v>
       </c>
@@ -2440,8 +2443,20 @@
       <c r="O47" s="32" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q47" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="R47" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S47" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L48" s="19" t="s">
         <v>14</v>
       </c>
@@ -2454,8 +2469,20 @@
       <c r="O48" s="19" t="n">
         <v>190</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q48" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="R48" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="S48" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L49" s="32" t="s">
         <v>13</v>
       </c>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1EC290-79A2-4603-AC53-03F7F4AA6BB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44479589-25FE-47CC-9A59-3F989F947D87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="36">
   <si>
     <t>Registrazione Tempi di Lavoro</t>
   </si>
@@ -360,42 +360,6 @@
   </cellStyleXfs>
   <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,6 +417,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -835,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Z63"/>
+  <dimension ref="B2:Z64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O65" sqref="O65"/>
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,1747 +868,1747 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="2:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="14"/>
-      <c r="J4" s="11" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="2"/>
+      <c r="J4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="S4" s="11" t="s">
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="S4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="2:26" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="J5" s="9" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="J5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="16" t="s">
+      <c r="K5" s="55"/>
+      <c r="L5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="16" t="s">
+      <c r="M5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="16" t="s">
+      <c r="O5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="17"/>
-      <c r="S5" s="9" t="s">
+      <c r="R5" s="5"/>
+      <c r="S5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="16" t="s">
+      <c r="T5" s="55"/>
+      <c r="U5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="16" t="s">
+      <c r="V5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="18">
+      <c r="C6" s="47"/>
+      <c r="D6" s="6">
         <f>SUM(J14:J47)</f>
         <v>1660</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="7">
         <f>_xlfn.FLOOR.MATH(D6/60)</f>
         <v>27</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="J6" s="8" t="s">
+      <c r="G6" s="48"/>
+      <c r="J6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="20">
+      <c r="K6" s="47"/>
+      <c r="L6" s="8">
         <f>SUMIF(H14:H47,"CM",J14:J47)</f>
         <v>120</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="8">
         <f>SUMIF(H14:H47,"Documentazione",J14:J47)</f>
         <v>1090</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="8">
         <f>SUMIF(H14:H47,"Ricerche",J14:J47)</f>
         <v>120</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="8">
         <f>SUMIF(H14:H47,"Codice",J14:J47)</f>
         <v>150</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6" s="8">
         <f>SUMIF(H14:H47,_xlnm.Database,J14:J47)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="8">
         <f>SUMIF(H14:H47,"Test",J14:J47)</f>
         <v>180</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="8"/>
-      <c r="U6" s="18">
+      <c r="T6" s="47"/>
+      <c r="U6" s="6">
         <f>SUMIF(G14:G48,"Interno",J14:J48)</f>
         <v>240</v>
       </c>
-      <c r="V6" s="18">
+      <c r="V6" s="6">
         <f>SUMIF(G14:G48,"GDPR",J14:J48)</f>
         <v>1420</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="21">
+      <c r="C7" s="49"/>
+      <c r="D7" s="9">
         <f>SUM(O14:O117)</f>
-        <v>3720</v>
-      </c>
-      <c r="E7" s="22">
+        <v>3800</v>
+      </c>
+      <c r="E7" s="10">
         <f>_xlfn.FLOOR.MATH(D7/60)</f>
-        <v>62</v>
-      </c>
-      <c r="F7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="J7" s="6" t="s">
+      <c r="G7" s="50"/>
+      <c r="J7" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="23">
+      <c r="K7" s="49"/>
+      <c r="L7" s="11">
         <f>SUMIF(M14:M65,"CM",O14:O65)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="11">
         <f>SUMIF(M14:M65,"Documentazione",O14:O65)</f>
         <v>1040</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="11">
         <f>SUMIF(M14:M65,"Ricerche",O14:O65)</f>
         <v>90</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="11">
         <f>SUMIF(M14:M65,"Codice",O14:O65)</f>
-        <v>1810</v>
-      </c>
-      <c r="P7" s="23">
+        <v>1890</v>
+      </c>
+      <c r="P7" s="11">
         <f>SUMIF(M14:M65,"Database",O14:O65)</f>
         <v>290</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="11">
         <f>SUMIF(M14:M65,"Test",O14:O65)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="21">
+      <c r="T7" s="49"/>
+      <c r="U7" s="9">
         <f>SUMIF(L14:L68,"Interno",O14:O68)</f>
         <v>400</v>
       </c>
-      <c r="V7" s="21">
+      <c r="V7" s="9">
         <f>SUMIF(L14:L65,"GDPR",O14:O65)</f>
-        <v>3320</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="24">
+      <c r="C8" s="47"/>
+      <c r="D8" s="12">
         <f>SUM(T14:T59)</f>
         <v>3760</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="7">
         <f>_xlfn.FLOOR.MATH(D8/60)</f>
         <v>62</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="J8" s="8" t="s">
+      <c r="G8" s="48"/>
+      <c r="J8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="20">
+      <c r="K8" s="47"/>
+      <c r="L8" s="8">
         <f ca="1">SUMIF(R14:R50,"CM",T14:T47)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="8">
         <f>SUMIF(R14:R64,"Documentazione",T14:T64)</f>
         <v>1095</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="8">
         <f>SUMIF(R14:R58,"Ricerche",T14:T58)</f>
         <v>340</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="8">
         <f>SUMIF(R14:R60,"Codice",T14:T60)</f>
         <v>1860</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="8">
         <f>SUMIF(R14:R58,"Database",T14:T58)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="8">
         <f>SUMIF(R14:R57,"Test",T14:T57)</f>
         <v>45</v>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="S8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="8"/>
-      <c r="U8" s="18">
+      <c r="T8" s="47"/>
+      <c r="U8" s="6">
         <f>SUMIF(Q14:Q62,"Interno",T14:T62)</f>
         <v>0</v>
       </c>
-      <c r="V8" s="18">
+      <c r="V8" s="6">
         <f>SUMIF(Q14:Q62,"GDPR",T14:T62)</f>
         <v>3760</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="21">
+      <c r="C9" s="49"/>
+      <c r="D9" s="9">
         <f>SUM(E14:E37)</f>
         <v>910</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="10">
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
         <v>45</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="50"/>
       <c r="H9" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="25">
+      <c r="K9" s="51"/>
+      <c r="L9" s="13">
         <f>SUMIF(H17:H50,"CM",J17:J50)</f>
         <v>120</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="13">
         <f>SUM(M6:M8)</f>
         <v>3225</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="13">
         <f>SUM(N6:N8)</f>
         <v>550</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9" s="13">
         <f>SUM(O6:O8)</f>
-        <v>3820</v>
-      </c>
-      <c r="P9" s="25">
+        <v>3900</v>
+      </c>
+      <c r="P9" s="13">
         <f>SUM(P6:P8)</f>
         <v>290</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="Q9" s="13">
         <f>SUM(Q6:Q8)</f>
         <v>225</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="4"/>
-      <c r="U9" s="26">
+      <c r="T9" s="51"/>
+      <c r="U9" s="14">
         <f>SUM(U6:U8)</f>
         <v>640</v>
       </c>
-      <c r="V9" s="26">
+      <c r="V9" s="14">
         <f>SUM(V6:V8)</f>
-        <v>8500</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="27">
+      <c r="C10" s="45"/>
+      <c r="D10" s="15">
         <f>SUM(D6:D9)</f>
-        <v>10050</v>
-      </c>
-      <c r="E10" s="27">
+        <v>10130</v>
+      </c>
+      <c r="E10" s="15">
         <f>SUM(E6:E9)</f>
-        <v>196</v>
-      </c>
-      <c r="F10" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="G12" s="1" t="s">
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="G12" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="L12" s="1" t="s">
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="L12" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="Q12" s="1" t="s">
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="Q12" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="29" t="s">
+      <c r="M13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="29" t="s">
+      <c r="N13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="29" t="s">
+      <c r="O13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="29" t="s">
+      <c r="Q13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="R13" s="29" t="s">
+      <c r="R13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="S13" s="29" t="s">
+      <c r="S13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="T13" s="29" t="s">
+      <c r="T13" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="24" t="s">
+      <c r="B14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="18">
         <v>43478</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="12">
         <v>90</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="18">
         <v>43423</v>
       </c>
-      <c r="J14" s="24">
-        <v>60</v>
-      </c>
-      <c r="L14" s="24" t="s">
+      <c r="J14" s="12">
+        <v>60</v>
+      </c>
+      <c r="L14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="18">
         <v>43423</v>
       </c>
-      <c r="O14" s="24">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="R14" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="32">
+      <c r="O14" s="12">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="20">
         <v>43433</v>
       </c>
-      <c r="T14" s="31">
+      <c r="T14" s="19">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="33" t="s">
+      <c r="B15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="22">
         <v>43778</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="21">
         <v>30</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="22">
         <v>43424</v>
       </c>
-      <c r="J15" s="33">
-        <v>60</v>
-      </c>
-      <c r="L15" s="33" t="s">
+      <c r="J15" s="21">
+        <v>60</v>
+      </c>
+      <c r="L15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="33" t="s">
+      <c r="M15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N15" s="22">
         <v>43431</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O15" s="21">
         <v>80</v>
       </c>
-      <c r="Q15" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="R15" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="S15" s="35">
+      <c r="Q15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="23">
         <v>43446</v>
       </c>
-      <c r="T15" s="21">
+      <c r="T15" s="9">
         <v>360</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="24" t="s">
+      <c r="B16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="18">
         <v>43790</v>
       </c>
-      <c r="E16" s="24">
-        <v>60</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="30">
+      <c r="E16" s="12">
+        <v>60</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="18">
         <v>43426</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="12">
         <v>30</v>
       </c>
-      <c r="L16" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N16" s="30">
+      <c r="L16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="18">
         <v>43433</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="12">
         <v>70</v>
       </c>
-      <c r="Q16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R16" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="S16" s="36">
+      <c r="Q16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S16" s="24">
         <v>43481</v>
       </c>
-      <c r="T16" s="18">
+      <c r="T16" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="33" t="s">
+      <c r="B17" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="22">
         <v>43792</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="21">
         <v>30</v>
       </c>
-      <c r="G17" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="34">
+      <c r="G17" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="22">
         <v>43429</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="21">
         <v>30</v>
       </c>
-      <c r="L17" s="33" t="s">
+      <c r="L17" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="33" t="s">
+      <c r="M17" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="34">
+      <c r="N17" s="22">
         <v>43434</v>
       </c>
-      <c r="O17" s="33">
+      <c r="O17" s="21">
         <v>30</v>
       </c>
-      <c r="Q17" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="R17" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="S17" s="37">
+      <c r="Q17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="25">
         <v>43481</v>
       </c>
-      <c r="T17" s="21">
+      <c r="T17" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="24" t="s">
+      <c r="B18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="18">
         <v>43797</v>
       </c>
-      <c r="E18" s="24">
-        <v>60</v>
-      </c>
-      <c r="G18" s="24" t="s">
+      <c r="E18" s="12">
+        <v>60</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="18">
         <v>43434</v>
       </c>
-      <c r="J18" s="24">
-        <v>60</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="30">
+      <c r="J18" s="12">
+        <v>60</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="18">
         <v>43440</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O18" s="12">
         <v>50</v>
       </c>
-      <c r="Q18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R18" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="S18" s="36">
+      <c r="Q18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18" s="24">
         <v>43482</v>
       </c>
-      <c r="T18" s="18">
+      <c r="T18" s="6">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="33" t="s">
+      <c r="B19" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="22">
         <v>43804</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="21">
         <v>90</v>
       </c>
-      <c r="G19" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="34">
+      <c r="G19" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="22">
         <v>43444</v>
       </c>
-      <c r="J19" s="33">
-        <v>60</v>
-      </c>
-      <c r="L19" s="33" t="s">
+      <c r="J19" s="21">
+        <v>60</v>
+      </c>
+      <c r="L19" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="33" t="s">
+      <c r="M19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N19" s="34">
+      <c r="N19" s="22">
         <v>43447</v>
       </c>
-      <c r="O19" s="33">
+      <c r="O19" s="21">
         <v>40</v>
       </c>
-      <c r="Q19" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="R19" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="S19" s="37">
+      <c r="Q19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19" s="25">
         <v>43496</v>
       </c>
-      <c r="T19" s="21">
+      <c r="T19" s="9">
         <v>240</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="24" t="s">
+      <c r="B20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="18">
         <v>43811</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="12">
         <v>50</v>
       </c>
-      <c r="G20" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="30">
+      <c r="G20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="18">
         <v>43467</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="12">
         <v>30</v>
       </c>
-      <c r="L20" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="30">
+      <c r="L20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="18">
         <v>43455</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="12">
         <v>30</v>
       </c>
-      <c r="Q20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R20" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="S20" s="36">
+      <c r="Q20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20" s="24">
         <v>43497</v>
       </c>
-      <c r="T20" s="18">
+      <c r="T20" s="6">
         <v>150</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="33" t="s">
+      <c r="B21" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="22">
         <v>43525</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="21">
         <v>90</v>
       </c>
-      <c r="G21" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="34">
+      <c r="G21" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="22">
         <v>43481</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="21">
         <v>90</v>
       </c>
-      <c r="L21" s="33" t="s">
+      <c r="L21" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M21" s="33" t="s">
+      <c r="M21" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N21" s="34">
+      <c r="N21" s="22">
         <v>43471</v>
       </c>
-      <c r="O21" s="33">
+      <c r="O21" s="21">
         <v>80</v>
       </c>
-      <c r="Q21" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="R21" s="38" t="s">
+      <c r="Q21" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="R21" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="S21" s="39">
+      <c r="S21" s="27">
         <v>43499</v>
       </c>
-      <c r="T21" s="21">
+      <c r="T21" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="18">
         <v>43535</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="12">
         <v>90</v>
       </c>
-      <c r="G22" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="30">
+      <c r="G22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="18">
         <v>43497</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="12">
         <v>90</v>
       </c>
-      <c r="L22" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="30">
+      <c r="L22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="18">
         <v>43481</v>
       </c>
-      <c r="O22" s="24">
+      <c r="O22" s="12">
         <v>40</v>
       </c>
-      <c r="Q22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R22" s="18" t="s">
+      <c r="Q22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S22" s="36">
+      <c r="S22" s="24">
         <v>43501</v>
       </c>
-      <c r="T22" s="18">
+      <c r="T22" s="6">
         <v>120</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="33" t="s">
+      <c r="B23" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="22">
         <v>43542</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="21">
         <v>90</v>
       </c>
-      <c r="G23" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="34">
+      <c r="G23" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="22">
         <v>43511</v>
       </c>
-      <c r="J23" s="33">
-        <v>60</v>
-      </c>
-      <c r="L23" s="33" t="s">
+      <c r="J23" s="21">
+        <v>60</v>
+      </c>
+      <c r="L23" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M23" s="33" t="s">
+      <c r="M23" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N23" s="34">
+      <c r="N23" s="22">
         <v>43482</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="21">
         <v>40</v>
       </c>
-      <c r="Q23" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="R23" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="S23" s="41">
+      <c r="Q23" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="R23" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="S23" s="29">
         <v>43509</v>
       </c>
-      <c r="T23" s="40">
+      <c r="T23" s="28">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="42" t="s">
+      <c r="B24" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="31">
         <v>43558</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="30">
         <v>70</v>
       </c>
-      <c r="G24" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="30">
+      <c r="G24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="18">
         <v>43526</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="12">
         <v>20</v>
       </c>
-      <c r="L24" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N24" s="30">
+      <c r="L24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="18">
         <v>43482</v>
       </c>
-      <c r="O24" s="24">
+      <c r="O24" s="12">
         <v>90</v>
       </c>
-      <c r="Q24" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R24" s="18" t="s">
+      <c r="Q24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S24" s="36">
+      <c r="S24" s="24">
         <v>43516</v>
       </c>
-      <c r="T24" s="18">
+      <c r="T24" s="6">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="33" t="s">
+      <c r="B25" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="25">
         <v>43593</v>
       </c>
-      <c r="E25" s="33">
-        <v>60</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="34">
+      <c r="E25" s="21">
+        <v>60</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="22">
         <v>43549</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="21">
         <v>90</v>
       </c>
-      <c r="L25" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="33" t="s">
+      <c r="L25" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="N25" s="34">
+      <c r="N25" s="22">
         <v>43482</v>
       </c>
-      <c r="O25" s="33">
+      <c r="O25" s="21">
         <v>30</v>
       </c>
-      <c r="Q25" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="R25" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="S25" s="41">
+      <c r="Q25" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="R25" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="S25" s="29">
         <v>43525</v>
       </c>
-      <c r="T25" s="40">
+      <c r="T25" s="28">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="44" t="s">
+      <c r="B26" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="33">
         <v>43635</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="32">
         <v>100</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="H26" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="18">
         <v>43550</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="12">
         <v>30</v>
       </c>
-      <c r="L26" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N26" s="30">
+      <c r="L26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="18">
         <v>43483</v>
       </c>
-      <c r="O26" s="24">
-        <v>60</v>
-      </c>
-      <c r="Q26" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="R26" s="46" t="s">
+      <c r="O26" s="12">
+        <v>60</v>
+      </c>
+      <c r="Q26" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="R26" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="S26" s="47">
+      <c r="S26" s="35">
         <v>43527</v>
       </c>
-      <c r="T26" s="46">
+      <c r="T26" s="34">
         <v>120</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G27" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="33" t="s">
+      <c r="G27" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="22">
         <v>43552</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="21">
         <v>30</v>
       </c>
-      <c r="L27" s="33" t="s">
+      <c r="L27" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="33" t="s">
+      <c r="M27" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N27" s="34">
+      <c r="N27" s="22">
         <v>43484</v>
       </c>
-      <c r="O27" s="33">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="R27" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="S27" s="41">
+      <c r="O27" s="21">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="R27" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="S27" s="29">
         <v>43534</v>
       </c>
-      <c r="T27" s="40">
+      <c r="T27" s="28">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G28" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" s="30">
+      <c r="G28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="18">
         <v>43552</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="12">
         <v>30</v>
       </c>
-      <c r="L28" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N28" s="30">
+      <c r="L28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="18">
         <v>43492</v>
       </c>
-      <c r="O28" s="24">
+      <c r="O28" s="12">
         <v>120</v>
       </c>
-      <c r="Q28" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R28" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="S28" s="36">
+      <c r="Q28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S28" s="24">
         <v>43553</v>
       </c>
-      <c r="T28" s="18">
+      <c r="T28" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G29" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="34">
+      <c r="G29" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="22">
         <v>43554</v>
       </c>
-      <c r="J29" s="33">
-        <v>60</v>
-      </c>
-      <c r="L29" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="N29" s="34">
+      <c r="J29" s="21">
+        <v>60</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="22">
         <v>43493</v>
       </c>
-      <c r="O29" s="33">
+      <c r="O29" s="21">
         <v>120</v>
       </c>
-      <c r="Q29" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="R29" s="40" t="s">
+      <c r="Q29" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="R29" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="S29" s="41">
+      <c r="S29" s="29">
         <v>43558</v>
       </c>
-      <c r="T29" s="40">
+      <c r="T29" s="28">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G30" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="30">
+      <c r="G30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="18">
         <v>43559</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="12">
         <v>120</v>
       </c>
-      <c r="L30" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N30" s="30">
+      <c r="L30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N30" s="18">
         <v>43495</v>
       </c>
-      <c r="O30" s="24">
+      <c r="O30" s="12">
         <v>120</v>
       </c>
-      <c r="Q30" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R30" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="S30" s="36">
+      <c r="Q30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S30" s="24">
         <v>43558</v>
       </c>
-      <c r="T30" s="18">
+      <c r="T30" s="6">
         <v>90</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G31" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I31" s="45">
+      <c r="G31" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="33">
         <v>43567</v>
       </c>
-      <c r="J31" s="38">
-        <v>60</v>
-      </c>
-      <c r="L31" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="33" t="s">
+      <c r="J31" s="26">
+        <v>60</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N31" s="34">
+      <c r="N31" s="22">
         <v>43496</v>
       </c>
-      <c r="O31" s="33">
+      <c r="O31" s="21">
         <v>120</v>
       </c>
-      <c r="Q31" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="R31" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="S31" s="41">
+      <c r="Q31" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="R31" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="S31" s="29">
         <v>43559</v>
       </c>
-      <c r="T31" s="40">
+      <c r="T31" s="28">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G32" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="37">
+      <c r="G32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="25">
         <v>43571</v>
       </c>
-      <c r="J32" s="24">
+      <c r="J32" s="12">
         <v>40</v>
       </c>
-      <c r="L32" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N32" s="30">
+      <c r="L32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N32" s="18">
         <v>43497</v>
       </c>
-      <c r="O32" s="24">
+      <c r="O32" s="12">
         <v>130</v>
       </c>
-      <c r="Q32" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R32" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="S32" s="36">
+      <c r="Q32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S32" s="24">
         <v>43559</v>
       </c>
-      <c r="T32" s="18">
+      <c r="T32" s="6">
         <v>120</v>
       </c>
     </row>
     <row r="33" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G33" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="49">
+      <c r="G33" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="37">
         <v>43578</v>
       </c>
-      <c r="J33" s="48">
-        <v>60</v>
-      </c>
-      <c r="L33" s="33" t="s">
+      <c r="J33" s="36">
+        <v>60</v>
+      </c>
+      <c r="L33" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M33" s="33" t="s">
+      <c r="M33" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N33" s="34">
+      <c r="N33" s="22">
         <v>43498</v>
       </c>
-      <c r="O33" s="33">
+      <c r="O33" s="21">
         <v>30</v>
       </c>
-      <c r="Q33" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="R33" s="40" t="s">
+      <c r="Q33" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="R33" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="S33" s="37">
+      <c r="S33" s="25">
         <v>43560</v>
       </c>
-      <c r="T33" s="40">
+      <c r="T33" s="28">
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G34" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="43">
+      <c r="G34" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="31">
         <v>43581</v>
       </c>
-      <c r="J34" s="42">
-        <v>60</v>
-      </c>
-      <c r="L34" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M34" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N34" s="30">
+      <c r="J34" s="30">
+        <v>60</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="18">
         <v>43509</v>
       </c>
-      <c r="O34" s="24">
+      <c r="O34" s="12">
         <v>100</v>
       </c>
-      <c r="Q34" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R34" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="S34" s="36">
+      <c r="Q34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S34" s="24">
         <v>43567</v>
       </c>
-      <c r="T34" s="18">
+      <c r="T34" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="35" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G35" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="41">
+      <c r="G35" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="29">
         <v>43582</v>
       </c>
-      <c r="J35" s="40">
+      <c r="J35" s="28">
         <v>120</v>
       </c>
-      <c r="L35" s="33" t="s">
+      <c r="L35" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M35" s="33" t="s">
+      <c r="M35" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N35" s="34">
+      <c r="N35" s="22">
         <v>43517</v>
       </c>
-      <c r="O35" s="33">
-        <v>10</v>
-      </c>
-      <c r="Q35" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="R35" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="S35" s="50">
+      <c r="O35" s="21">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="R35" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="S35" s="38">
         <v>43569</v>
       </c>
-      <c r="T35" s="40">
+      <c r="T35" s="28">
         <v>240</v>
       </c>
     </row>
     <row r="36" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="18" t="s">
+      <c r="H36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I36" s="24">
         <v>43582</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="6">
         <v>30</v>
       </c>
-      <c r="L36" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N36" s="30">
+      <c r="L36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="18">
         <v>43520</v>
       </c>
-      <c r="O36" s="24">
+      <c r="O36" s="12">
         <v>20</v>
       </c>
-      <c r="Q36" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R36" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="S36" s="36">
+      <c r="Q36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S36" s="24">
         <v>43585</v>
       </c>
-      <c r="T36" s="18">
+      <c r="T36" s="6">
         <v>150</v>
       </c>
     </row>
     <row r="37" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G37" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="21" t="s">
+      <c r="G37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="37">
+      <c r="I37" s="25">
         <v>43583</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37" s="9">
         <v>50</v>
       </c>
-      <c r="L37" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="M37" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="N37" s="34">
+      <c r="L37" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N37" s="22">
         <v>43521</v>
       </c>
-      <c r="O37" s="33">
+      <c r="O37" s="21">
         <v>40</v>
       </c>
-      <c r="Q37" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="R37" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="S37" s="37">
+      <c r="Q37" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="R37" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="S37" s="25">
         <v>43585</v>
       </c>
-      <c r="T37" s="40">
+      <c r="T37" s="28">
         <v>45</v>
       </c>
     </row>
     <row r="38" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G38" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38" s="36">
+      <c r="G38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="24">
         <v>43583</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J38" s="6">
         <v>70</v>
       </c>
-      <c r="L38" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M38" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N38" s="30">
+      <c r="L38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38" s="18">
         <v>43523</v>
       </c>
-      <c r="O38" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R38" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="S38" s="51">
+      <c r="O38" s="12">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S38" s="39">
         <v>43587</v>
       </c>
-      <c r="T38" s="18">
+      <c r="T38" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G39" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="21" t="s">
+      <c r="G39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="37">
+      <c r="I39" s="25">
         <v>43584</v>
       </c>
-      <c r="J39" s="21">
+      <c r="J39" s="9">
         <v>40</v>
       </c>
-      <c r="L39" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="M39" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="N39" s="34">
+      <c r="L39" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N39" s="22">
         <v>43523</v>
       </c>
-      <c r="O39" s="33">
-        <v>60</v>
-      </c>
-      <c r="Q39" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="R39" s="40" t="s">
+      <c r="O39" s="21">
+        <v>60</v>
+      </c>
+      <c r="Q39" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="R39" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="S39" s="52">
+      <c r="S39" s="40">
         <v>43587</v>
       </c>
-      <c r="T39" s="40">
+      <c r="T39" s="28">
         <v>45</v>
       </c>
     </row>
     <row r="40" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G40" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" s="36">
+      <c r="G40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="24">
         <v>43584</v>
       </c>
-      <c r="J40" s="18">
-        <v>60</v>
-      </c>
-      <c r="L40" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M40" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N40" s="30">
+      <c r="J40" s="6">
+        <v>60</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N40" s="18">
         <v>43525</v>
       </c>
-      <c r="O40" s="24">
+      <c r="O40" s="12">
         <v>30</v>
       </c>
-      <c r="Q40" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R40" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="S40" s="36">
+      <c r="Q40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S40" s="24">
         <v>43593</v>
       </c>
-      <c r="T40" s="18">
+      <c r="T40" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="41" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G41" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="33" t="s">
+      <c r="G41" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="37">
+      <c r="I41" s="25">
         <v>43592</v>
       </c>
-      <c r="J41" s="33">
-        <v>60</v>
-      </c>
-      <c r="L41" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="M41" s="33" t="s">
+      <c r="J41" s="21">
+        <v>60</v>
+      </c>
+      <c r="L41" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M41" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N41" s="34">
+      <c r="N41" s="22">
         <v>43530</v>
       </c>
-      <c r="O41" s="33">
+      <c r="O41" s="21">
         <v>30</v>
       </c>
-      <c r="Q41" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="R41" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="37">
+      <c r="Q41" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="R41" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="25">
         <v>43599</v>
       </c>
-      <c r="T41" s="40">
+      <c r="T41" s="28">
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G42" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="36">
+      <c r="G42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="24">
         <v>43593</v>
       </c>
-      <c r="J42" s="18">
-        <v>60</v>
-      </c>
-      <c r="L42" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M42" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N42" s="30">
+      <c r="J42" s="6">
+        <v>60</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N42" s="18">
         <v>43538</v>
       </c>
-      <c r="O42" s="24">
+      <c r="O42" s="12">
         <v>90</v>
       </c>
-      <c r="Q42" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R42" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="S42" s="36">
+      <c r="Q42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="24">
         <v>43608</v>
       </c>
-      <c r="T42" s="18">
+      <c r="T42" s="6">
         <v>90</v>
       </c>
     </row>
     <row r="43" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="L43" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="M43" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" s="34">
+      <c r="L43" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M43" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="22">
         <v>43539</v>
       </c>
-      <c r="O43" s="33">
+      <c r="O43" s="21">
         <v>50</v>
       </c>
-      <c r="Q43" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="R43" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="S43" s="37">
+      <c r="Q43" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="R43" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="S43" s="25">
         <v>43609</v>
       </c>
-      <c r="T43" s="40">
+      <c r="T43" s="28">
         <v>150</v>
       </c>
     </row>
     <row r="44" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="L44" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M44" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N44" s="30">
+      <c r="L44" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44" s="18">
         <v>43544</v>
       </c>
-      <c r="O44" s="24">
+      <c r="O44" s="12">
         <v>120</v>
       </c>
-      <c r="Q44" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="R44" s="46" t="s">
+      <c r="Q44" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="R44" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="S44" s="45">
+      <c r="S44" s="33">
         <v>43636</v>
       </c>
-      <c r="T44" s="46">
+      <c r="T44" s="34">
         <v>150</v>
       </c>
     </row>
     <row r="45" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="L45" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="M45" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="N45" s="34">
+      <c r="L45" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M45" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="22">
         <v>43543</v>
       </c>
-      <c r="O45" s="33">
+      <c r="O45" s="21">
         <v>60</v>
       </c>
       <c r="Q45" t="s">
@@ -2617,7 +2617,7 @@
       <c r="R45" t="s">
         <v>10</v>
       </c>
-      <c r="S45" s="45">
+      <c r="S45" s="33">
         <v>43637</v>
       </c>
       <c r="T45">
@@ -2625,16 +2625,16 @@
       </c>
     </row>
     <row r="46" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="L46" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M46" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N46" s="30">
+      <c r="L46" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="18">
         <v>43546</v>
       </c>
-      <c r="O46" s="24">
+      <c r="O46" s="12">
         <v>70</v>
       </c>
       <c r="Q46" t="s">
@@ -2651,16 +2651,16 @@
       </c>
     </row>
     <row r="47" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="L47" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="M47" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="34">
+      <c r="L47" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M47" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="22">
         <v>43552</v>
       </c>
-      <c r="O47" s="33">
+      <c r="O47" s="21">
         <v>30</v>
       </c>
       <c r="Q47" t="s">
@@ -2677,16 +2677,16 @@
       </c>
     </row>
     <row r="48" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="L48" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M48" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N48" s="30">
+      <c r="L48" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N48" s="18">
         <v>43553</v>
       </c>
-      <c r="O48" s="24">
+      <c r="O48" s="12">
         <v>190</v>
       </c>
       <c r="Q48" t="s">
@@ -2703,223 +2703,247 @@
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L49" s="33" t="s">
+      <c r="L49" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M49" s="33" t="s">
+      <c r="M49" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N49" s="34">
+      <c r="N49" s="22">
         <v>43558</v>
       </c>
-      <c r="O49" s="33">
+      <c r="O49" s="21">
         <v>20</v>
       </c>
     </row>
     <row r="50" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L50" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M50" s="24" t="s">
+      <c r="L50" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M50" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N50" s="30">
+      <c r="N50" s="18">
         <v>43558</v>
       </c>
-      <c r="O50" s="24">
+      <c r="O50" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="51" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L51" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="M51" s="33" t="s">
+      <c r="L51" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M51" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N51" s="34">
+      <c r="N51" s="22">
         <v>43558</v>
       </c>
-      <c r="O51" s="33">
+      <c r="O51" s="21">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L52" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M52" s="24" t="s">
+      <c r="L52" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M52" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N52" s="30">
+      <c r="N52" s="18">
         <v>43558</v>
       </c>
-      <c r="O52" s="24">
+      <c r="O52" s="12">
         <v>60</v>
       </c>
     </row>
     <row r="53" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L53" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="M53" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="N53" s="34">
+      <c r="L53" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M53" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="N53" s="22">
         <v>43559</v>
       </c>
-      <c r="O53" s="33">
+      <c r="O53" s="21">
         <v>150</v>
       </c>
     </row>
     <row r="54" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L54" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M54" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N54" s="30">
+      <c r="L54" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M54" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="18">
         <v>43565</v>
       </c>
-      <c r="O54" s="24">
+      <c r="O54" s="12">
         <v>40</v>
       </c>
     </row>
     <row r="55" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L55" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="M55" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="N55" s="45">
+      <c r="L55" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M55" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N55" s="33">
         <v>43577</v>
       </c>
-      <c r="O55" s="38">
+      <c r="O55" s="26">
         <v>120</v>
       </c>
     </row>
     <row r="56" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L56" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M56" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N56" s="36">
+      <c r="L56" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M56" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N56" s="24">
         <v>43577</v>
       </c>
-      <c r="O56" s="24">
+      <c r="O56" s="12">
         <v>120</v>
       </c>
     </row>
     <row r="57" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L57" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="M57" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="N57" s="37">
+      <c r="L57" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M57" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N57" s="25">
         <v>43593</v>
       </c>
-      <c r="O57" s="33">
+      <c r="O57" s="21">
         <v>140</v>
       </c>
     </row>
     <row r="58" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L58" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M58" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N58" s="36">
+      <c r="L58" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M58" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N58" s="24">
         <v>43598</v>
       </c>
-      <c r="O58" s="24">
+      <c r="O58" s="12">
         <v>90</v>
       </c>
     </row>
     <row r="59" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L59" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="M59" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="N59" s="37">
+      <c r="L59" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M59" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="25">
         <v>43608</v>
       </c>
-      <c r="O59" s="33">
+      <c r="O59" s="21">
         <v>70</v>
       </c>
     </row>
     <row r="60" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L60" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="M60" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="N60" s="45">
+      <c r="L60" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M60" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N60" s="33">
         <v>43621</v>
       </c>
-      <c r="O60" s="44">
+      <c r="O60" s="32">
         <v>120</v>
       </c>
     </row>
     <row r="61" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L61" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="M61" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="N61" s="45">
+      <c r="L61" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="M61" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="N61" s="33">
         <v>43622</v>
       </c>
-      <c r="O61" s="53">
+      <c r="O61" s="41">
         <v>180</v>
       </c>
     </row>
     <row r="62" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L62" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="M62" s="44" t="s">
+      <c r="L62" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M62" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="N62" s="45">
+      <c r="N62" s="33">
         <v>43636</v>
       </c>
-      <c r="O62" s="44">
+      <c r="O62" s="32">
         <v>150</v>
       </c>
     </row>
     <row r="63" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L63" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="M63" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="N63" s="55">
+      <c r="L63" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="M63" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="N63" s="43">
         <v>43648</v>
       </c>
-      <c r="O63" s="54">
+      <c r="O63" s="42">
         <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L64" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M64" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N64" s="43">
+        <v>43652</v>
+      </c>
+      <c r="O64" s="32">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="S7:T7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="J8:K8"/>
@@ -2928,22 +2952,12 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="L12:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44479589-25FE-47CC-9A59-3F989F947D87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71F214F-0274-4C52-BCF7-3201A316E083}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="36">
   <si>
     <t>Registrazione Tempi di Lavoro</t>
   </si>
@@ -417,14 +417,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -441,17 +444,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Z64"/>
+  <dimension ref="B2:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N65" sqref="N65"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O66" sqref="O66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,12 +868,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="2:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
@@ -882,53 +882,53 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
       <c r="H4" s="2"/>
-      <c r="J4" s="53" t="s">
+      <c r="J4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="S4" s="53" t="s">
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="S4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="2:26" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="54"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="J5" s="55" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="J5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="55"/>
+      <c r="K5" s="47"/>
       <c r="L5" s="4" t="s">
         <v>7</v>
       </c>
@@ -948,10 +948,10 @@
         <v>12</v>
       </c>
       <c r="R5" s="5"/>
-      <c r="S5" s="55" t="s">
+      <c r="S5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="55"/>
+      <c r="T5" s="47"/>
       <c r="U5" s="4" t="s">
         <v>13</v>
       </c>
@@ -960,10 +960,10 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="47"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="6">
         <f>SUM(J14:J47)</f>
         <v>1660</v>
@@ -972,14 +972,14 @@
         <f>_xlfn.FLOOR.MATH(D6/60)</f>
         <v>27</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="J6" s="47" t="s">
+      <c r="G6" s="49"/>
+      <c r="J6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="47"/>
+      <c r="K6" s="48"/>
       <c r="L6" s="8">
         <f>SUMIF(H14:H47,"CM",J14:J47)</f>
         <v>120</v>
@@ -1004,10 +1004,10 @@
         <f>SUMIF(H14:H47,"Test",J14:J47)</f>
         <v>180</v>
       </c>
-      <c r="S6" s="47" t="s">
+      <c r="S6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="47"/>
+      <c r="T6" s="48"/>
       <c r="U6" s="6">
         <f>SUMIF(G14:G48,"Interno",J14:J48)</f>
         <v>240</v>
@@ -1018,33 +1018,33 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="9">
         <f>SUM(O14:O117)</f>
-        <v>3800</v>
+        <v>3890</v>
       </c>
       <c r="E7" s="10">
         <f>_xlfn.FLOOR.MATH(D7/60)</f>
-        <v>63</v>
-      </c>
-      <c r="F7" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="50"/>
-      <c r="J7" s="49" t="s">
+      <c r="G7" s="51"/>
+      <c r="J7" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="49"/>
+      <c r="K7" s="50"/>
       <c r="L7" s="11">
         <f>SUMIF(M14:M65,"CM",O14:O65)</f>
         <v>340</v>
       </c>
       <c r="M7" s="11">
         <f>SUMIF(M14:M65,"Documentazione",O14:O65)</f>
-        <v>1040</v>
+        <v>1130</v>
       </c>
       <c r="N7" s="11">
         <f>SUMIF(M14:M65,"Ricerche",O14:O65)</f>
@@ -1062,24 +1062,24 @@
         <f>SUMIF(M14:M65,"Test",O14:O65)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="49" t="s">
+      <c r="S7" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="49"/>
+      <c r="T7" s="50"/>
       <c r="U7" s="9">
         <f>SUMIF(L14:L68,"Interno",O14:O68)</f>
         <v>400</v>
       </c>
       <c r="V7" s="9">
         <f>SUMIF(L14:L65,"GDPR",O14:O65)</f>
-        <v>3400</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="47"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="12">
         <f>SUM(T14:T59)</f>
         <v>3760</v>
@@ -1088,14 +1088,14 @@
         <f>_xlfn.FLOOR.MATH(D8/60)</f>
         <v>62</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="J8" s="47" t="s">
+      <c r="G8" s="49"/>
+      <c r="J8" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="47"/>
+      <c r="K8" s="48"/>
       <c r="L8" s="8">
         <f ca="1">SUMIF(R14:R50,"CM",T14:T47)</f>
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <f>SUMIF(R14:R57,"Test",T14:T57)</f>
         <v>45</v>
       </c>
-      <c r="S8" s="47" t="s">
+      <c r="S8" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="47"/>
+      <c r="T8" s="48"/>
       <c r="U8" s="6">
         <f>SUMIF(Q14:Q62,"Interno",T14:T62)</f>
         <v>0</v>
@@ -1134,10 +1134,10 @@
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="9">
         <f>SUM(E14:E37)</f>
         <v>910</v>
@@ -1146,24 +1146,24 @@
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
         <v>45</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="50"/>
+      <c r="G9" s="51"/>
       <c r="H9" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="51" t="s">
+      <c r="J9" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="51"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="13">
         <f>SUMIF(H17:H50,"CM",J17:J50)</f>
         <v>120</v>
       </c>
       <c r="M9" s="13">
         <f>SUM(M6:M8)</f>
-        <v>3225</v>
+        <v>3315</v>
       </c>
       <c r="N9" s="13">
         <f>SUM(N6:N8)</f>
@@ -1181,62 +1181,62 @@
         <f>SUM(Q6:Q8)</f>
         <v>225</v>
       </c>
-      <c r="S9" s="51" t="s">
+      <c r="S9" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="51"/>
+      <c r="T9" s="52"/>
       <c r="U9" s="14">
         <f>SUM(U6:U8)</f>
         <v>640</v>
       </c>
       <c r="V9" s="14">
         <f>SUM(V6:V8)</f>
-        <v>8580</v>
+        <v>8670</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="45"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="15">
         <f>SUM(D6:D9)</f>
-        <v>10130</v>
+        <v>10220</v>
       </c>
       <c r="E10" s="15">
         <f>SUM(E6:E9)</f>
-        <v>197</v>
-      </c>
-      <c r="F10" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="46"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="G12" s="44" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="G12" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="L12" s="44" t="s">
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="L12" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="Q12" s="44" t="s">
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="Q12" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -2926,8 +2926,44 @@
         <v>80</v>
       </c>
     </row>
+    <row r="65" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L65" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="M65" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="N65" s="43">
+        <v>43656</v>
+      </c>
+      <c r="O65" s="42">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="S7:T7"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="J4:Q4"/>
@@ -2936,28 +2972,6 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="S5:T5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="L12:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianluca\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C7AB52-EE4B-4332-8184-2F4CF4A8CCBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A447F4-E840-4C8B-8A6F-787B2DAA71CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="36">
   <si>
     <t>Registrazione Tempi di Lavoro</t>
   </si>
@@ -371,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,6 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -470,6 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -852,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Z66"/>
+  <dimension ref="B2:Z68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,12 +884,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
     </row>
     <row r="3" spans="2:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
@@ -899,53 +898,53 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="2"/>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="S4" s="57" t="s">
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="S4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="2:26" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="J5" s="59" t="s">
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="J5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="59"/>
+      <c r="K5" s="60"/>
       <c r="L5" s="4" t="s">
         <v>7</v>
       </c>
@@ -965,10 +964,10 @@
         <v>12</v>
       </c>
       <c r="R5" s="5"/>
-      <c r="S5" s="59" t="s">
+      <c r="S5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="59"/>
+      <c r="T5" s="60"/>
       <c r="U5" s="4" t="s">
         <v>13</v>
       </c>
@@ -977,10 +976,10 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="51"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="6">
         <f>SUM(J14:J66)</f>
         <v>3670</v>
@@ -989,14 +988,14 @@
         <f>_xlfn.FLOOR.MATH(D6/60)</f>
         <v>61</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="J6" s="51" t="s">
+      <c r="G6" s="53"/>
+      <c r="J6" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="51"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="8">
         <f ca="1">SUMIF(H14:H66,"CM",J14:J47)</f>
         <v>210</v>
@@ -1021,10 +1020,10 @@
         <f ca="1">SUMIF(H14:H65,"Test",J14:J47)</f>
         <v>840</v>
       </c>
-      <c r="S6" s="51" t="s">
+      <c r="S6" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="51"/>
+      <c r="T6" s="52"/>
       <c r="U6" s="6">
         <f>SUMIF(G14:G48,"Interno",J14:J48)</f>
         <v>240</v>
@@ -1035,26 +1034,26 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="53"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="9">
         <f>SUM(O14:O117)</f>
-        <v>3890</v>
+        <v>4190</v>
       </c>
       <c r="E7" s="10">
         <f>_xlfn.FLOOR.MATH(D7/60)</f>
-        <v>64</v>
-      </c>
-      <c r="F7" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="J7" s="53" t="s">
+      <c r="G7" s="55"/>
+      <c r="J7" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="53"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="11">
         <f>SUMIF(M14:M65,"CM",O14:O65)</f>
         <v>340</v>
@@ -1079,10 +1078,10 @@
         <f>SUMIF(M14:M65,"Test",O14:O65)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="53" t="s">
+      <c r="S7" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="53"/>
+      <c r="T7" s="54"/>
       <c r="U7" s="9">
         <f>SUMIF(L14:L68,"Interno",O14:O68)</f>
         <v>400</v>
@@ -1093,10 +1092,10 @@
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="51"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="12">
         <f>SUM(T14:T59)</f>
         <v>3970</v>
@@ -1105,14 +1104,14 @@
         <f>_xlfn.FLOOR.MATH(D8/60)</f>
         <v>66</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="J8" s="51" t="s">
+      <c r="G8" s="53"/>
+      <c r="J8" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="51"/>
+      <c r="K8" s="52"/>
       <c r="L8" s="8">
         <f ca="1">SUMIF(R14:R50,"CM",T14:T47)</f>
         <v>0</v>
@@ -1137,10 +1136,10 @@
         <f>SUMIF(R14:R57,"Test",T14:T57)</f>
         <v>45</v>
       </c>
-      <c r="S8" s="51" t="s">
+      <c r="S8" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="51"/>
+      <c r="T8" s="52"/>
       <c r="U8" s="6">
         <f>SUMIF(Q14:Q62,"Interno",T14:T62)</f>
         <v>0</v>
@@ -1151,10 +1150,10 @@
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="53"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="9">
         <f>SUM(E14:E37)</f>
         <v>910</v>
@@ -1163,17 +1162,17 @@
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
         <v>45</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="54"/>
+      <c r="G9" s="55"/>
       <c r="H9" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="13">
         <f t="shared" ref="L9:Q9" ca="1" si="0">SUM(L6:L8)</f>
         <v>550</v>
@@ -1198,10 +1197,10 @@
         <f t="shared" ca="1" si="0"/>
         <v>885</v>
       </c>
-      <c r="S9" s="55" t="s">
+      <c r="S9" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="55"/>
+      <c r="T9" s="56"/>
       <c r="U9" s="14">
         <f>SUM(U6:U8)</f>
         <v>640</v>
@@ -1212,48 +1211,48 @@
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="15">
         <f>SUM(D6:D9)</f>
-        <v>12440</v>
+        <v>12740</v>
       </c>
       <c r="E10" s="15">
         <f>SUM(E6:E9)</f>
-        <v>236</v>
-      </c>
-      <c r="F10" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="50"/>
+      <c r="G10" s="51"/>
     </row>
     <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="G12" s="48" t="s">
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="G12" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="L12" s="48" t="s">
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="L12" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="Q12" s="48" t="s">
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="Q12" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -3269,6 +3268,46 @@
       </c>
       <c r="J66">
         <v>30</v>
+      </c>
+      <c r="L66" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M66" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N66" s="48">
+        <v>43657</v>
+      </c>
+      <c r="O66" s="32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="L67" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="M67" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="N67" s="48">
+        <v>43658</v>
+      </c>
+      <c r="O67" s="61">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="L68" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M68" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N68" s="48">
+        <v>43658</v>
+      </c>
+      <c r="O68" s="32">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documenti\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C958C5C3-83FE-407F-80BE-DCD42D51DB9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D63CD8-5B85-4756-9947-AD638D061A4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="36">
   <si>
     <t>Registrazione Tempi di Lavoro</t>
   </si>
@@ -379,44 +378,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -482,6 +445,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -864,2489 +864,2513 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Z68"/>
+  <dimension ref="B2:Z69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+      <selection activeCell="M71" sqref="M71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" customWidth="1"/>
-    <col min="17" max="17" width="8.21875" customWidth="1"/>
-    <col min="18" max="18" width="16.109375" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" customWidth="1"/>
-    <col min="21" max="21" width="13.44140625" customWidth="1"/>
+    <col min="1" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="23" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="23" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:26" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="2:26" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.4">
-      <c r="B4" s="11" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+    </row>
+    <row r="3" spans="2:26" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="14"/>
-      <c r="J4" s="11" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="2"/>
+      <c r="J4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="S4" s="11" t="s">
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="S4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-    </row>
-    <row r="5" spans="2:26" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="2:26" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="J5" s="9" t="s">
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="J5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="16" t="s">
+      <c r="K5" s="63"/>
+      <c r="L5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="16" t="s">
+      <c r="M5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="16" t="s">
+      <c r="O5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="17"/>
-      <c r="S5" s="9" t="s">
+      <c r="R5" s="5"/>
+      <c r="S5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="16" t="s">
+      <c r="T5" s="63"/>
+      <c r="U5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="V5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="18">
+      <c r="C6" s="55"/>
+      <c r="D6" s="6">
         <f>SUM(J14:J100)</f>
         <v>3670</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="7">
         <f>_xlfn.FLOOR.MATH(D6/60)</f>
         <v>61</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="J6" s="8" t="s">
+      <c r="G6" s="56"/>
+      <c r="J6" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="20">
+      <c r="K6" s="55"/>
+      <c r="L6" s="8">
         <f>SUMIF(H14:H100,"CM",J14:J100)</f>
         <v>210</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="8">
         <f ca="1">SUMIF(H14:H100,"Documentazione",J14:J47)</f>
         <v>1750</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="8">
         <f>SUMIF(H14:H100,"Ricerche",J14:J100)</f>
         <v>120</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="8">
         <f>SUMIF(H14:H100,"Codice",J14:J100)</f>
         <v>750</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6" s="8">
         <f>SUMIF(H14:H100,_xlnm.Database,J14:J100)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="8">
         <f>SUMIF(H14:H100,"Test",J14:J100)</f>
         <v>840</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="8"/>
-      <c r="U6" s="18">
+      <c r="T6" s="55"/>
+      <c r="U6" s="6">
         <f>SUMIF(G14:G100,"Interno",J14:J100)</f>
         <v>330</v>
       </c>
-      <c r="V6" s="18">
+      <c r="V6" s="6">
         <f>SUMIF(G14:G100,"GDPR",J14:J100)</f>
         <v>3340</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="21">
+      <c r="C7" s="57"/>
+      <c r="D7" s="9">
         <f>SUM(O14:O117)</f>
-        <v>4190</v>
-      </c>
-      <c r="E7" s="22">
+        <v>4320</v>
+      </c>
+      <c r="E7" s="10">
         <f>_xlfn.FLOOR.MATH(D7/60)</f>
-        <v>69</v>
-      </c>
-      <c r="F7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="J7" s="6" t="s">
+      <c r="G7" s="58"/>
+      <c r="J7" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="23">
+      <c r="K7" s="57"/>
+      <c r="L7" s="11">
         <f>SUMIF(M14:M100,"CM",O14:O100)</f>
         <v>340</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="11">
         <f>SUMIF(M14:M100,"Documentazione",O14:O100)</f>
-        <v>1240</v>
-      </c>
-      <c r="N7" s="23">
+        <v>1370</v>
+      </c>
+      <c r="N7" s="11">
         <f>SUMIF(M14:M100,"Ricerche",O14:O100)</f>
         <v>90</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="11">
         <f>SUMIF(M14:M100,"Codice",O14:O100)</f>
         <v>2080</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="11">
         <f>SUMIF(M14:M100,"Database",O14:O100)</f>
         <v>290</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="11">
         <f>SUMIF(M14:M100,"Test",O14:O100)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="21">
+      <c r="T7" s="57"/>
+      <c r="U7" s="9">
         <f>SUMIF(L14:L100,"Interno",O14:O100)</f>
         <v>400</v>
       </c>
-      <c r="V7" s="21">
+      <c r="V7" s="9">
         <f>SUMIF(L14:L100,"GDPR",O14:O100)</f>
-        <v>3790</v>
-      </c>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="24">
+      <c r="C8" s="55"/>
+      <c r="D8" s="12">
         <f>SUM(T14:T59)</f>
         <v>4270</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="7">
         <f>_xlfn.FLOOR.MATH(D8/60)</f>
         <v>71</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="J8" s="8" t="s">
+      <c r="G8" s="56"/>
+      <c r="J8" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="20">
+      <c r="K8" s="55"/>
+      <c r="L8" s="8">
         <f>SUMIF(R14:R100,"CM",T14:T100)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="8">
         <f>SUMIF(R14:R100,"Documentazione",T14:T100)</f>
         <v>1215</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="8">
         <f>SUMIF(R14:R100,"Ricerche",T14:T100)</f>
         <v>340</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="8">
         <f>SUMIF(R14:R100,"Codice",T14:T100)</f>
         <v>2250</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="8">
         <f>SUMIF(R14:R100,"Database",T14:T100)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="8">
         <f>SUMIF(R14:R100,"Test",T14:T100)</f>
         <v>45</v>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="S8" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="8"/>
-      <c r="U8" s="18">
+      <c r="T8" s="55"/>
+      <c r="U8" s="6">
         <f>SUMIF(Q14:Q100,"Interno",T14:T100)</f>
         <v>0</v>
       </c>
-      <c r="V8" s="18">
+      <c r="V8" s="6">
         <f>SUMIF(Q14:Q100,"GDPR",T14:T100)</f>
         <v>4270</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="21">
+      <c r="C9" s="57"/>
+      <c r="D9" s="9">
         <f>SUM(E14:E37)</f>
         <v>910</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="10">
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
         <v>45</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="58"/>
       <c r="H9" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="25">
+      <c r="K9" s="59"/>
+      <c r="L9" s="13">
         <f t="shared" ref="L9:Q9" si="0">SUM(L6:L8)</f>
         <v>550</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>4205</v>
-      </c>
-      <c r="N9" s="25">
+        <v>4335</v>
+      </c>
+      <c r="N9" s="13">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9" s="13">
         <f t="shared" si="0"/>
         <v>5080</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9" s="13">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="Q9" s="13">
         <f t="shared" si="0"/>
         <v>885</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="4"/>
-      <c r="U9" s="26">
+      <c r="T9" s="59"/>
+      <c r="U9" s="14">
         <f>SUM(U6:U8)</f>
         <v>730</v>
       </c>
-      <c r="V9" s="26">
+      <c r="V9" s="14">
         <f>SUM(V6:V8)</f>
-        <v>11400</v>
-      </c>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+        <v>11530</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="27">
+      <c r="C10" s="53"/>
+      <c r="D10" s="15">
         <f>SUM(D6:D9)</f>
-        <v>13040</v>
-      </c>
-      <c r="E10" s="27">
+        <v>13170</v>
+      </c>
+      <c r="E10" s="15">
         <f>SUM(E6:E9)</f>
-        <v>246</v>
-      </c>
-      <c r="F10" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F10" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="12" spans="2:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
+      <c r="G10" s="54"/>
+    </row>
+    <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="G12" s="1" t="s">
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="G12" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="L12" s="1" t="s">
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="L12" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="Q12" s="1" t="s">
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="Q12" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B13" s="28" t="s">
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="29" t="s">
+      <c r="M13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="29" t="s">
+      <c r="N13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="29" t="s">
+      <c r="O13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="29" t="s">
+      <c r="Q13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="R13" s="29" t="s">
+      <c r="R13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="S13" s="29" t="s">
+      <c r="S13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="T13" s="29" t="s">
+      <c r="T13" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B14" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="24" t="s">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="18">
         <v>43478</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="12">
         <v>90</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="18">
         <v>43423</v>
       </c>
-      <c r="J14" s="24">
-        <v>60</v>
-      </c>
-      <c r="L14" s="24" t="s">
+      <c r="J14" s="12">
+        <v>60</v>
+      </c>
+      <c r="L14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="18">
         <v>43423</v>
       </c>
-      <c r="O14" s="24">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="R14" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="44">
+      <c r="O14" s="12">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="32">
         <v>43433</v>
       </c>
-      <c r="T14" s="31">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B15" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="32" t="s">
+      <c r="T14" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="21">
         <v>43778</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="20">
         <v>30</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="21">
         <v>43424</v>
       </c>
-      <c r="J15" s="32">
-        <v>60</v>
-      </c>
-      <c r="L15" s="32" t="s">
+      <c r="J15" s="20">
+        <v>60</v>
+      </c>
+      <c r="L15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="32" t="s">
+      <c r="M15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="33">
+      <c r="N15" s="21">
         <v>43431</v>
       </c>
-      <c r="O15" s="32">
+      <c r="O15" s="20">
         <v>80</v>
       </c>
-      <c r="Q15" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="R15" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="S15" s="45">
+      <c r="Q15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="33">
         <v>43446</v>
       </c>
-      <c r="T15" s="21">
+      <c r="T15" s="9">
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B16" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="24" t="s">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="18">
         <v>43790</v>
       </c>
-      <c r="E16" s="24">
-        <v>60</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="30">
+      <c r="E16" s="12">
+        <v>60</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="18">
         <v>43426</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="12">
         <v>30</v>
       </c>
-      <c r="L16" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N16" s="30">
+      <c r="L16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="18">
         <v>43433</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="12">
         <v>70</v>
       </c>
-      <c r="Q16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R16" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="S16" s="46">
+      <c r="Q16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S16" s="34">
         <v>43481</v>
       </c>
-      <c r="T16" s="18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B17" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="32" t="s">
+      <c r="T16" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="21">
         <v>43792</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="20">
         <v>30</v>
       </c>
-      <c r="G17" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="33">
+      <c r="G17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="21">
         <v>43429</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="20">
         <v>30</v>
       </c>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="32" t="s">
+      <c r="M17" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="33">
+      <c r="N17" s="21">
         <v>43434</v>
       </c>
-      <c r="O17" s="32">
+      <c r="O17" s="20">
         <v>30</v>
       </c>
-      <c r="Q17" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="R17" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="S17" s="47">
+      <c r="Q17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="35">
         <v>43481</v>
       </c>
-      <c r="T17" s="21">
+      <c r="T17" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B18" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="24" t="s">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="18">
         <v>43797</v>
       </c>
-      <c r="E18" s="24">
-        <v>60</v>
-      </c>
-      <c r="G18" s="24" t="s">
+      <c r="E18" s="12">
+        <v>60</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="18">
         <v>43434</v>
       </c>
-      <c r="J18" s="24">
-        <v>60</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="30">
+      <c r="J18" s="12">
+        <v>60</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="18">
         <v>43440</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O18" s="12">
         <v>50</v>
       </c>
-      <c r="Q18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R18" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="S18" s="46">
+      <c r="Q18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18" s="34">
         <v>43482</v>
       </c>
-      <c r="T18" s="18">
+      <c r="T18" s="6">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B19" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="32" t="s">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="21">
         <v>43804</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="20">
         <v>90</v>
       </c>
-      <c r="G19" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="33">
+      <c r="G19" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="21">
         <v>43444</v>
       </c>
-      <c r="J19" s="32">
-        <v>60</v>
-      </c>
-      <c r="L19" s="32" t="s">
+      <c r="J19" s="20">
+        <v>60</v>
+      </c>
+      <c r="L19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="32" t="s">
+      <c r="M19" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N19" s="33">
+      <c r="N19" s="21">
         <v>43447</v>
       </c>
-      <c r="O19" s="32">
+      <c r="O19" s="20">
         <v>40</v>
       </c>
-      <c r="Q19" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="R19" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="S19" s="47">
+      <c r="Q19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19" s="35">
         <v>43496</v>
       </c>
-      <c r="T19" s="21">
+      <c r="T19" s="9">
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B20" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="24" t="s">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="18">
         <v>43811</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="12">
         <v>50</v>
       </c>
-      <c r="G20" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="30">
+      <c r="G20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="18">
         <v>43467</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="12">
         <v>30</v>
       </c>
-      <c r="L20" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="30">
+      <c r="L20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="18">
         <v>43455</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="12">
         <v>30</v>
       </c>
-      <c r="Q20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R20" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="S20" s="46">
+      <c r="Q20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20" s="34">
         <v>43497</v>
       </c>
-      <c r="T20" s="18">
+      <c r="T20" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B21" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="32" t="s">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="21">
         <v>43525</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="20">
         <v>90</v>
       </c>
-      <c r="G21" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="33">
+      <c r="G21" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="21">
         <v>43481</v>
       </c>
-      <c r="J21" s="32">
+      <c r="J21" s="20">
         <v>90</v>
       </c>
-      <c r="L21" s="32" t="s">
+      <c r="L21" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M21" s="32" t="s">
+      <c r="M21" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N21" s="33">
+      <c r="N21" s="21">
         <v>43471</v>
       </c>
-      <c r="O21" s="32">
+      <c r="O21" s="20">
         <v>80</v>
       </c>
-      <c r="Q21" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="R21" s="36" t="s">
+      <c r="Q21" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="R21" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="S21" s="48">
+      <c r="S21" s="36">
         <v>43499</v>
       </c>
-      <c r="T21" s="21">
+      <c r="T21" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B22" s="24" t="s">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="18">
         <v>43535</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="12">
         <v>90</v>
       </c>
-      <c r="G22" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="30">
+      <c r="G22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="18">
         <v>43497</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="12">
         <v>90</v>
       </c>
-      <c r="L22" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="30">
+      <c r="L22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="18">
         <v>43481</v>
       </c>
-      <c r="O22" s="24">
+      <c r="O22" s="12">
         <v>40</v>
       </c>
-      <c r="Q22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R22" s="18" t="s">
+      <c r="Q22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S22" s="46">
+      <c r="S22" s="34">
         <v>43501</v>
       </c>
-      <c r="T22" s="18">
+      <c r="T22" s="6">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B23" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="32" t="s">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="21">
         <v>43542</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="20">
         <v>90</v>
       </c>
-      <c r="G23" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="33">
+      <c r="G23" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="21">
         <v>43511</v>
       </c>
-      <c r="J23" s="32">
-        <v>60</v>
-      </c>
-      <c r="L23" s="32" t="s">
+      <c r="J23" s="20">
+        <v>60</v>
+      </c>
+      <c r="L23" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M23" s="32" t="s">
+      <c r="M23" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N23" s="33">
+      <c r="N23" s="21">
         <v>43482</v>
       </c>
-      <c r="O23" s="32">
+      <c r="O23" s="20">
         <v>40</v>
       </c>
-      <c r="Q23" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="R23" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="S23" s="49">
+      <c r="Q23" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="R23" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="S23" s="37">
         <v>43509</v>
       </c>
-      <c r="T23" s="37">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B24" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="39" t="s">
+      <c r="T23" s="25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="28">
         <v>43558</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="27">
         <v>70</v>
       </c>
-      <c r="G24" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="30">
+      <c r="G24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="18">
         <v>43526</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="12">
         <v>20</v>
       </c>
-      <c r="L24" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N24" s="30">
+      <c r="L24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="18">
         <v>43482</v>
       </c>
-      <c r="O24" s="24">
+      <c r="O24" s="12">
         <v>90</v>
       </c>
-      <c r="Q24" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R24" s="18" t="s">
+      <c r="Q24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S24" s="46">
+      <c r="S24" s="34">
         <v>43516</v>
       </c>
-      <c r="T24" s="18">
+      <c r="T24" s="6">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B25" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="32" t="s">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="23">
         <v>43593</v>
       </c>
-      <c r="E25" s="32">
-        <v>60</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="33">
+      <c r="E25" s="20">
+        <v>60</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="21">
         <v>43549</v>
       </c>
-      <c r="J25" s="32">
+      <c r="J25" s="20">
         <v>90</v>
       </c>
-      <c r="L25" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="32" t="s">
+      <c r="L25" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="N25" s="33">
+      <c r="N25" s="21">
         <v>43482</v>
       </c>
-      <c r="O25" s="32">
+      <c r="O25" s="20">
         <v>30</v>
       </c>
-      <c r="Q25" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="R25" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="S25" s="49">
+      <c r="Q25" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="R25" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="S25" s="37">
         <v>43525</v>
       </c>
-      <c r="T25" s="37">
+      <c r="T25" s="25">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B26" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="41" t="s">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="30">
         <v>43635</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="29">
         <v>100</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="H26" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="18">
         <v>43550</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="12">
         <v>30</v>
       </c>
-      <c r="L26" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N26" s="30">
+      <c r="L26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="18">
         <v>43483</v>
       </c>
-      <c r="O26" s="24">
-        <v>60</v>
-      </c>
-      <c r="Q26" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="R26" s="43" t="s">
+      <c r="O26" s="12">
+        <v>60</v>
+      </c>
+      <c r="Q26" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="R26" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="S26" s="50">
+      <c r="S26" s="38">
         <v>43527</v>
       </c>
-      <c r="T26" s="43">
+      <c r="T26" s="31">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="G27" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="32" t="s">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G27" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="21">
         <v>43552</v>
       </c>
-      <c r="J27" s="32">
+      <c r="J27" s="20">
         <v>30</v>
       </c>
-      <c r="L27" s="32" t="s">
+      <c r="L27" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="32" t="s">
+      <c r="M27" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N27" s="33">
+      <c r="N27" s="21">
         <v>43484</v>
       </c>
-      <c r="O27" s="32">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="R27" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="S27" s="49">
+      <c r="O27" s="20">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="R27" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="S27" s="37">
         <v>43534</v>
       </c>
-      <c r="T27" s="37">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="G28" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" s="30">
+      <c r="T27" s="25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="18">
         <v>43552</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="12">
         <v>30</v>
       </c>
-      <c r="L28" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N28" s="30">
+      <c r="L28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="18">
         <v>43492</v>
       </c>
-      <c r="O28" s="24">
+      <c r="O28" s="12">
         <v>120</v>
       </c>
-      <c r="Q28" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R28" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="S28" s="46">
+      <c r="Q28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S28" s="34">
         <v>43553</v>
       </c>
-      <c r="T28" s="18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="G29" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="33">
+      <c r="T28" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G29" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="21">
         <v>43554</v>
       </c>
-      <c r="J29" s="32">
-        <v>60</v>
-      </c>
-      <c r="L29" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="N29" s="33">
+      <c r="J29" s="20">
+        <v>60</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="21">
         <v>43493</v>
       </c>
-      <c r="O29" s="32">
+      <c r="O29" s="20">
         <v>120</v>
       </c>
-      <c r="Q29" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="R29" s="37" t="s">
+      <c r="Q29" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="R29" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="S29" s="49">
+      <c r="S29" s="37">
         <v>43558</v>
       </c>
-      <c r="T29" s="37">
+      <c r="T29" s="25">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="G30" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="30">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="18">
         <v>43559</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="12">
         <v>120</v>
       </c>
-      <c r="L30" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N30" s="30">
+      <c r="L30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N30" s="18">
         <v>43495</v>
       </c>
-      <c r="O30" s="24">
+      <c r="O30" s="12">
         <v>120</v>
       </c>
-      <c r="Q30" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R30" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="S30" s="46">
+      <c r="Q30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S30" s="34">
         <v>43558</v>
       </c>
-      <c r="T30" s="18">
+      <c r="T30" s="6">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="G31" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I31" s="35">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G31" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="23">
         <v>43567</v>
       </c>
-      <c r="J31" s="32">
-        <v>60</v>
-      </c>
-      <c r="L31" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="32" t="s">
+      <c r="J31" s="20">
+        <v>60</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="N31" s="33">
+      <c r="N31" s="21">
         <v>43496</v>
       </c>
-      <c r="O31" s="32">
+      <c r="O31" s="20">
         <v>120</v>
       </c>
-      <c r="Q31" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="R31" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="S31" s="49">
+      <c r="Q31" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="R31" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="S31" s="37">
         <v>43559</v>
       </c>
-      <c r="T31" s="37">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="G32" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="35">
+      <c r="T31" s="25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="23">
         <v>43571</v>
       </c>
-      <c r="J32" s="24">
+      <c r="J32" s="12">
         <v>40</v>
       </c>
-      <c r="L32" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N32" s="30">
+      <c r="L32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N32" s="18">
         <v>43497</v>
       </c>
-      <c r="O32" s="24">
+      <c r="O32" s="12">
         <v>130</v>
       </c>
-      <c r="Q32" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R32" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="S32" s="46">
+      <c r="Q32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S32" s="34">
         <v>43559</v>
       </c>
-      <c r="T32" s="18">
+      <c r="T32" s="6">
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G33" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="56">
+    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G33" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="44">
         <v>43578</v>
       </c>
-      <c r="J33" s="37">
-        <v>60</v>
-      </c>
-      <c r="L33" s="32" t="s">
+      <c r="J33" s="25">
+        <v>60</v>
+      </c>
+      <c r="L33" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M33" s="32" t="s">
+      <c r="M33" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N33" s="33">
+      <c r="N33" s="21">
         <v>43498</v>
       </c>
-      <c r="O33" s="32">
+      <c r="O33" s="20">
         <v>30</v>
       </c>
-      <c r="Q33" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="R33" s="37" t="s">
+      <c r="Q33" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="R33" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="S33" s="47">
+      <c r="S33" s="35">
         <v>43560</v>
       </c>
-      <c r="T33" s="37">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G34" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="30">
+      <c r="T33" s="25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G34" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="18">
         <v>43581</v>
       </c>
-      <c r="J34" s="24">
-        <v>60</v>
-      </c>
-      <c r="L34" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M34" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N34" s="30">
+      <c r="J34" s="12">
+        <v>60</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="18">
         <v>43509</v>
       </c>
-      <c r="O34" s="24">
+      <c r="O34" s="12">
         <v>100</v>
       </c>
-      <c r="Q34" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R34" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="S34" s="46">
+      <c r="Q34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S34" s="34">
         <v>43567</v>
       </c>
-      <c r="T34" s="18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G35" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="38">
+      <c r="T34" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G35" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="26">
         <v>43582</v>
       </c>
-      <c r="J35" s="37">
+      <c r="J35" s="25">
         <v>120</v>
       </c>
-      <c r="L35" s="32" t="s">
+      <c r="L35" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M35" s="32" t="s">
+      <c r="M35" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N35" s="33">
+      <c r="N35" s="21">
         <v>43517</v>
       </c>
-      <c r="O35" s="32">
-        <v>10</v>
-      </c>
-      <c r="Q35" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="R35" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="S35" s="51">
+      <c r="O35" s="20">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="R35" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="S35" s="39">
         <v>43569</v>
       </c>
-      <c r="T35" s="37">
+      <c r="T35" s="25">
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G36" s="18" t="s">
+    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="18" t="s">
+      <c r="H36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="34">
+      <c r="I36" s="22">
         <v>43582</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="6">
         <v>30</v>
       </c>
-      <c r="L36" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N36" s="30">
+      <c r="L36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="18">
         <v>43520</v>
       </c>
-      <c r="O36" s="24">
+      <c r="O36" s="12">
         <v>20</v>
       </c>
-      <c r="Q36" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R36" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="S36" s="46">
+      <c r="Q36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S36" s="34">
         <v>43585</v>
       </c>
-      <c r="T36" s="18">
+      <c r="T36" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G37" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="21" t="s">
+    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="35">
+      <c r="I37" s="23">
         <v>43583</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37" s="9">
         <v>50</v>
       </c>
-      <c r="L37" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M37" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="N37" s="33">
+      <c r="L37" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N37" s="21">
         <v>43521</v>
       </c>
-      <c r="O37" s="32">
+      <c r="O37" s="20">
         <v>40</v>
       </c>
-      <c r="Q37" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="R37" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="S37" s="47">
+      <c r="Q37" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="R37" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="S37" s="35">
         <v>43585</v>
       </c>
-      <c r="T37" s="37">
+      <c r="T37" s="25">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G38" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38" s="34">
+    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="22">
         <v>43583</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J38" s="6">
         <v>70</v>
       </c>
-      <c r="L38" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M38" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N38" s="30">
+      <c r="L38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38" s="18">
         <v>43523</v>
       </c>
-      <c r="O38" s="24">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R38" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="S38" s="52">
+      <c r="O38" s="12">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S38" s="40">
         <v>43587</v>
       </c>
-      <c r="T38" s="18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G39" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="21" t="s">
+      <c r="T38" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="35">
+      <c r="I39" s="23">
         <v>43584</v>
       </c>
-      <c r="J39" s="21">
+      <c r="J39" s="9">
         <v>40</v>
       </c>
-      <c r="L39" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M39" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="N39" s="33">
+      <c r="L39" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N39" s="21">
         <v>43523</v>
       </c>
-      <c r="O39" s="32">
-        <v>60</v>
-      </c>
-      <c r="Q39" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="R39" s="37" t="s">
+      <c r="O39" s="20">
+        <v>60</v>
+      </c>
+      <c r="Q39" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="R39" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="S39" s="53">
+      <c r="S39" s="41">
         <v>43587</v>
       </c>
-      <c r="T39" s="37">
+      <c r="T39" s="25">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G40" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" s="34">
+    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="22">
         <v>43584</v>
       </c>
-      <c r="J40" s="18">
-        <v>60</v>
-      </c>
-      <c r="L40" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M40" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N40" s="30">
+      <c r="J40" s="6">
+        <v>60</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N40" s="18">
         <v>43525</v>
       </c>
-      <c r="O40" s="24">
+      <c r="O40" s="12">
         <v>30</v>
       </c>
-      <c r="Q40" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R40" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="S40" s="46">
+      <c r="Q40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S40" s="34">
         <v>43593</v>
       </c>
-      <c r="T40" s="18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G41" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="32" t="s">
+      <c r="T40" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G41" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="35">
+      <c r="I41" s="23">
         <v>43592</v>
       </c>
-      <c r="J41" s="32">
-        <v>60</v>
-      </c>
-      <c r="L41" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M41" s="32" t="s">
+      <c r="J41" s="20">
+        <v>60</v>
+      </c>
+      <c r="L41" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M41" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="N41" s="33">
+      <c r="N41" s="21">
         <v>43530</v>
       </c>
-      <c r="O41" s="32">
+      <c r="O41" s="20">
         <v>30</v>
       </c>
-      <c r="Q41" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="R41" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="47">
+      <c r="Q41" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="R41" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="35">
         <v>43599</v>
       </c>
-      <c r="T41" s="37">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G42" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="34">
+      <c r="T41" s="25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="22">
         <v>43593</v>
       </c>
-      <c r="J42" s="18">
-        <v>60</v>
-      </c>
-      <c r="L42" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M42" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N42" s="30">
+      <c r="J42" s="6">
+        <v>60</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N42" s="18">
         <v>43538</v>
       </c>
-      <c r="O42" s="24">
+      <c r="O42" s="12">
         <v>90</v>
       </c>
-      <c r="Q42" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="R42" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="S42" s="46">
+      <c r="Q42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="34">
         <v>43608</v>
       </c>
-      <c r="T42" s="18">
+      <c r="T42" s="6">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G43" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="62">
+    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G43" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="50">
         <v>43594</v>
       </c>
-      <c r="J43" s="32">
-        <v>60</v>
-      </c>
-      <c r="L43" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M43" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" s="33">
+      <c r="J43" s="20">
+        <v>60</v>
+      </c>
+      <c r="L43" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M43" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="21">
         <v>43539</v>
       </c>
-      <c r="O43" s="32">
+      <c r="O43" s="20">
         <v>50</v>
       </c>
-      <c r="Q43" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="R43" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="S43" s="47">
+      <c r="Q43" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="R43" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="S43" s="35">
         <v>43609</v>
       </c>
-      <c r="T43" s="37">
+      <c r="T43" s="25">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G44" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="34">
+    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="22">
         <v>43597</v>
       </c>
-      <c r="J44" s="24">
-        <v>60</v>
-      </c>
-      <c r="L44" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M44" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N44" s="30">
+      <c r="J44" s="12">
+        <v>60</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44" s="18">
         <v>43544</v>
       </c>
-      <c r="O44" s="24">
+      <c r="O44" s="12">
         <v>120</v>
       </c>
-      <c r="Q44" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="R44" s="24" t="s">
+      <c r="Q44" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="R44" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S44" s="47">
+      <c r="S44" s="35">
         <v>43636</v>
       </c>
-      <c r="T44" s="24">
+      <c r="T44" s="12">
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G45" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="32" t="s">
+    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G45" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="62">
+      <c r="I45" s="50">
         <v>43598</v>
       </c>
-      <c r="J45" s="32">
+      <c r="J45" s="20">
         <v>90</v>
       </c>
-      <c r="L45" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M45" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="N45" s="33">
+      <c r="L45" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M45" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="21">
         <v>43543</v>
       </c>
-      <c r="O45" s="32">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="R45" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="S45" s="47">
+      <c r="O45" s="20">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S45" s="35">
         <v>43637</v>
       </c>
-      <c r="T45" s="21">
+      <c r="T45" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G46" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="24" t="s">
+    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="34">
+      <c r="I46" s="22">
         <v>43599</v>
       </c>
-      <c r="J46" s="24">
+      <c r="J46" s="12">
         <v>90</v>
       </c>
-      <c r="L46" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M46" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N46" s="30">
+      <c r="L46" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="18">
         <v>43546</v>
       </c>
-      <c r="O46" s="24">
+      <c r="O46" s="12">
         <v>70</v>
       </c>
-      <c r="Q46" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="R46" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="S46" s="58" t="s">
+      <c r="Q46" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="R46" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="T46" s="57">
+      <c r="T46" s="45">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G47" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="62">
+    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G47" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="50">
         <v>43602</v>
       </c>
-      <c r="J47" s="32">
-        <v>60</v>
-      </c>
-      <c r="L47" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M47" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="33">
+      <c r="J47" s="20">
+        <v>60</v>
+      </c>
+      <c r="L47" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M47" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N47" s="21">
         <v>43552</v>
       </c>
-      <c r="O47" s="32">
+      <c r="O47" s="20">
         <v>30</v>
       </c>
-      <c r="Q47" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="R47" s="21" t="s">
+      <c r="Q47" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R47" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="S47" s="47" t="s">
+      <c r="S47" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="T47" s="21">
+      <c r="T47" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G48" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="34">
+    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="22">
         <v>43605</v>
       </c>
-      <c r="J48" s="24">
+      <c r="J48" s="12">
         <v>120</v>
       </c>
-      <c r="L48" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M48" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N48" s="30">
+      <c r="L48" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N48" s="18">
         <v>43553</v>
       </c>
-      <c r="O48" s="24">
+      <c r="O48" s="12">
         <v>190</v>
       </c>
-      <c r="Q48" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="R48" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="S48" s="58" t="s">
+      <c r="Q48" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="R48" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="S48" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="T48" s="57">
+      <c r="T48" s="45">
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G49" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="62">
+    <row r="49" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G49" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="50">
         <v>43610</v>
       </c>
-      <c r="J49" s="32">
+      <c r="J49" s="20">
         <v>120</v>
       </c>
-      <c r="L49" s="32" t="s">
+      <c r="L49" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M49" s="32" t="s">
+      <c r="M49" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N49" s="33">
+      <c r="N49" s="21">
         <v>43558</v>
       </c>
-      <c r="O49" s="32">
+      <c r="O49" s="20">
         <v>20</v>
       </c>
-      <c r="Q49" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="R49" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="S49" s="47">
+      <c r="Q49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R49" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S49" s="35">
         <v>43653</v>
       </c>
-      <c r="T49" s="21">
+      <c r="T49" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G50" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" s="34">
+    <row r="50" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="22">
         <v>43612</v>
       </c>
-      <c r="J50" s="24">
-        <v>60</v>
-      </c>
-      <c r="L50" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M50" s="24" t="s">
+      <c r="J50" s="12">
+        <v>60</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M50" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N50" s="30">
+      <c r="N50" s="18">
         <v>43558</v>
       </c>
-      <c r="O50" s="24">
+      <c r="O50" s="12">
         <v>30</v>
       </c>
-      <c r="Q50" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="R50" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="S50" s="58">
+      <c r="Q50" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="R50" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="S50" s="46">
         <v>43657</v>
       </c>
-      <c r="T50" s="57">
+      <c r="T50" s="45">
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G51" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="32" t="s">
+    <row r="51" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G51" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I51" s="62">
+      <c r="I51" s="50">
         <v>43617</v>
       </c>
-      <c r="J51" s="32">
+      <c r="J51" s="20">
         <v>120</v>
       </c>
-      <c r="L51" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M51" s="32" t="s">
+      <c r="L51" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M51" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="N51" s="33">
+      <c r="N51" s="21">
         <v>43558</v>
       </c>
-      <c r="O51" s="32">
+      <c r="O51" s="20">
         <v>50</v>
       </c>
-      <c r="Q51" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="R51" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="S51" s="47">
+      <c r="Q51" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R51" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S51" s="35">
         <v>43658</v>
       </c>
-      <c r="T51" s="21">
+      <c r="T51" s="9">
         <v>300</v>
       </c>
     </row>
-    <row r="52" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G52" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="34">
+    <row r="52" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="22">
         <v>43621</v>
       </c>
-      <c r="J52" s="24">
-        <v>60</v>
-      </c>
-      <c r="L52" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M52" s="24" t="s">
+      <c r="J52" s="12">
+        <v>60</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M52" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N52" s="30">
+      <c r="N52" s="18">
         <v>43558</v>
       </c>
-      <c r="O52" s="24">
-        <v>60</v>
-      </c>
-      <c r="S52" s="54"/>
-      <c r="T52" s="55"/>
-    </row>
-    <row r="53" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G53" s="63" t="s">
+      <c r="O52" s="12">
+        <v>60</v>
+      </c>
+      <c r="S52" s="42"/>
+      <c r="T52" s="43"/>
+    </row>
+    <row r="53" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G53" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="21" t="s">
+      <c r="H53" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I53" s="62">
+      <c r="I53" s="50">
         <v>43623</v>
       </c>
-      <c r="J53" s="21">
-        <v>60</v>
-      </c>
-      <c r="L53" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M53" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="N53" s="33">
+      <c r="J53" s="9">
+        <v>60</v>
+      </c>
+      <c r="L53" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M53" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N53" s="21">
         <v>43559</v>
       </c>
-      <c r="O53" s="32">
+      <c r="O53" s="20">
         <v>150</v>
       </c>
-      <c r="S53" s="54"/>
-    </row>
-    <row r="54" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G54" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="34">
+      <c r="S53" s="42"/>
+    </row>
+    <row r="54" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G54" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="22">
         <v>43624</v>
       </c>
-      <c r="J54" s="18">
+      <c r="J54" s="6">
         <v>90</v>
       </c>
-      <c r="L54" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M54" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N54" s="30">
+      <c r="L54" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M54" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="18">
         <v>43565</v>
       </c>
-      <c r="O54" s="24">
+      <c r="O54" s="12">
         <v>40</v>
       </c>
-      <c r="S54" s="54"/>
-    </row>
-    <row r="55" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G55" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="I55" s="62">
+      <c r="S54" s="42"/>
+    </row>
+    <row r="55" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G55" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="50">
         <v>43625</v>
       </c>
-      <c r="J55" s="21">
+      <c r="J55" s="9">
         <v>90</v>
       </c>
-      <c r="L55" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="M55" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="N55" s="42">
+      <c r="L55" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M55" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N55" s="30">
         <v>43577</v>
       </c>
-      <c r="O55" s="36">
+      <c r="O55" s="24">
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G56" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="24" t="s">
+    <row r="56" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G56" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I56" s="34">
+      <c r="I56" s="22">
         <v>43628</v>
       </c>
-      <c r="J56" s="18">
+      <c r="J56" s="6">
         <v>120</v>
       </c>
-      <c r="L56" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M56" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N56" s="34">
+      <c r="L56" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M56" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N56" s="22">
         <v>43577</v>
       </c>
-      <c r="O56" s="24">
+      <c r="O56" s="12">
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G57" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="21" t="s">
+    <row r="57" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G57" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I57" s="62">
+      <c r="I57" s="50">
         <v>43631</v>
       </c>
-      <c r="J57" s="21">
+      <c r="J57" s="9">
         <v>90</v>
       </c>
-      <c r="L57" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M57" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="N57" s="35">
+      <c r="L57" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M57" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N57" s="23">
         <v>43593</v>
       </c>
-      <c r="O57" s="32">
+      <c r="O57" s="20">
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G58" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="34">
+    <row r="58" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G58" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="22">
         <v>43632</v>
       </c>
-      <c r="J58" s="18">
+      <c r="J58" s="6">
         <v>150</v>
       </c>
-      <c r="L58" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M58" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N58" s="34">
+      <c r="L58" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M58" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N58" s="22">
         <v>43598</v>
       </c>
-      <c r="O58" s="24">
+      <c r="O58" s="12">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G59" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="21" t="s">
+    <row r="59" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G59" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I59" s="62">
+      <c r="I59" s="50">
         <v>43633</v>
       </c>
-      <c r="J59" s="21">
+      <c r="J59" s="9">
         <v>90</v>
       </c>
-      <c r="L59" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M59" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="N59" s="35">
+      <c r="L59" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M59" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="23">
         <v>43608</v>
       </c>
-      <c r="O59" s="32">
+      <c r="O59" s="20">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G60" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="34">
+    <row r="60" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G60" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="22">
         <v>43636</v>
       </c>
-      <c r="J60" s="18">
-        <v>60</v>
-      </c>
-      <c r="L60" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M60" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N60" s="35">
+      <c r="J60" s="6">
+        <v>60</v>
+      </c>
+      <c r="L60" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N60" s="23">
         <v>43621</v>
       </c>
-      <c r="O60" s="24">
+      <c r="O60" s="12">
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G61" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" s="21" t="s">
+    <row r="61" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G61" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I61" s="62">
+      <c r="I61" s="50">
         <v>43638</v>
       </c>
-      <c r="J61" s="21">
-        <v>60</v>
-      </c>
-      <c r="L61" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M61" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="N61" s="35">
+      <c r="J61" s="9">
+        <v>60</v>
+      </c>
+      <c r="L61" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M61" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N61" s="23">
         <v>43622</v>
       </c>
-      <c r="O61" s="32">
+      <c r="O61" s="20">
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G62" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="59">
+    <row r="62" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G62" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="47">
         <v>43641</v>
       </c>
-      <c r="J62" s="57">
+      <c r="J62" s="45">
         <v>120</v>
       </c>
-      <c r="L62" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M62" s="24" t="s">
+      <c r="L62" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M62" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="N62" s="35">
+      <c r="N62" s="23">
         <v>43636</v>
       </c>
-      <c r="O62" s="24">
+      <c r="O62" s="12">
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G63" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" s="62">
+    <row r="63" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G63" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="50">
         <v>43642</v>
       </c>
-      <c r="J63" s="61">
+      <c r="J63" s="49">
         <v>90</v>
       </c>
-      <c r="L63" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M63" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="N63" s="35">
+      <c r="L63" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M63" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N63" s="23">
         <v>43648</v>
       </c>
-      <c r="O63" s="32">
+      <c r="O63" s="20">
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G64" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="I64" s="59">
+    <row r="64" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G64" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" s="47">
         <v>43643</v>
       </c>
-      <c r="J64" s="57">
-        <v>60</v>
-      </c>
-      <c r="L64" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M64" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N64" s="35">
+      <c r="J64" s="45">
+        <v>60</v>
+      </c>
+      <c r="L64" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M64" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N64" s="23">
         <v>43652</v>
       </c>
-      <c r="O64" s="24">
+      <c r="O64" s="12">
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G65" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="I65" s="62">
+    <row r="65" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G65" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" s="50">
         <v>43657</v>
       </c>
-      <c r="J65" s="61">
-        <v>60</v>
-      </c>
-      <c r="L65" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M65" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="N65" s="35">
+      <c r="J65" s="49">
+        <v>60</v>
+      </c>
+      <c r="L65" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M65" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N65" s="23">
         <v>43656</v>
       </c>
-      <c r="O65" s="32">
+      <c r="O65" s="20">
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G66" s="60" t="s">
+    <row r="66" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G66" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="H66" s="57" t="s">
+      <c r="H66" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I66" s="59">
+      <c r="I66" s="47">
         <v>43658</v>
       </c>
-      <c r="J66" s="57">
+      <c r="J66" s="45">
         <v>30</v>
       </c>
-      <c r="L66" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M66" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N66" s="35">
+      <c r="L66" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M66" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N66" s="23">
         <v>43657</v>
       </c>
-      <c r="O66" s="24">
+      <c r="O66" s="12">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="L67" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M67" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="N67" s="35">
+    <row r="67" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="L67" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M67" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N67" s="23">
         <v>43658</v>
       </c>
-      <c r="O67" s="32">
+      <c r="O67" s="20">
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="L68" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M68" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N68" s="35">
+    <row r="68" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="L68" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M68" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N68" s="23">
         <v>43658</v>
       </c>
-      <c r="O68" s="24">
+      <c r="O68" s="12">
         <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="L69" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="M69" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="N69" s="42">
+        <v>43659</v>
+      </c>
+      <c r="O69" s="64">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="S7:T7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="J8:K8"/>
@@ -3355,22 +3379,12 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="L12:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D63CD8-5B85-4756-9947-AD638D061A4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F255A8-C2F3-46AC-ACB4-41D2E5E471B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,14 +445,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -469,19 +473,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M71" sqref="M71"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O70" sqref="O70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,12 +897,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="2:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
@@ -911,53 +911,53 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="2"/>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="S4" s="61" t="s">
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="S4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="2:26" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="J5" s="63" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="J5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="63"/>
+      <c r="K5" s="56"/>
       <c r="L5" s="4" t="s">
         <v>7</v>
       </c>
@@ -977,10 +977,10 @@
         <v>12</v>
       </c>
       <c r="R5" s="5"/>
-      <c r="S5" s="63" t="s">
+      <c r="S5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="63"/>
+      <c r="T5" s="56"/>
       <c r="U5" s="4" t="s">
         <v>13</v>
       </c>
@@ -989,10 +989,10 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="6">
         <f>SUM(J14:J100)</f>
         <v>3670</v>
@@ -1001,14 +1001,14 @@
         <f>_xlfn.FLOOR.MATH(D6/60)</f>
         <v>61</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="J6" s="55" t="s">
+      <c r="G6" s="58"/>
+      <c r="J6" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="55"/>
+      <c r="K6" s="57"/>
       <c r="L6" s="8">
         <f>SUMIF(H14:H100,"CM",J14:J100)</f>
         <v>210</v>
@@ -1033,10 +1033,10 @@
         <f>SUMIF(H14:H100,"Test",J14:J100)</f>
         <v>840</v>
       </c>
-      <c r="S6" s="55" t="s">
+      <c r="S6" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="55"/>
+      <c r="T6" s="57"/>
       <c r="U6" s="6">
         <f>SUMIF(G14:G100,"Interno",J14:J100)</f>
         <v>330</v>
@@ -1047,33 +1047,33 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="9">
         <f>SUM(O14:O117)</f>
-        <v>4320</v>
+        <v>4390</v>
       </c>
       <c r="E7" s="10">
         <f>_xlfn.FLOOR.MATH(D7/60)</f>
-        <v>72</v>
-      </c>
-      <c r="F7" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="J7" s="57" t="s">
+      <c r="G7" s="60"/>
+      <c r="J7" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="57"/>
+      <c r="K7" s="59"/>
       <c r="L7" s="11">
         <f>SUMIF(M14:M100,"CM",O14:O100)</f>
         <v>340</v>
       </c>
       <c r="M7" s="11">
         <f>SUMIF(M14:M100,"Documentazione",O14:O100)</f>
-        <v>1370</v>
+        <v>1440</v>
       </c>
       <c r="N7" s="11">
         <f>SUMIF(M14:M100,"Ricerche",O14:O100)</f>
@@ -1091,24 +1091,24 @@
         <f>SUMIF(M14:M100,"Test",O14:O100)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="57" t="s">
+      <c r="S7" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="57"/>
+      <c r="T7" s="59"/>
       <c r="U7" s="9">
         <f>SUMIF(L14:L100,"Interno",O14:O100)</f>
         <v>400</v>
       </c>
       <c r="V7" s="9">
         <f>SUMIF(L14:L100,"GDPR",O14:O100)</f>
-        <v>3920</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="12">
         <f>SUM(T14:T59)</f>
         <v>4270</v>
@@ -1117,14 +1117,14 @@
         <f>_xlfn.FLOOR.MATH(D8/60)</f>
         <v>71</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="56"/>
-      <c r="J8" s="55" t="s">
+      <c r="G8" s="58"/>
+      <c r="J8" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="55"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="8">
         <f>SUMIF(R14:R100,"CM",T14:T100)</f>
         <v>0</v>
@@ -1149,10 +1149,10 @@
         <f>SUMIF(R14:R100,"Test",T14:T100)</f>
         <v>45</v>
       </c>
-      <c r="S8" s="55" t="s">
+      <c r="S8" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="55"/>
+      <c r="T8" s="57"/>
       <c r="U8" s="6">
         <f>SUMIF(Q14:Q100,"Interno",T14:T100)</f>
         <v>0</v>
@@ -1163,10 +1163,10 @@
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="57"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="9">
         <f>SUM(E14:E37)</f>
         <v>910</v>
@@ -1175,24 +1175,24 @@
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
         <v>45</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="58"/>
+      <c r="G9" s="60"/>
       <c r="H9" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="59"/>
+      <c r="K9" s="61"/>
       <c r="L9" s="13">
         <f t="shared" ref="L9:Q9" si="0">SUM(L6:L8)</f>
         <v>550</v>
       </c>
       <c r="M9" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>4335</v>
+        <v>4405</v>
       </c>
       <c r="N9" s="13">
         <f t="shared" si="0"/>
@@ -1210,62 +1210,62 @@
         <f t="shared" si="0"/>
         <v>885</v>
       </c>
-      <c r="S9" s="59" t="s">
+      <c r="S9" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="59"/>
+      <c r="T9" s="61"/>
       <c r="U9" s="14">
         <f>SUM(U6:U8)</f>
         <v>730</v>
       </c>
       <c r="V9" s="14">
         <f>SUM(V6:V8)</f>
-        <v>11530</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="15">
         <f>SUM(D6:D9)</f>
-        <v>13170</v>
+        <v>13240</v>
       </c>
       <c r="E10" s="15">
         <f>SUM(E6:E9)</f>
-        <v>249</v>
-      </c>
-      <c r="F10" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="54"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="G12" s="52" t="s">
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="G12" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="L12" s="52" t="s">
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="L12" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="Q12" s="52" t="s">
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="Q12" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -3340,21 +3340,43 @@
       </c>
     </row>
     <row r="69" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="L69" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="M69" s="64" t="s">
+      <c r="L69" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="M69" s="52" t="s">
         <v>8</v>
       </c>
       <c r="N69" s="42">
         <v>43659</v>
       </c>
-      <c r="O69" s="64">
-        <v>130</v>
+      <c r="O69" s="52">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="S7:T7"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="J4:Q4"/>
@@ -3363,28 +3385,6 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="S5:T5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="L12:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F255A8-C2F3-46AC-ACB4-41D2E5E471B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878A0468-03C8-48B2-8E07-D6DB07222B16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,17 +446,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -473,14 +470,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O70" sqref="O70"/>
     </sheetView>
   </sheetViews>
@@ -897,12 +897,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
     </row>
     <row r="3" spans="2:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
@@ -911,53 +911,53 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="2"/>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="S4" s="54" t="s">
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="S4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="2:26" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="J5" s="56" t="s">
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="J5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="56"/>
+      <c r="K5" s="64"/>
       <c r="L5" s="4" t="s">
         <v>7</v>
       </c>
@@ -977,10 +977,10 @@
         <v>12</v>
       </c>
       <c r="R5" s="5"/>
-      <c r="S5" s="56" t="s">
+      <c r="S5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="56"/>
+      <c r="T5" s="64"/>
       <c r="U5" s="4" t="s">
         <v>13</v>
       </c>
@@ -989,10 +989,10 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="6">
         <f>SUM(J14:J100)</f>
         <v>3670</v>
@@ -1001,14 +1001,14 @@
         <f>_xlfn.FLOOR.MATH(D6/60)</f>
         <v>61</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="58"/>
-      <c r="J6" s="57" t="s">
+      <c r="G6" s="57"/>
+      <c r="J6" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="57"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="8">
         <f>SUMIF(H14:H100,"CM",J14:J100)</f>
         <v>210</v>
@@ -1033,10 +1033,10 @@
         <f>SUMIF(H14:H100,"Test",J14:J100)</f>
         <v>840</v>
       </c>
-      <c r="S6" s="57" t="s">
+      <c r="S6" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="57"/>
+      <c r="T6" s="56"/>
       <c r="U6" s="6">
         <f>SUMIF(G14:G100,"Interno",J14:J100)</f>
         <v>330</v>
@@ -1047,33 +1047,33 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="9">
         <f>SUM(O14:O117)</f>
-        <v>4390</v>
+        <v>4460</v>
       </c>
       <c r="E7" s="10">
         <f>_xlfn.FLOOR.MATH(D7/60)</f>
-        <v>73</v>
-      </c>
-      <c r="F7" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="J7" s="59" t="s">
+      <c r="G7" s="59"/>
+      <c r="J7" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="59"/>
+      <c r="K7" s="58"/>
       <c r="L7" s="11">
         <f>SUMIF(M14:M100,"CM",O14:O100)</f>
         <v>340</v>
       </c>
       <c r="M7" s="11">
         <f>SUMIF(M14:M100,"Documentazione",O14:O100)</f>
-        <v>1440</v>
+        <v>1510</v>
       </c>
       <c r="N7" s="11">
         <f>SUMIF(M14:M100,"Ricerche",O14:O100)</f>
@@ -1091,24 +1091,24 @@
         <f>SUMIF(M14:M100,"Test",O14:O100)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="59" t="s">
+      <c r="S7" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="59"/>
+      <c r="T7" s="58"/>
       <c r="U7" s="9">
         <f>SUMIF(L14:L100,"Interno",O14:O100)</f>
         <v>400</v>
       </c>
       <c r="V7" s="9">
         <f>SUMIF(L14:L100,"GDPR",O14:O100)</f>
-        <v>3990</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="12">
         <f>SUM(T14:T59)</f>
         <v>4270</v>
@@ -1117,14 +1117,14 @@
         <f>_xlfn.FLOOR.MATH(D8/60)</f>
         <v>71</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="J8" s="57" t="s">
+      <c r="G8" s="57"/>
+      <c r="J8" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="57"/>
+      <c r="K8" s="56"/>
       <c r="L8" s="8">
         <f>SUMIF(R14:R100,"CM",T14:T100)</f>
         <v>0</v>
@@ -1149,10 +1149,10 @@
         <f>SUMIF(R14:R100,"Test",T14:T100)</f>
         <v>45</v>
       </c>
-      <c r="S8" s="57" t="s">
+      <c r="S8" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="57"/>
+      <c r="T8" s="56"/>
       <c r="U8" s="6">
         <f>SUMIF(Q14:Q100,"Interno",T14:T100)</f>
         <v>0</v>
@@ -1163,10 +1163,10 @@
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="59"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="9">
         <f>SUM(E14:E37)</f>
         <v>910</v>
@@ -1175,24 +1175,24 @@
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
         <v>45</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="60"/>
+      <c r="G9" s="59"/>
       <c r="H9" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="61"/>
+      <c r="K9" s="60"/>
       <c r="L9" s="13">
         <f t="shared" ref="L9:Q9" si="0">SUM(L6:L8)</f>
         <v>550</v>
       </c>
       <c r="M9" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>4405</v>
+        <v>4475</v>
       </c>
       <c r="N9" s="13">
         <f t="shared" si="0"/>
@@ -1210,62 +1210,62 @@
         <f t="shared" si="0"/>
         <v>885</v>
       </c>
-      <c r="S9" s="61" t="s">
+      <c r="S9" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="61"/>
+      <c r="T9" s="60"/>
       <c r="U9" s="14">
         <f>SUM(U6:U8)</f>
         <v>730</v>
       </c>
       <c r="V9" s="14">
         <f>SUM(V6:V8)</f>
-        <v>11600</v>
+        <v>11670</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="15">
         <f>SUM(D6:D9)</f>
-        <v>13240</v>
+        <v>13310</v>
       </c>
       <c r="E10" s="15">
         <f>SUM(E6:E9)</f>
-        <v>250</v>
-      </c>
-      <c r="F10" s="64" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="64"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="G12" s="62" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="G12" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="L12" s="62" t="s">
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="L12" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="Q12" s="62" t="s">
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="Q12" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -3350,17 +3350,27 @@
         <v>43659</v>
       </c>
       <c r="O69" s="52">
-        <v>200</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="S7:T7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="J8:K8"/>
@@ -3369,22 +3379,12 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="L12:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878A0468-03C8-48B2-8E07-D6DB07222B16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10270B65-8CD0-471E-A90D-0D31DBAD200D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="36">
   <si>
     <t>Registrazione Tempi di Lavoro</t>
   </si>
@@ -446,14 +446,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -470,17 +473,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Z69"/>
+  <dimension ref="B2:Z70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O70" sqref="O70"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M71" sqref="M71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,12 +897,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="2:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
@@ -911,53 +911,53 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="2"/>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="S4" s="62" t="s">
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="S4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="2:26" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="63"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="J5" s="64" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="J5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="64"/>
+      <c r="K5" s="56"/>
       <c r="L5" s="4" t="s">
         <v>7</v>
       </c>
@@ -977,10 +977,10 @@
         <v>12</v>
       </c>
       <c r="R5" s="5"/>
-      <c r="S5" s="64" t="s">
+      <c r="S5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="64"/>
+      <c r="T5" s="56"/>
       <c r="U5" s="4" t="s">
         <v>13</v>
       </c>
@@ -989,10 +989,10 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="56"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="6">
         <f>SUM(J14:J100)</f>
         <v>3670</v>
@@ -1001,14 +1001,14 @@
         <f>_xlfn.FLOOR.MATH(D6/60)</f>
         <v>61</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="J6" s="56" t="s">
+      <c r="G6" s="58"/>
+      <c r="J6" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="56"/>
+      <c r="K6" s="57"/>
       <c r="L6" s="8">
         <f>SUMIF(H14:H100,"CM",J14:J100)</f>
         <v>210</v>
@@ -1033,10 +1033,10 @@
         <f>SUMIF(H14:H100,"Test",J14:J100)</f>
         <v>840</v>
       </c>
-      <c r="S6" s="56" t="s">
+      <c r="S6" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="56"/>
+      <c r="T6" s="57"/>
       <c r="U6" s="6">
         <f>SUMIF(G14:G100,"Interno",J14:J100)</f>
         <v>330</v>
@@ -1047,33 +1047,33 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="58"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="9">
         <f>SUM(O14:O117)</f>
-        <v>4460</v>
+        <v>4530</v>
       </c>
       <c r="E7" s="10">
         <f>_xlfn.FLOOR.MATH(D7/60)</f>
-        <v>74</v>
-      </c>
-      <c r="F7" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="J7" s="58" t="s">
+      <c r="G7" s="60"/>
+      <c r="J7" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="58"/>
+      <c r="K7" s="59"/>
       <c r="L7" s="11">
         <f>SUMIF(M14:M100,"CM",O14:O100)</f>
         <v>340</v>
       </c>
       <c r="M7" s="11">
         <f>SUMIF(M14:M100,"Documentazione",O14:O100)</f>
-        <v>1510</v>
+        <v>1550</v>
       </c>
       <c r="N7" s="11">
         <f>SUMIF(M14:M100,"Ricerche",O14:O100)</f>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="O7" s="11">
         <f>SUMIF(M14:M100,"Codice",O14:O100)</f>
-        <v>2080</v>
+        <v>2110</v>
       </c>
       <c r="P7" s="11">
         <f>SUMIF(M14:M100,"Database",O14:O100)</f>
@@ -1091,24 +1091,24 @@
         <f>SUMIF(M14:M100,"Test",O14:O100)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="58" t="s">
+      <c r="S7" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="58"/>
+      <c r="T7" s="59"/>
       <c r="U7" s="9">
         <f>SUMIF(L14:L100,"Interno",O14:O100)</f>
         <v>400</v>
       </c>
       <c r="V7" s="9">
         <f>SUMIF(L14:L100,"GDPR",O14:O100)</f>
-        <v>4060</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="56"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="12">
         <f>SUM(T14:T59)</f>
         <v>4270</v>
@@ -1117,14 +1117,14 @@
         <f>_xlfn.FLOOR.MATH(D8/60)</f>
         <v>71</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="57"/>
-      <c r="J8" s="56" t="s">
+      <c r="G8" s="58"/>
+      <c r="J8" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="56"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="8">
         <f>SUMIF(R14:R100,"CM",T14:T100)</f>
         <v>0</v>
@@ -1149,10 +1149,10 @@
         <f>SUMIF(R14:R100,"Test",T14:T100)</f>
         <v>45</v>
       </c>
-      <c r="S8" s="56" t="s">
+      <c r="S8" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="56"/>
+      <c r="T8" s="57"/>
       <c r="U8" s="6">
         <f>SUMIF(Q14:Q100,"Interno",T14:T100)</f>
         <v>0</v>
@@ -1163,10 +1163,10 @@
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="58"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="9">
         <f>SUM(E14:E37)</f>
         <v>910</v>
@@ -1175,24 +1175,24 @@
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
         <v>45</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="59"/>
+      <c r="G9" s="60"/>
       <c r="H9" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="60" t="s">
+      <c r="J9" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="60"/>
+      <c r="K9" s="61"/>
       <c r="L9" s="13">
         <f t="shared" ref="L9:Q9" si="0">SUM(L6:L8)</f>
         <v>550</v>
       </c>
       <c r="M9" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>4475</v>
+        <v>4515</v>
       </c>
       <c r="N9" s="13">
         <f t="shared" si="0"/>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="O9" s="13">
         <f t="shared" si="0"/>
-        <v>5080</v>
+        <v>5110</v>
       </c>
       <c r="P9" s="13">
         <f t="shared" si="0"/>
@@ -1210,62 +1210,62 @@
         <f t="shared" si="0"/>
         <v>885</v>
       </c>
-      <c r="S9" s="60" t="s">
+      <c r="S9" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="60"/>
+      <c r="T9" s="61"/>
       <c r="U9" s="14">
         <f>SUM(U6:U8)</f>
         <v>730</v>
       </c>
       <c r="V9" s="14">
         <f>SUM(V6:V8)</f>
-        <v>11670</v>
+        <v>11740</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="15">
         <f>SUM(D6:D9)</f>
-        <v>13310</v>
+        <v>13380</v>
       </c>
       <c r="E10" s="15">
         <f>SUM(E6:E9)</f>
-        <v>251</v>
-      </c>
-      <c r="F10" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="55"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="G12" s="53" t="s">
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="G12" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="L12" s="53" t="s">
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="L12" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="Q12" s="53" t="s">
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="Q12" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -3350,11 +3350,47 @@
         <v>43659</v>
       </c>
       <c r="O69" s="52">
-        <v>270</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="70" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="L70" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="M70" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N70" s="42">
+        <v>43659</v>
+      </c>
+      <c r="O70" s="31">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="S7:T7"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="J4:Q4"/>
@@ -3363,28 +3399,6 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="S5:T5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="L12:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_GL3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\GDPRProject\Documentazione\GDPRPrj_TempiLavoro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10270B65-8CD0-471E-A90D-0D31DBAD200D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EAA986-307C-4B31-A73E-D544798FC729}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="36">
   <si>
     <t>Registrazione Tempi di Lavoro</t>
   </si>
@@ -446,17 +446,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -473,14 +470,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Z70"/>
+  <dimension ref="B2:Z71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M71" sqref="M71"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,12 +897,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
     </row>
     <row r="3" spans="2:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
@@ -911,53 +911,53 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="2"/>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="S4" s="54" t="s">
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="S4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="2:26" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="J5" s="56" t="s">
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="J5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="56"/>
+      <c r="K5" s="64"/>
       <c r="L5" s="4" t="s">
         <v>7</v>
       </c>
@@ -977,10 +977,10 @@
         <v>12</v>
       </c>
       <c r="R5" s="5"/>
-      <c r="S5" s="56" t="s">
+      <c r="S5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="56"/>
+      <c r="T5" s="64"/>
       <c r="U5" s="4" t="s">
         <v>13</v>
       </c>
@@ -989,10 +989,10 @@
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="6">
         <f>SUM(J14:J100)</f>
         <v>3670</v>
@@ -1001,14 +1001,14 @@
         <f>_xlfn.FLOOR.MATH(D6/60)</f>
         <v>61</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="58"/>
-      <c r="J6" s="57" t="s">
+      <c r="G6" s="57"/>
+      <c r="J6" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="57"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="8">
         <f>SUMIF(H14:H100,"CM",J14:J100)</f>
         <v>210</v>
@@ -1033,10 +1033,10 @@
         <f>SUMIF(H14:H100,"Test",J14:J100)</f>
         <v>840</v>
       </c>
-      <c r="S6" s="57" t="s">
+      <c r="S6" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="57"/>
+      <c r="T6" s="56"/>
       <c r="U6" s="6">
         <f>SUMIF(G14:G100,"Interno",J14:J100)</f>
         <v>330</v>
@@ -1047,33 +1047,33 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="9">
         <f>SUM(O14:O117)</f>
-        <v>4530</v>
+        <v>4580</v>
       </c>
       <c r="E7" s="10">
         <f>_xlfn.FLOOR.MATH(D7/60)</f>
-        <v>75</v>
-      </c>
-      <c r="F7" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="J7" s="59" t="s">
+      <c r="G7" s="59"/>
+      <c r="J7" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="59"/>
+      <c r="K7" s="58"/>
       <c r="L7" s="11">
         <f>SUMIF(M14:M100,"CM",O14:O100)</f>
         <v>340</v>
       </c>
       <c r="M7" s="11">
         <f>SUMIF(M14:M100,"Documentazione",O14:O100)</f>
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="N7" s="11">
         <f>SUMIF(M14:M100,"Ricerche",O14:O100)</f>
@@ -1091,24 +1091,24 @@
         <f>SUMIF(M14:M100,"Test",O14:O100)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="59" t="s">
+      <c r="S7" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="59"/>
+      <c r="T7" s="58"/>
       <c r="U7" s="9">
         <f>SUMIF(L14:L100,"Interno",O14:O100)</f>
         <v>400</v>
       </c>
       <c r="V7" s="9">
         <f>SUMIF(L14:L100,"GDPR",O14:O100)</f>
-        <v>4130</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="12">
         <f>SUM(T14:T59)</f>
         <v>4270</v>
@@ -1117,14 +1117,14 @@
         <f>_xlfn.FLOOR.MATH(D8/60)</f>
         <v>71</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="J8" s="57" t="s">
+      <c r="G8" s="57"/>
+      <c r="J8" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="57"/>
+      <c r="K8" s="56"/>
       <c r="L8" s="8">
         <f>SUMIF(R14:R100,"CM",T14:T100)</f>
         <v>0</v>
@@ -1149,10 +1149,10 @@
         <f>SUMIF(R14:R100,"Test",T14:T100)</f>
         <v>45</v>
       </c>
-      <c r="S8" s="57" t="s">
+      <c r="S8" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="57"/>
+      <c r="T8" s="56"/>
       <c r="U8" s="6">
         <f>SUMIF(Q14:Q100,"Interno",T14:T100)</f>
         <v>0</v>
@@ -1163,10 +1163,10 @@
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="59"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="9">
         <f>SUM(E14:E37)</f>
         <v>910</v>
@@ -1175,24 +1175,24 @@
         <f>_xlfn.FLOOR.MATH(D9/60)*3</f>
         <v>45</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="60"/>
+      <c r="G9" s="59"/>
       <c r="H9" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="61"/>
+      <c r="K9" s="60"/>
       <c r="L9" s="13">
         <f t="shared" ref="L9:Q9" si="0">SUM(L6:L8)</f>
         <v>550</v>
       </c>
       <c r="M9" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>4515</v>
+        <v>4565</v>
       </c>
       <c r="N9" s="13">
         <f t="shared" si="0"/>
@@ -1210,62 +1210,62 @@
         <f t="shared" si="0"/>
         <v>885</v>
       </c>
-      <c r="S9" s="61" t="s">
+      <c r="S9" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="61"/>
+      <c r="T9" s="60"/>
       <c r="U9" s="14">
         <f>SUM(U6:U8)</f>
         <v>730</v>
       </c>
       <c r="V9" s="14">
         <f>SUM(V6:V8)</f>
-        <v>11740</v>
+        <v>11790</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="15">
         <f>SUM(D6:D9)</f>
-        <v>13380</v>
+        <v>13430</v>
       </c>
       <c r="E10" s="15">
         <f>SUM(E6:E9)</f>
-        <v>252</v>
-      </c>
-      <c r="F10" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="64"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="12" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="G12" s="62" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="G12" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="L12" s="62" t="s">
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="L12" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="Q12" s="62" t="s">
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="Q12" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
@@ -3367,14 +3367,38 @@
         <v>30</v>
       </c>
     </row>
+    <row r="71" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="L71" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="M71" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="N71" s="42">
+        <v>43660</v>
+      </c>
+      <c r="O71" s="52">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="S7:T7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="J8:K8"/>
@@ -3383,22 +3407,12 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="L12:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
